--- a/name/vnindex/20230127/VNINDEX_HOSE_5p_20230127.xlsx
+++ b/name/vnindex/20230127/VNINDEX_HOSE_5p_20230127.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P117"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -454,2407 +454,5807 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1674810900000</v>
+        <v>1674810840000</v>
       </c>
       <c r="B2">
-        <v>15236600</v>
+        <v>6178200</v>
       </c>
       <c r="C2">
-        <v>14428900</v>
+        <v>4810100</v>
       </c>
       <c r="D2">
-        <v>3581700</v>
+        <v>3412000</v>
       </c>
       <c r="E2">
-        <v>268093539000</v>
+        <v>111933944000</v>
       </c>
       <c r="F2">
-        <v>275585449000</v>
+        <v>83031725000</v>
       </c>
       <c r="G2">
-        <v>53833961000</v>
+        <v>51358233000</v>
       </c>
       <c r="H2">
-        <v>33247200</v>
+        <v>14400300</v>
       </c>
       <c r="I2">
-        <v>597512949000</v>
+        <v>246323902000</v>
       </c>
       <c r="J2" t="str">
-        <v>2023-01-27T09:15:00.000Z</v>
+        <v>2023-01-27T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>597512949000</v>
+        <v>246323902000</v>
       </c>
       <c r="L2">
-        <v>33247200</v>
+        <v>14400300</v>
       </c>
       <c r="M2">
-        <v>-807700</v>
+        <v>-1368100</v>
       </c>
       <c r="N2">
-        <v>7491910000</v>
+        <v>-28902219000</v>
       </c>
       <c r="O2">
-        <v>-807700</v>
+        <v>-1368100</v>
       </c>
       <c r="P2">
-        <v>7491910000</v>
+        <v>-28902219000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1674811200000</v>
+        <v>1674810960000</v>
       </c>
       <c r="B3">
-        <v>10389200</v>
+        <v>4204800</v>
       </c>
       <c r="C3">
-        <v>7623700</v>
+        <v>5445200</v>
       </c>
       <c r="D3">
-        <v>164200</v>
+        <v>80000</v>
       </c>
       <c r="E3">
-        <v>193512551000</v>
+        <v>72929787000</v>
       </c>
       <c r="F3">
-        <v>156240389000</v>
+        <v>110084181000</v>
       </c>
       <c r="G3">
-        <v>3662322000</v>
+        <v>1559402000</v>
       </c>
       <c r="H3">
-        <v>18177100</v>
+        <v>9730000</v>
       </c>
       <c r="I3">
-        <v>353415262000</v>
+        <v>184573370000</v>
       </c>
       <c r="J3" t="str">
-        <v>2023-01-27T09:20:00.000Z</v>
+        <v>2023-01-27T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>950928211000</v>
+        <v>430897272000</v>
       </c>
       <c r="L3">
-        <v>51424300</v>
+        <v>24130300</v>
       </c>
       <c r="M3">
-        <v>-2765500</v>
+        <v>1240400</v>
       </c>
       <c r="N3">
-        <v>-37272162000</v>
+        <v>37154394000</v>
       </c>
       <c r="O3">
-        <v>-3573200</v>
+        <v>-127700</v>
       </c>
       <c r="P3">
-        <v>-29780252000</v>
+        <v>8252175000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1674811500000</v>
+        <v>1674811080000</v>
       </c>
       <c r="B4">
-        <v>6583300</v>
+        <v>4853600</v>
       </c>
       <c r="C4">
-        <v>8152600</v>
+        <v>4173600</v>
       </c>
       <c r="D4">
-        <v>48600</v>
+        <v>89700</v>
       </c>
       <c r="E4">
-        <v>115904304000</v>
+        <v>83229808000</v>
       </c>
       <c r="F4">
-        <v>162868379000</v>
+        <v>82469543000</v>
       </c>
       <c r="G4">
-        <v>1574662000</v>
+        <v>916326000</v>
       </c>
       <c r="H4">
-        <v>14784500</v>
+        <v>9116900</v>
       </c>
       <c r="I4">
-        <v>280347345000</v>
+        <v>166615677000</v>
       </c>
       <c r="J4" t="str">
-        <v>2023-01-27T09:25:00.000Z</v>
+        <v>2023-01-27T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>1231275556000</v>
+        <v>597512949000</v>
       </c>
       <c r="L4">
-        <v>66208800</v>
+        <v>33247200</v>
       </c>
       <c r="M4">
-        <v>1569300</v>
+        <v>-680000</v>
       </c>
       <c r="N4">
-        <v>46964075000</v>
+        <v>-760265000</v>
       </c>
       <c r="O4">
-        <v>-2003900</v>
+        <v>-807700</v>
       </c>
       <c r="P4">
-        <v>17183823000</v>
+        <v>7491910000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1674811800000</v>
+        <v>1674811200000</v>
       </c>
       <c r="B5">
-        <v>5505300</v>
+        <v>4265400</v>
       </c>
       <c r="C5">
-        <v>6843500</v>
+        <v>3328500</v>
       </c>
       <c r="D5">
-        <v>27800</v>
+        <v>111800</v>
       </c>
       <c r="E5">
-        <v>94062861000</v>
+        <v>80080698000</v>
       </c>
       <c r="F5">
-        <v>132980477000</v>
+        <v>70997655000</v>
       </c>
       <c r="G5">
-        <v>277947000</v>
+        <v>2396630000</v>
       </c>
       <c r="H5">
-        <v>12376600</v>
+        <v>7705700</v>
       </c>
       <c r="I5">
-        <v>227321285000</v>
+        <v>153474983000</v>
       </c>
       <c r="J5" t="str">
-        <v>2023-01-27T09:30:00.000Z</v>
+        <v>2023-01-27T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>1458596841000</v>
+        <v>750987932000</v>
       </c>
       <c r="L5">
-        <v>78585400</v>
+        <v>40952900</v>
       </c>
       <c r="M5">
-        <v>1338200</v>
+        <v>-936900</v>
       </c>
       <c r="N5">
-        <v>38917616000</v>
+        <v>-9083043000</v>
       </c>
       <c r="O5">
-        <v>-665700</v>
+        <v>-1744600</v>
       </c>
       <c r="P5">
-        <v>56101439000</v>
+        <v>-1591133000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1674812100000</v>
+        <v>1674811320000</v>
       </c>
       <c r="B6">
-        <v>6469000</v>
+        <v>4022300</v>
       </c>
       <c r="C6">
-        <v>4855200</v>
+        <v>3144700</v>
       </c>
       <c r="D6">
-        <v>18400</v>
+        <v>33800</v>
       </c>
       <c r="E6">
-        <v>115947039000</v>
+        <v>77961465000</v>
       </c>
       <c r="F6">
-        <v>93863069000</v>
+        <v>61671739000</v>
       </c>
       <c r="G6">
-        <v>429044000</v>
+        <v>996797000</v>
       </c>
       <c r="H6">
-        <v>11342600</v>
+        <v>7200800</v>
       </c>
       <c r="I6">
-        <v>210239152000</v>
+        <v>140630001000</v>
       </c>
       <c r="J6" t="str">
-        <v>2023-01-27T09:35:00.000Z</v>
+        <v>2023-01-27T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>1668835993000</v>
+        <v>891617933000</v>
       </c>
       <c r="L6">
-        <v>89928000</v>
+        <v>48153700</v>
       </c>
       <c r="M6">
-        <v>-1613800</v>
+        <v>-877600</v>
       </c>
       <c r="N6">
-        <v>-22083970000</v>
+        <v>-16289726000</v>
       </c>
       <c r="O6">
-        <v>-2279500</v>
+        <v>-2622200</v>
       </c>
       <c r="P6">
-        <v>34017469000</v>
+        <v>-17880859000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1674812400000</v>
+        <v>1674811440000</v>
       </c>
       <c r="B7">
-        <v>4626100</v>
+        <v>3811700</v>
       </c>
       <c r="C7">
-        <v>4760800</v>
+        <v>2516400</v>
       </c>
       <c r="D7">
-        <v>60800</v>
+        <v>36400</v>
       </c>
       <c r="E7">
-        <v>81985475000</v>
+        <v>65454097000</v>
       </c>
       <c r="F7">
-        <v>95716488000</v>
+        <v>49252462000</v>
       </c>
       <c r="G7">
-        <v>1040105000</v>
+        <v>760506000</v>
       </c>
       <c r="H7">
-        <v>9447700</v>
+        <v>6364500</v>
       </c>
       <c r="I7">
-        <v>178742068000</v>
+        <v>115467065000</v>
       </c>
       <c r="J7" t="str">
-        <v>2023-01-27T09:40:00.000Z</v>
+        <v>2023-01-27T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>1847578061000</v>
+        <v>1007084998000</v>
       </c>
       <c r="L7">
-        <v>99375700</v>
+        <v>54518200</v>
       </c>
       <c r="M7">
-        <v>134700</v>
+        <v>-1295300</v>
       </c>
       <c r="N7">
-        <v>13731013000</v>
+        <v>-16201635000</v>
       </c>
       <c r="O7">
-        <v>-2144800</v>
+        <v>-3917500</v>
       </c>
       <c r="P7">
-        <v>47748482000</v>
+        <v>-34082494000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1674812700000</v>
+        <v>1674811560000</v>
       </c>
       <c r="B8">
-        <v>4484800</v>
+        <v>2676600</v>
       </c>
       <c r="C8">
-        <v>4229000</v>
+        <v>3727000</v>
       </c>
       <c r="D8">
-        <v>26300</v>
+        <v>17700</v>
       </c>
       <c r="E8">
-        <v>72493714000</v>
+        <v>47250727000</v>
       </c>
       <c r="F8">
-        <v>88569082000</v>
+        <v>75945924000</v>
       </c>
       <c r="G8">
-        <v>283775000</v>
+        <v>549830000</v>
       </c>
       <c r="H8">
-        <v>8740100</v>
+        <v>6421300</v>
       </c>
       <c r="I8">
-        <v>161346571000</v>
+        <v>123746481000</v>
       </c>
       <c r="J8" t="str">
-        <v>2023-01-27T09:45:00.000Z</v>
+        <v>2023-01-27T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>2008924632000</v>
+        <v>1130831479000</v>
       </c>
       <c r="L8">
-        <v>108115800</v>
+        <v>60939500</v>
       </c>
       <c r="M8">
-        <v>-255800</v>
+        <v>1050400</v>
       </c>
       <c r="N8">
-        <v>16075368000</v>
+        <v>28695197000</v>
       </c>
       <c r="O8">
-        <v>-2400600</v>
+        <v>-2867100</v>
       </c>
       <c r="P8">
-        <v>63823850000</v>
+        <v>-5387297000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1674813000000</v>
+        <v>1674811680000</v>
       </c>
       <c r="B9">
-        <v>2862300</v>
+        <v>2196500</v>
       </c>
       <c r="C9">
-        <v>4203200</v>
+        <v>3059700</v>
       </c>
       <c r="D9">
-        <v>29700</v>
+        <v>13100</v>
       </c>
       <c r="E9">
-        <v>47655958000</v>
+        <v>38669868000</v>
       </c>
       <c r="F9">
-        <v>89589755000</v>
+        <v>61240988000</v>
       </c>
       <c r="G9">
-        <v>1229431000</v>
+        <v>533221000</v>
       </c>
       <c r="H9">
-        <v>7095200</v>
+        <v>5269300</v>
       </c>
       <c r="I9">
-        <v>138475144000</v>
+        <v>100444077000</v>
       </c>
       <c r="J9" t="str">
-        <v>2023-01-27T09:50:00.000Z</v>
+        <v>2023-01-27T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>2147399776000</v>
+        <v>1231275556000</v>
       </c>
       <c r="L9">
-        <v>115211000</v>
+        <v>66208800</v>
       </c>
       <c r="M9">
-        <v>1340900</v>
+        <v>863200</v>
       </c>
       <c r="N9">
-        <v>41933797000</v>
+        <v>22571120000</v>
       </c>
       <c r="O9">
-        <v>-1059700</v>
+        <v>-2003900</v>
       </c>
       <c r="P9">
-        <v>105757647000</v>
+        <v>17183823000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1674813300000</v>
+        <v>1674811800000</v>
       </c>
       <c r="B10">
-        <v>4138400</v>
+        <v>1963300</v>
       </c>
       <c r="C10">
-        <v>4341700</v>
+        <v>3791700</v>
       </c>
       <c r="D10">
-        <v>40200</v>
+        <v>6400</v>
       </c>
       <c r="E10">
-        <v>75061362000</v>
+        <v>34522440000</v>
       </c>
       <c r="F10">
-        <v>91820133000</v>
+        <v>69285699000</v>
       </c>
       <c r="G10">
-        <v>809582000</v>
+        <v>43682000</v>
       </c>
       <c r="H10">
-        <v>8520300</v>
+        <v>5761400</v>
       </c>
       <c r="I10">
-        <v>167691077000</v>
+        <v>103851821000</v>
       </c>
       <c r="J10" t="str">
-        <v>2023-01-27T09:55:00.000Z</v>
+        <v>2023-01-27T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>2315090853000</v>
+        <v>1335127377000</v>
       </c>
       <c r="L10">
-        <v>123731300</v>
+        <v>71970200</v>
       </c>
       <c r="M10">
-        <v>203300</v>
+        <v>1828400</v>
       </c>
       <c r="N10">
-        <v>16758771000</v>
+        <v>34763259000</v>
       </c>
       <c r="O10">
-        <v>-856400</v>
+        <v>-175500</v>
       </c>
       <c r="P10">
-        <v>122516418000</v>
+        <v>51947082000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1674813600000</v>
+        <v>1674811920000</v>
       </c>
       <c r="B11">
-        <v>6868300</v>
+        <v>2356600</v>
       </c>
       <c r="C11">
-        <v>3759000</v>
+        <v>2161900</v>
       </c>
       <c r="D11">
-        <v>44200</v>
+        <v>19700</v>
       </c>
       <c r="E11">
-        <v>119355095000</v>
+        <v>37727456000</v>
       </c>
       <c r="F11">
-        <v>76376161000</v>
+        <v>45689730000</v>
       </c>
       <c r="G11">
-        <v>691362000</v>
+        <v>197659000</v>
       </c>
       <c r="H11">
-        <v>10671500</v>
+        <v>4538200</v>
       </c>
       <c r="I11">
-        <v>196422618000</v>
+        <v>83614845000</v>
       </c>
       <c r="J11" t="str">
-        <v>2023-01-27T10:00:00.000Z</v>
+        <v>2023-01-27T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>2511513471000</v>
+        <v>1418742222000</v>
       </c>
       <c r="L11">
-        <v>134402800</v>
+        <v>76508400</v>
       </c>
       <c r="M11">
-        <v>-3109300</v>
+        <v>-194700</v>
       </c>
       <c r="N11">
-        <v>-42978934000</v>
+        <v>7962274000</v>
       </c>
       <c r="O11">
-        <v>-3965700</v>
+        <v>-370200</v>
       </c>
       <c r="P11">
-        <v>79537484000</v>
+        <v>59909356000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1674813900000</v>
+        <v>1674812040000</v>
       </c>
       <c r="B12">
-        <v>9298600</v>
+        <v>3385200</v>
       </c>
       <c r="C12">
-        <v>3768500</v>
+        <v>1620700</v>
       </c>
       <c r="D12">
-        <v>57100</v>
+        <v>3000</v>
       </c>
       <c r="E12">
-        <v>164158767000</v>
+        <v>63920177000</v>
       </c>
       <c r="F12">
-        <v>68457918000</v>
+        <v>32356465000</v>
       </c>
       <c r="G12">
-        <v>1300937000</v>
+        <v>55118000</v>
       </c>
       <c r="H12">
-        <v>13124200</v>
+        <v>5008900</v>
       </c>
       <c r="I12">
-        <v>233917622000</v>
+        <v>96331760000</v>
       </c>
       <c r="J12" t="str">
-        <v>2023-01-27T10:05:00.000Z</v>
+        <v>2023-01-27T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>2745431093000</v>
+        <v>1515073982000</v>
       </c>
       <c r="L12">
-        <v>147527000</v>
+        <v>81517300</v>
       </c>
       <c r="M12">
-        <v>-5530100</v>
+        <v>-1764500</v>
       </c>
       <c r="N12">
-        <v>-95700849000</v>
+        <v>-31563712000</v>
       </c>
       <c r="O12">
-        <v>-9495800</v>
+        <v>-2134700</v>
       </c>
       <c r="P12">
-        <v>-16163365000</v>
+        <v>28345644000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1674814200000</v>
+        <v>1674812160000</v>
       </c>
       <c r="B13">
-        <v>6070800</v>
+        <v>2227900</v>
       </c>
       <c r="C13">
-        <v>3629800</v>
+        <v>1951700</v>
       </c>
       <c r="D13">
-        <v>55700</v>
+        <v>12600</v>
       </c>
       <c r="E13">
-        <v>110103191000</v>
+        <v>37127135000</v>
       </c>
       <c r="F13">
-        <v>81937435000</v>
+        <v>37409315000</v>
       </c>
       <c r="G13">
-        <v>1257431000</v>
+        <v>274716000</v>
       </c>
       <c r="H13">
-        <v>9756300</v>
+        <v>4192200</v>
       </c>
       <c r="I13">
-        <v>193298057000</v>
+        <v>74811166000</v>
       </c>
       <c r="J13" t="str">
-        <v>2023-01-27T10:10:00.000Z</v>
+        <v>2023-01-27T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>2938729150000</v>
+        <v>1589885148000</v>
       </c>
       <c r="L13">
-        <v>157283300</v>
+        <v>85709500</v>
       </c>
       <c r="M13">
-        <v>-2441000</v>
+        <v>-276200</v>
       </c>
       <c r="N13">
-        <v>-28165756000</v>
+        <v>282180000</v>
       </c>
       <c r="O13">
-        <v>-11936800</v>
+        <v>-2410900</v>
       </c>
       <c r="P13">
-        <v>-44329121000</v>
+        <v>28627824000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1674814500000</v>
+        <v>1674812280000</v>
       </c>
       <c r="B14">
-        <v>3593800</v>
+        <v>2041300</v>
       </c>
       <c r="C14">
-        <v>3596900</v>
+        <v>2172700</v>
       </c>
       <c r="D14">
-        <v>52900</v>
+        <v>4500</v>
       </c>
       <c r="E14">
-        <v>66855846000</v>
+        <v>36712692000</v>
       </c>
       <c r="F14">
-        <v>75767843000</v>
+        <v>42102337000</v>
       </c>
       <c r="G14">
-        <v>985352000</v>
+        <v>135816000</v>
       </c>
       <c r="H14">
-        <v>7243600</v>
+        <v>4218500</v>
       </c>
       <c r="I14">
-        <v>143609041000</v>
+        <v>78950845000</v>
       </c>
       <c r="J14" t="str">
-        <v>2023-01-27T10:15:00.000Z</v>
+        <v>2023-01-27T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>3082338191000</v>
+        <v>1668835993000</v>
       </c>
       <c r="L14">
-        <v>164526900</v>
+        <v>89928000</v>
       </c>
       <c r="M14">
-        <v>3100</v>
+        <v>131400</v>
       </c>
       <c r="N14">
-        <v>8911997000</v>
+        <v>5389645000</v>
       </c>
       <c r="O14">
-        <v>-11933700</v>
+        <v>-2279500</v>
       </c>
       <c r="P14">
-        <v>-35417124000</v>
+        <v>34017469000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1674814800000</v>
+        <v>1674812400000</v>
       </c>
       <c r="B15">
-        <v>2443500</v>
+        <v>1687600</v>
       </c>
       <c r="C15">
-        <v>4933900</v>
+        <v>2050400</v>
       </c>
       <c r="D15">
-        <v>121800</v>
+        <v>18700</v>
       </c>
       <c r="E15">
-        <v>40278603000</v>
+        <v>28563188000</v>
       </c>
       <c r="F15">
-        <v>99606278000</v>
+        <v>44294033000</v>
       </c>
       <c r="G15">
-        <v>2209620000</v>
+        <v>234348000</v>
       </c>
       <c r="H15">
-        <v>7499200</v>
+        <v>3756700</v>
       </c>
       <c r="I15">
-        <v>142094501000</v>
+        <v>73091569000</v>
       </c>
       <c r="J15" t="str">
-        <v>2023-01-27T10:20:00.000Z</v>
+        <v>2023-01-27T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>3224432692000</v>
+        <v>1741927562000</v>
       </c>
       <c r="L15">
-        <v>172026100</v>
+        <v>93684700</v>
       </c>
       <c r="M15">
-        <v>2490400</v>
+        <v>362800</v>
       </c>
       <c r="N15">
-        <v>59327675000</v>
+        <v>15730845000</v>
       </c>
       <c r="O15">
-        <v>-9443300</v>
+        <v>-1916700</v>
       </c>
       <c r="P15">
-        <v>23910551000</v>
+        <v>49748314000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1674815100000</v>
+        <v>1674812520000</v>
       </c>
       <c r="B16">
-        <v>2578700</v>
+        <v>2079700</v>
       </c>
       <c r="C16">
-        <v>6169900</v>
+        <v>1832700</v>
       </c>
       <c r="D16">
-        <v>73000</v>
+        <v>38900</v>
       </c>
       <c r="E16">
-        <v>47579756000</v>
+        <v>37215581000</v>
       </c>
       <c r="F16">
-        <v>104502160000</v>
+        <v>34558577000</v>
       </c>
       <c r="G16">
-        <v>1454234000</v>
+        <v>726045000</v>
       </c>
       <c r="H16">
-        <v>8821600</v>
+        <v>3951300</v>
       </c>
       <c r="I16">
-        <v>153536150000</v>
+        <v>72500203000</v>
       </c>
       <c r="J16" t="str">
-        <v>2023-01-27T10:25:00.000Z</v>
+        <v>2023-01-27T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>3377968842000</v>
+        <v>1814427765000</v>
       </c>
       <c r="L16">
-        <v>180847700</v>
+        <v>97636000</v>
       </c>
       <c r="M16">
-        <v>3591200</v>
+        <v>-247000</v>
       </c>
       <c r="N16">
-        <v>56922404000</v>
+        <v>-2657004000</v>
       </c>
       <c r="O16">
-        <v>-5852100</v>
+        <v>-2163700</v>
       </c>
       <c r="P16">
-        <v>80832955000</v>
+        <v>47091310000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1674815400000</v>
+        <v>1674812640000</v>
       </c>
       <c r="B17">
-        <v>2916300</v>
+        <v>1811500</v>
       </c>
       <c r="C17">
-        <v>3515200</v>
+        <v>1768400</v>
       </c>
       <c r="D17">
-        <v>17600</v>
+        <v>18400</v>
       </c>
       <c r="E17">
-        <v>53437198000</v>
+        <v>33870532000</v>
       </c>
       <c r="F17">
-        <v>65123012000</v>
+        <v>34090909000</v>
       </c>
       <c r="G17">
-        <v>349410000</v>
+        <v>191228000</v>
       </c>
       <c r="H17">
-        <v>6449100</v>
+        <v>3598300</v>
       </c>
       <c r="I17">
-        <v>118909620000</v>
+        <v>68152669000</v>
       </c>
       <c r="J17" t="str">
-        <v>2023-01-27T10:30:00.000Z</v>
+        <v>2023-01-27T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>3496878462000</v>
+        <v>1882580434000</v>
       </c>
       <c r="L17">
-        <v>187296800</v>
+        <v>101234300</v>
       </c>
       <c r="M17">
-        <v>598900</v>
+        <v>-43100</v>
       </c>
       <c r="N17">
-        <v>11685814000</v>
+        <v>220377000</v>
       </c>
       <c r="O17">
-        <v>-5253200</v>
+        <v>-2206800</v>
       </c>
       <c r="P17">
-        <v>92518769000</v>
+        <v>47311687000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1674815700000</v>
+        <v>1674812760000</v>
       </c>
       <c r="B18">
-        <v>3213300</v>
+        <v>1602000</v>
       </c>
       <c r="C18">
-        <v>2768600</v>
+        <v>1636000</v>
       </c>
       <c r="D18">
-        <v>44100</v>
+        <v>3000</v>
       </c>
       <c r="E18">
-        <v>58817201000</v>
+        <v>24423966000</v>
       </c>
       <c r="F18">
-        <v>60727092000</v>
+        <v>33876746000</v>
       </c>
       <c r="G18">
-        <v>822246000</v>
+        <v>55251000</v>
       </c>
       <c r="H18">
-        <v>6026000</v>
+        <v>3241000</v>
       </c>
       <c r="I18">
-        <v>120366539000</v>
+        <v>58355963000</v>
       </c>
       <c r="J18" t="str">
-        <v>2023-01-27T10:35:00.000Z</v>
+        <v>2023-01-27T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>3617245001000</v>
+        <v>1940936397000</v>
       </c>
       <c r="L18">
-        <v>193322800</v>
+        <v>104475300</v>
       </c>
       <c r="M18">
-        <v>-444700</v>
+        <v>34000</v>
       </c>
       <c r="N18">
-        <v>1909891000</v>
+        <v>9452780000</v>
       </c>
       <c r="O18">
-        <v>-5697900</v>
+        <v>-2172800</v>
       </c>
       <c r="P18">
-        <v>94428660000</v>
+        <v>56764467000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1674816000000</v>
+        <v>1674812880000</v>
       </c>
       <c r="B19">
-        <v>2629000</v>
+        <v>1930100</v>
       </c>
       <c r="C19">
-        <v>7757800</v>
+        <v>1702300</v>
       </c>
       <c r="D19">
-        <v>213700</v>
+        <v>8100</v>
       </c>
       <c r="E19">
-        <v>46527412000</v>
+        <v>30405922000</v>
       </c>
       <c r="F19">
-        <v>153963476000</v>
+        <v>37465305000</v>
       </c>
       <c r="G19">
-        <v>3561294000</v>
+        <v>117008000</v>
       </c>
       <c r="H19">
-        <v>10600500</v>
+        <v>3640500</v>
       </c>
       <c r="I19">
-        <v>204052182000</v>
+        <v>67988235000</v>
       </c>
       <c r="J19" t="str">
-        <v>2023-01-27T10:40:00.000Z</v>
+        <v>2023-01-27T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>3821297183000</v>
+        <v>2008924632000</v>
       </c>
       <c r="L19">
-        <v>203923300</v>
+        <v>108115800</v>
       </c>
       <c r="M19">
-        <v>5128800</v>
+        <v>-227800</v>
       </c>
       <c r="N19">
-        <v>107436064000</v>
+        <v>7059383000</v>
       </c>
       <c r="O19">
-        <v>-569100</v>
+        <v>-2400600</v>
       </c>
       <c r="P19">
-        <v>201864724000</v>
+        <v>63823850000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1674816300000</v>
+        <v>1674813000000</v>
       </c>
       <c r="B20">
-        <v>3649900</v>
+        <v>1388500</v>
       </c>
       <c r="C20">
-        <v>11842200</v>
+        <v>1614200</v>
       </c>
       <c r="D20">
-        <v>153400</v>
+        <v>5100</v>
       </c>
       <c r="E20">
-        <v>60719892000</v>
+        <v>22304335000</v>
       </c>
       <c r="F20">
-        <v>198525079000</v>
+        <v>35019415000</v>
       </c>
       <c r="G20">
-        <v>2499253000</v>
+        <v>176349000</v>
       </c>
       <c r="H20">
-        <v>15645500</v>
+        <v>3007800</v>
       </c>
       <c r="I20">
-        <v>261744224000</v>
+        <v>57500099000</v>
       </c>
       <c r="J20" t="str">
-        <v>2023-01-27T10:45:00.000Z</v>
+        <v>2023-01-27T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>4083041407000</v>
+        <v>2066424731000</v>
       </c>
       <c r="L20">
-        <v>219568800</v>
+        <v>111123600</v>
       </c>
       <c r="M20">
-        <v>8192300</v>
+        <v>225700</v>
       </c>
       <c r="N20">
-        <v>137805187000</v>
+        <v>12715080000</v>
       </c>
       <c r="O20">
-        <v>7623200</v>
+        <v>-2174900</v>
       </c>
       <c r="P20">
-        <v>339669911000</v>
+        <v>76538930000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1674816600000</v>
+        <v>1674813120000</v>
       </c>
       <c r="B21">
-        <v>3176500</v>
+        <v>979200</v>
       </c>
       <c r="C21">
-        <v>4412500</v>
+        <v>1767800</v>
       </c>
       <c r="D21">
-        <v>11200</v>
+        <v>16400</v>
       </c>
       <c r="E21">
-        <v>58773345000</v>
+        <v>16768418000</v>
       </c>
       <c r="F21">
-        <v>83181098000</v>
+        <v>39772697000</v>
       </c>
       <c r="G21">
-        <v>350293000</v>
+        <v>462582000</v>
       </c>
       <c r="H21">
-        <v>7600200</v>
+        <v>2763400</v>
       </c>
       <c r="I21">
-        <v>142304736000</v>
+        <v>57003697000</v>
       </c>
       <c r="J21" t="str">
-        <v>2023-01-27T10:50:00.000Z</v>
+        <v>2023-01-27T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>4225346143000</v>
+        <v>2123428428000</v>
       </c>
       <c r="L21">
-        <v>227169000</v>
+        <v>113887000</v>
       </c>
       <c r="M21">
-        <v>1236000</v>
+        <v>788600</v>
       </c>
       <c r="N21">
-        <v>24407753000</v>
+        <v>23004279000</v>
       </c>
       <c r="O21">
-        <v>8859200</v>
+        <v>-1386300</v>
       </c>
       <c r="P21">
-        <v>364077664000</v>
+        <v>99543209000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1674816900000</v>
+        <v>1674813240000</v>
       </c>
       <c r="B22">
-        <v>2328200</v>
+        <v>1134000</v>
       </c>
       <c r="C22">
-        <v>3351800</v>
+        <v>1842300</v>
       </c>
       <c r="D22">
-        <v>25100</v>
+        <v>19500</v>
       </c>
       <c r="E22">
-        <v>42346437000</v>
+        <v>20707744000</v>
       </c>
       <c r="F22">
-        <v>64937349000</v>
+        <v>39487789000</v>
       </c>
       <c r="G22">
-        <v>590301000</v>
+        <v>875985000</v>
       </c>
       <c r="H22">
-        <v>5705100</v>
+        <v>2995800</v>
       </c>
       <c r="I22">
-        <v>107874087000</v>
+        <v>61071518000</v>
       </c>
       <c r="J22" t="str">
-        <v>2023-01-27T10:55:00.000Z</v>
+        <v>2023-01-27T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>4333220230000</v>
+        <v>2184499946000</v>
       </c>
       <c r="L22">
-        <v>232874100</v>
+        <v>116882800</v>
       </c>
       <c r="M22">
-        <v>1023600</v>
+        <v>708300</v>
       </c>
       <c r="N22">
-        <v>22590912000</v>
+        <v>18780045000</v>
       </c>
       <c r="O22">
-        <v>9882800</v>
+        <v>-678000</v>
       </c>
       <c r="P22">
-        <v>386668576000</v>
+        <v>118323254000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1674817200000</v>
+        <v>1674813360000</v>
       </c>
       <c r="B23">
-        <v>3537500</v>
+        <v>1858900</v>
       </c>
       <c r="C23">
-        <v>3457600</v>
+        <v>1763100</v>
       </c>
       <c r="D23">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="E23">
-        <v>63506628000</v>
+        <v>33157176000</v>
       </c>
       <c r="F23">
-        <v>65850086000</v>
+        <v>36779404000</v>
       </c>
       <c r="G23">
-        <v>37418000</v>
+        <v>241311000</v>
       </c>
       <c r="H23">
-        <v>7000600</v>
+        <v>3630000</v>
       </c>
       <c r="I23">
-        <v>129394132000</v>
+        <v>70177891000</v>
       </c>
       <c r="J23" t="str">
-        <v>2023-01-27T11:00:00.000Z</v>
+        <v>2023-01-27T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>4462614362000</v>
+        <v>2254677837000</v>
       </c>
       <c r="L23">
-        <v>239874700</v>
+        <v>120512800</v>
       </c>
       <c r="M23">
-        <v>-79900</v>
+        <v>-95800</v>
       </c>
       <c r="N23">
-        <v>2343458000</v>
+        <v>3622228000</v>
       </c>
       <c r="O23">
-        <v>9802900</v>
+        <v>-773800</v>
       </c>
       <c r="P23">
-        <v>389012034000</v>
+        <v>121945482000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1674817500000</v>
+        <v>1674813480000</v>
       </c>
       <c r="B24">
-        <v>2225100</v>
+        <v>1640100</v>
       </c>
       <c r="C24">
-        <v>3696600</v>
+        <v>1557500</v>
       </c>
       <c r="D24">
-        <v>23900</v>
+        <v>20900</v>
       </c>
       <c r="E24">
-        <v>42579860000</v>
+        <v>29779647000</v>
       </c>
       <c r="F24">
-        <v>71968066000</v>
+        <v>30350583000</v>
       </c>
       <c r="G24">
-        <v>471940000</v>
+        <v>282786000</v>
       </c>
       <c r="H24">
-        <v>5945600</v>
+        <v>3218500</v>
       </c>
       <c r="I24">
-        <v>115019866000</v>
+        <v>60413016000</v>
       </c>
       <c r="J24" t="str">
-        <v>2023-01-27T11:05:00.000Z</v>
+        <v>2023-01-27T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>4577634228000</v>
+        <v>2315090853000</v>
       </c>
       <c r="L24">
-        <v>245820300</v>
+        <v>123731300</v>
       </c>
       <c r="M24">
-        <v>1471500</v>
+        <v>-82600</v>
       </c>
       <c r="N24">
-        <v>29388206000</v>
+        <v>570936000</v>
       </c>
       <c r="O24">
-        <v>11274400</v>
+        <v>-856400</v>
       </c>
       <c r="P24">
-        <v>418400240000</v>
+        <v>122516418000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1674817800000</v>
+        <v>1674813600000</v>
       </c>
       <c r="B25">
-        <v>2395100</v>
+        <v>2268400</v>
       </c>
       <c r="C25">
-        <v>5130000</v>
+        <v>1489200</v>
       </c>
       <c r="D25">
-        <v>24400</v>
+        <v>38600</v>
       </c>
       <c r="E25">
-        <v>40970302000</v>
+        <v>37173060000</v>
       </c>
       <c r="F25">
-        <v>94663762000</v>
+        <v>31027209000</v>
       </c>
       <c r="G25">
-        <v>357904000</v>
+        <v>573029000</v>
       </c>
       <c r="H25">
-        <v>7549500</v>
+        <v>3796200</v>
       </c>
       <c r="I25">
-        <v>135991968000</v>
+        <v>68773298000</v>
       </c>
       <c r="J25" t="str">
-        <v>2023-01-27T11:10:00.000Z</v>
+        <v>2023-01-27T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>4713626196000</v>
+        <v>2383864151000</v>
       </c>
       <c r="L25">
-        <v>253369800</v>
+        <v>127527500</v>
       </c>
       <c r="M25">
-        <v>2734900</v>
+        <v>-779200</v>
       </c>
       <c r="N25">
-        <v>53693460000</v>
+        <v>-6145851000</v>
       </c>
       <c r="O25">
-        <v>14009300</v>
+        <v>-1635600</v>
       </c>
       <c r="P25">
-        <v>472093700000</v>
+        <v>116370567000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1674818100000</v>
+        <v>1674813720000</v>
       </c>
       <c r="B26">
-        <v>2018500</v>
+        <v>2448300</v>
       </c>
       <c r="C26">
-        <v>5115800</v>
+        <v>1614400</v>
       </c>
       <c r="D26">
-        <v>20600</v>
+        <v>2800</v>
       </c>
       <c r="E26">
-        <v>41685098000</v>
+        <v>44798330000</v>
       </c>
       <c r="F26">
-        <v>93317973000</v>
+        <v>31984020000</v>
       </c>
       <c r="G26">
-        <v>326715000</v>
+        <v>37238000</v>
       </c>
       <c r="H26">
-        <v>7154900</v>
+        <v>4065500</v>
       </c>
       <c r="I26">
-        <v>135329786000</v>
+        <v>76819588000</v>
       </c>
       <c r="J26" t="str">
-        <v>2023-01-27T11:15:00.000Z</v>
+        <v>2023-01-27T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>4848955982000</v>
+        <v>2460683739000</v>
       </c>
       <c r="L26">
-        <v>260524700</v>
+        <v>131593000</v>
       </c>
       <c r="M26">
-        <v>3097300</v>
+        <v>-833900</v>
       </c>
       <c r="N26">
-        <v>51632875000</v>
+        <v>-12814310000</v>
       </c>
       <c r="O26">
-        <v>17106600</v>
+        <v>-2469500</v>
       </c>
       <c r="P26">
-        <v>523726575000</v>
+        <v>103556257000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1674818400000</v>
+        <v>1674813840000</v>
       </c>
       <c r="B27">
-        <v>2037900</v>
+        <v>3589800</v>
       </c>
       <c r="C27">
-        <v>5472800</v>
+        <v>1387200</v>
       </c>
       <c r="D27">
-        <v>44100</v>
+        <v>9500</v>
       </c>
       <c r="E27">
-        <v>36701588000</v>
+        <v>63794840000</v>
       </c>
       <c r="F27">
-        <v>96759828000</v>
+        <v>27199961000</v>
       </c>
       <c r="G27">
-        <v>672723000</v>
+        <v>141111000</v>
       </c>
       <c r="H27">
-        <v>7554800</v>
+        <v>4986500</v>
       </c>
       <c r="I27">
-        <v>134134139000</v>
+        <v>91135912000</v>
       </c>
       <c r="J27" t="str">
-        <v>2023-01-27T11:20:00.000Z</v>
+        <v>2023-01-27T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>4983090121000</v>
+        <v>2551819651000</v>
       </c>
       <c r="L27">
-        <v>268079500</v>
+        <v>136579500</v>
       </c>
       <c r="M27">
-        <v>3434900</v>
+        <v>-2202600</v>
       </c>
       <c r="N27">
-        <v>60058240000</v>
+        <v>-36594879000</v>
       </c>
       <c r="O27">
-        <v>20541500</v>
+        <v>-4672100</v>
       </c>
       <c r="P27">
-        <v>583784815000</v>
+        <v>66961378000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1674818700000</v>
+        <v>1674813960000</v>
       </c>
       <c r="B28">
-        <v>2125200</v>
+        <v>4214400</v>
       </c>
       <c r="C28">
-        <v>6675200</v>
+        <v>1523900</v>
       </c>
       <c r="D28">
-        <v>12100</v>
+        <v>25600</v>
       </c>
       <c r="E28">
-        <v>37418278000</v>
+        <v>72873880000</v>
       </c>
       <c r="F28">
-        <v>116108262000</v>
+        <v>28098529000</v>
       </c>
       <c r="G28">
-        <v>174600000</v>
+        <v>338118000</v>
       </c>
       <c r="H28">
-        <v>8812500</v>
+        <v>5763900</v>
       </c>
       <c r="I28">
-        <v>153701140000</v>
+        <v>101310527000</v>
       </c>
       <c r="J28" t="str">
-        <v>2023-01-27T11:25:00.000Z</v>
+        <v>2023-01-27T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>5136791261000</v>
+        <v>2653130178000</v>
       </c>
       <c r="L28">
-        <v>276892000</v>
+        <v>142343400</v>
       </c>
       <c r="M28">
-        <v>4550000</v>
+        <v>-2690500</v>
       </c>
       <c r="N28">
-        <v>78689984000</v>
+        <v>-44775351000</v>
       </c>
       <c r="O28">
-        <v>25091500</v>
+        <v>-7362600</v>
       </c>
       <c r="P28">
-        <v>662474799000</v>
+        <v>22186027000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1674819000000</v>
+        <v>1674814080000</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>3646000</v>
       </c>
       <c r="C29">
-        <v>24000</v>
+        <v>1512800</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>24800</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>64873752000</v>
       </c>
       <c r="F29">
-        <v>339400000</v>
+        <v>26524360000</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>902803000</v>
       </c>
       <c r="H29">
-        <v>24000</v>
+        <v>5183600</v>
       </c>
       <c r="I29">
-        <v>339400000</v>
+        <v>92300915000</v>
       </c>
       <c r="J29" t="str">
-        <v>2023-01-27T11:30:00.000Z</v>
+        <v>2023-01-27T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>5137130661000</v>
+        <v>2745431093000</v>
       </c>
       <c r="L29">
-        <v>276916000</v>
+        <v>147527000</v>
       </c>
       <c r="M29">
-        <v>24000</v>
+        <v>-2133200</v>
       </c>
       <c r="N29">
-        <v>339400000</v>
+        <v>-38349392000</v>
       </c>
       <c r="O29">
-        <v>25115500</v>
+        <v>-9495800</v>
       </c>
       <c r="P29">
-        <v>662814199000</v>
+        <v>-16163365000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1674824400000</v>
+        <v>1674814200000</v>
       </c>
       <c r="B30">
-        <v>7373500</v>
+        <v>2387300</v>
       </c>
       <c r="C30">
-        <v>8022200</v>
+        <v>1518700</v>
       </c>
       <c r="D30">
-        <v>193200</v>
+        <v>11800</v>
       </c>
       <c r="E30">
-        <v>133042979000</v>
+        <v>44598802000</v>
       </c>
       <c r="F30">
-        <v>135468445000</v>
+        <v>33733896000</v>
       </c>
       <c r="G30">
-        <v>3943212000</v>
+        <v>213273000</v>
       </c>
       <c r="H30">
-        <v>15588900</v>
+        <v>3917800</v>
       </c>
       <c r="I30">
-        <v>272454636000</v>
+        <v>78545971000</v>
       </c>
       <c r="J30" t="str">
-        <v>2023-01-27T13:00:00.000Z</v>
+        <v>2023-01-27T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>5409585297000</v>
+        <v>2823977064000</v>
       </c>
       <c r="L30">
-        <v>292504900</v>
+        <v>151444800</v>
       </c>
       <c r="M30">
-        <v>648700</v>
+        <v>-868600</v>
       </c>
       <c r="N30">
-        <v>2425466000</v>
+        <v>-10864906000</v>
       </c>
       <c r="O30">
-        <v>25764200</v>
+        <v>-10364400</v>
       </c>
       <c r="P30">
-        <v>665239665000</v>
+        <v>-27028271000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1674824700000</v>
+        <v>1674814320000</v>
       </c>
       <c r="B31">
-        <v>5226400</v>
+        <v>3037900</v>
       </c>
       <c r="C31">
-        <v>5082600</v>
+        <v>1631100</v>
       </c>
       <c r="D31">
-        <v>59500</v>
+        <v>43300</v>
       </c>
       <c r="E31">
-        <v>84672424000</v>
+        <v>53802677000</v>
       </c>
       <c r="F31">
-        <v>95923184000</v>
+        <v>38162553000</v>
       </c>
       <c r="G31">
-        <v>946169000</v>
+        <v>1040050000</v>
       </c>
       <c r="H31">
-        <v>10368500</v>
+        <v>4712300</v>
       </c>
       <c r="I31">
-        <v>181541777000</v>
+        <v>93005280000</v>
       </c>
       <c r="J31" t="str">
-        <v>2023-01-27T13:05:00.000Z</v>
+        <v>2023-01-27T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>5591127074000</v>
+        <v>2916982344000</v>
       </c>
       <c r="L31">
-        <v>302873400</v>
+        <v>156157100</v>
       </c>
       <c r="M31">
-        <v>-143800</v>
+        <v>-1406800</v>
       </c>
       <c r="N31">
-        <v>11250760000</v>
+        <v>-15640124000</v>
       </c>
       <c r="O31">
-        <v>25620400</v>
+        <v>-11771200</v>
       </c>
       <c r="P31">
-        <v>676490425000</v>
+        <v>-42668395000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1674825000000</v>
+        <v>1674814440000</v>
       </c>
       <c r="B32">
-        <v>5234000</v>
+        <v>1547200</v>
       </c>
       <c r="C32">
-        <v>6978100</v>
+        <v>1018600</v>
       </c>
       <c r="D32">
-        <v>37600</v>
+        <v>2000</v>
       </c>
       <c r="E32">
-        <v>95550725000</v>
+        <v>27111589000</v>
       </c>
       <c r="F32">
-        <v>117961582000</v>
+        <v>20528233000</v>
       </c>
       <c r="G32">
-        <v>656036000</v>
+        <v>29128000</v>
       </c>
       <c r="H32">
-        <v>12249700</v>
+        <v>2567800</v>
       </c>
       <c r="I32">
-        <v>214168343000</v>
+        <v>47668950000</v>
       </c>
       <c r="J32" t="str">
-        <v>2023-01-27T13:10:00.000Z</v>
+        <v>2023-01-27T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>5805295417000</v>
+        <v>2964651294000</v>
       </c>
       <c r="L32">
-        <v>315123100</v>
+        <v>158724900</v>
       </c>
       <c r="M32">
-        <v>1744100</v>
+        <v>-528600</v>
       </c>
       <c r="N32">
-        <v>22410857000</v>
+        <v>-6583356000</v>
       </c>
       <c r="O32">
-        <v>27364500</v>
+        <v>-12299800</v>
       </c>
       <c r="P32">
-        <v>698901282000</v>
+        <v>-49251751000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1674825300000</v>
+        <v>1674814560000</v>
       </c>
       <c r="B33">
-        <v>4958900</v>
+        <v>1458000</v>
       </c>
       <c r="C33">
-        <v>7341200</v>
+        <v>1162000</v>
       </c>
       <c r="D33">
-        <v>34500</v>
+        <v>34900</v>
       </c>
       <c r="E33">
-        <v>84276185000</v>
+        <v>25745148000</v>
       </c>
       <c r="F33">
-        <v>149244523000</v>
+        <v>24486358000</v>
       </c>
       <c r="G33">
-        <v>1026755000</v>
+        <v>559690000</v>
       </c>
       <c r="H33">
-        <v>12334600</v>
+        <v>2654900</v>
       </c>
       <c r="I33">
-        <v>234547463000</v>
+        <v>50791196000</v>
       </c>
       <c r="J33" t="str">
-        <v>2023-01-27T13:15:00.000Z</v>
+        <v>2023-01-27T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>6039842880000</v>
+        <v>3015442490000</v>
       </c>
       <c r="L33">
-        <v>327457700</v>
+        <v>161379800</v>
       </c>
       <c r="M33">
-        <v>2382300</v>
+        <v>-296000</v>
       </c>
       <c r="N33">
-        <v>64968338000</v>
+        <v>-1258790000</v>
       </c>
       <c r="O33">
-        <v>29746800</v>
+        <v>-12595800</v>
       </c>
       <c r="P33">
-        <v>763869620000</v>
+        <v>-50510541000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1674825600000</v>
+        <v>1674814680000</v>
       </c>
       <c r="B34">
-        <v>5165100</v>
+        <v>1234200</v>
       </c>
       <c r="C34">
-        <v>10941700</v>
+        <v>1896300</v>
       </c>
       <c r="D34">
-        <v>40100</v>
+        <v>16600</v>
       </c>
       <c r="E34">
-        <v>92405749000</v>
+        <v>25700821000</v>
       </c>
       <c r="F34">
-        <v>227649104000</v>
+        <v>40794238000</v>
       </c>
       <c r="G34">
-        <v>654699000</v>
+        <v>400642000</v>
       </c>
       <c r="H34">
-        <v>16146900</v>
+        <v>3147100</v>
       </c>
       <c r="I34">
-        <v>320709552000</v>
+        <v>66895701000</v>
       </c>
       <c r="J34" t="str">
-        <v>2023-01-27T13:20:00.000Z</v>
+        <v>2023-01-27T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>6360552432000</v>
+        <v>3082338191000</v>
       </c>
       <c r="L34">
-        <v>343604600</v>
+        <v>164526900</v>
       </c>
       <c r="M34">
-        <v>5776600</v>
+        <v>662100</v>
       </c>
       <c r="N34">
-        <v>135243355000</v>
+        <v>15093417000</v>
       </c>
       <c r="O34">
-        <v>35523400</v>
+        <v>-11933700</v>
       </c>
       <c r="P34">
-        <v>899112975000</v>
+        <v>-35417124000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1674825900000</v>
+        <v>1674814800000</v>
       </c>
       <c r="B35">
-        <v>5624400</v>
+        <v>936500</v>
       </c>
       <c r="C35">
-        <v>8618200</v>
+        <v>2188600</v>
       </c>
       <c r="D35">
-        <v>145500</v>
+        <v>3200</v>
       </c>
       <c r="E35">
-        <v>99341583000</v>
+        <v>16478666000</v>
       </c>
       <c r="F35">
-        <v>163389602000</v>
+        <v>44042990000</v>
       </c>
       <c r="G35">
-        <v>2550891000</v>
+        <v>120635000</v>
       </c>
       <c r="H35">
-        <v>14388100</v>
+        <v>3128300</v>
       </c>
       <c r="I35">
-        <v>265282076000</v>
+        <v>60642291000</v>
       </c>
       <c r="J35" t="str">
-        <v>2023-01-27T13:25:00.000Z</v>
+        <v>2023-01-27T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>6625834508000</v>
+        <v>3142980482000</v>
       </c>
       <c r="L35">
-        <v>357992700</v>
+        <v>167655200</v>
       </c>
       <c r="M35">
-        <v>2993800</v>
+        <v>1252100</v>
       </c>
       <c r="N35">
-        <v>64048019000</v>
+        <v>27564324000</v>
       </c>
       <c r="O35">
-        <v>38517200</v>
+        <v>-10681600</v>
       </c>
       <c r="P35">
-        <v>963160994000</v>
+        <v>-7852800000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1674826200000</v>
+        <v>1674814920000</v>
       </c>
       <c r="B36">
-        <v>4372300</v>
+        <v>903900</v>
       </c>
       <c r="C36">
-        <v>6072000</v>
+        <v>2097800</v>
       </c>
       <c r="D36">
-        <v>28200</v>
+        <v>6900</v>
       </c>
       <c r="E36">
-        <v>75267569000</v>
+        <v>15373046000</v>
       </c>
       <c r="F36">
-        <v>112018544000</v>
+        <v>42277510000</v>
       </c>
       <c r="G36">
-        <v>719489000</v>
+        <v>322894000</v>
       </c>
       <c r="H36">
-        <v>10472500</v>
+        <v>3008600</v>
       </c>
       <c r="I36">
-        <v>188005602000</v>
+        <v>57973450000</v>
       </c>
       <c r="J36" t="str">
-        <v>2023-01-27T13:30:00.000Z</v>
+        <v>2023-01-27T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>6813840110000</v>
+        <v>3200953932000</v>
       </c>
       <c r="L36">
-        <v>368465200</v>
+        <v>170663800</v>
       </c>
       <c r="M36">
-        <v>1699700</v>
+        <v>1193900</v>
       </c>
       <c r="N36">
-        <v>36750975000</v>
+        <v>26904464000</v>
       </c>
       <c r="O36">
-        <v>40216900</v>
+        <v>-9487700</v>
       </c>
       <c r="P36">
-        <v>999911969000</v>
+        <v>19051664000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1674826500000</v>
+        <v>1674815040000</v>
       </c>
       <c r="B37">
-        <v>6114300</v>
+        <v>1008400</v>
       </c>
       <c r="C37">
-        <v>6237900</v>
+        <v>2054600</v>
       </c>
       <c r="D37">
-        <v>32100</v>
+        <v>116600</v>
       </c>
       <c r="E37">
-        <v>112331293000</v>
+        <v>17854278000</v>
       </c>
       <c r="F37">
-        <v>124485014000</v>
+        <v>36183432000</v>
       </c>
       <c r="G37">
-        <v>544904000</v>
+        <v>1949266000</v>
       </c>
       <c r="H37">
-        <v>12384300</v>
+        <v>3179600</v>
       </c>
       <c r="I37">
-        <v>237361211000</v>
+        <v>55986976000</v>
       </c>
       <c r="J37" t="str">
-        <v>2023-01-27T13:35:00.000Z</v>
+        <v>2023-01-27T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>7051201321000</v>
+        <v>3256940908000</v>
       </c>
       <c r="L37">
-        <v>380849500</v>
+        <v>173843400</v>
       </c>
       <c r="M37">
-        <v>123600</v>
+        <v>1046200</v>
       </c>
       <c r="N37">
-        <v>12153721000</v>
+        <v>18329154000</v>
       </c>
       <c r="O37">
-        <v>40340500</v>
+        <v>-8441500</v>
       </c>
       <c r="P37">
-        <v>1012065690000</v>
+        <v>37380818000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1674826800000</v>
+        <v>1674815160000</v>
       </c>
       <c r="B38">
-        <v>6527400</v>
+        <v>928000</v>
       </c>
       <c r="C38">
-        <v>5511800</v>
+        <v>1517900</v>
       </c>
       <c r="D38">
-        <v>114600</v>
+        <v>66700</v>
       </c>
       <c r="E38">
-        <v>114429457000</v>
+        <v>17385222000</v>
       </c>
       <c r="F38">
-        <v>115385517000</v>
+        <v>25730932000</v>
       </c>
       <c r="G38">
-        <v>3807204000</v>
+        <v>1248099000</v>
       </c>
       <c r="H38">
-        <v>12153800</v>
+        <v>2512600</v>
       </c>
       <c r="I38">
-        <v>233622178000</v>
+        <v>44364253000</v>
       </c>
       <c r="J38" t="str">
-        <v>2023-01-27T13:40:00.000Z</v>
+        <v>2023-01-27T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>7284823499000</v>
+        <v>3301305161000</v>
       </c>
       <c r="L38">
-        <v>393003300</v>
+        <v>176356000</v>
       </c>
       <c r="M38">
-        <v>-1015600</v>
+        <v>589900</v>
       </c>
       <c r="N38">
-        <v>956060000</v>
+        <v>8345710000</v>
       </c>
       <c r="O38">
-        <v>39324900</v>
+        <v>-7851600</v>
       </c>
       <c r="P38">
-        <v>1013021750000</v>
+        <v>45726528000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1674827100000</v>
+        <v>1674815280000</v>
       </c>
       <c r="B39">
-        <v>6490900</v>
+        <v>1245400</v>
       </c>
       <c r="C39">
-        <v>5111300</v>
+        <v>3244900</v>
       </c>
       <c r="D39">
-        <v>103600</v>
+        <v>1400</v>
       </c>
       <c r="E39">
-        <v>145180100000</v>
+        <v>20767147000</v>
       </c>
       <c r="F39">
-        <v>102373908000</v>
+        <v>55873574000</v>
       </c>
       <c r="G39">
-        <v>1112641000</v>
+        <v>22959999.999999996</v>
       </c>
       <c r="H39">
-        <v>11705800</v>
+        <v>4491700</v>
       </c>
       <c r="I39">
-        <v>248666649000</v>
+        <v>76663681000</v>
       </c>
       <c r="J39" t="str">
-        <v>2023-01-27T13:45:00.000Z</v>
+        <v>2023-01-27T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>7533490148000</v>
+        <v>3377968842000</v>
       </c>
       <c r="L39">
-        <v>404709100</v>
+        <v>180847700</v>
       </c>
       <c r="M39">
-        <v>-1379600</v>
+        <v>1999500</v>
       </c>
       <c r="N39">
-        <v>-42806192000</v>
+        <v>35106427000</v>
       </c>
       <c r="O39">
-        <v>37945300</v>
+        <v>-5852100</v>
       </c>
       <c r="P39">
-        <v>970215558000</v>
+        <v>80832955000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1674827400000</v>
+        <v>1674815400000</v>
       </c>
       <c r="B40">
-        <v>8086000</v>
+        <v>992700</v>
       </c>
       <c r="C40">
-        <v>3754400</v>
+        <v>1431200</v>
       </c>
       <c r="D40">
-        <v>52000</v>
+        <v>4900</v>
       </c>
       <c r="E40">
-        <v>157864832000</v>
+        <v>18413499000</v>
       </c>
       <c r="F40">
-        <v>80651198000</v>
+        <v>24570631000</v>
       </c>
       <c r="G40">
-        <v>931361000</v>
+        <v>79840000</v>
       </c>
       <c r="H40">
-        <v>11892400</v>
+        <v>2428800</v>
       </c>
       <c r="I40">
-        <v>239447391000</v>
+        <v>43063970000</v>
       </c>
       <c r="J40" t="str">
-        <v>2023-01-27T13:50:00.000Z</v>
+        <v>2023-01-27T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>7772937539000</v>
+        <v>3421032812000</v>
       </c>
       <c r="L40">
-        <v>416601500</v>
+        <v>183276500</v>
       </c>
       <c r="M40">
-        <v>-4331600</v>
+        <v>438500</v>
       </c>
       <c r="N40">
-        <v>-77213634000</v>
+        <v>6157132000</v>
       </c>
       <c r="O40">
-        <v>33613700</v>
+        <v>-5413600</v>
       </c>
       <c r="P40">
-        <v>893001924000</v>
+        <v>86990087000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1674827700000</v>
+        <v>1674815520000</v>
       </c>
       <c r="B41">
-        <v>12197100</v>
+        <v>1285000</v>
       </c>
       <c r="C41">
-        <v>3408000</v>
+        <v>1465800</v>
       </c>
       <c r="D41">
-        <v>105700</v>
+        <v>700</v>
       </c>
       <c r="E41">
-        <v>213490828000</v>
+        <v>23000852000</v>
       </c>
       <c r="F41">
-        <v>66285520000</v>
+        <v>28840579000</v>
       </c>
       <c r="G41">
-        <v>2791439000</v>
+        <v>8540000</v>
       </c>
       <c r="H41">
-        <v>15710800</v>
+        <v>2751500</v>
       </c>
       <c r="I41">
-        <v>282567787000</v>
+        <v>51849971000</v>
       </c>
       <c r="J41" t="str">
-        <v>2023-01-27T13:55:00.000Z</v>
+        <v>2023-01-27T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>8055505326000</v>
+        <v>3472882783000</v>
       </c>
       <c r="L41">
-        <v>432312300</v>
+        <v>186028000</v>
       </c>
       <c r="M41">
-        <v>-8789100</v>
+        <v>180800</v>
       </c>
       <c r="N41">
-        <v>-147205308000</v>
+        <v>5839727000</v>
       </c>
       <c r="O41">
-        <v>24824600</v>
+        <v>-5232800</v>
       </c>
       <c r="P41">
-        <v>745796616000</v>
+        <v>92829814000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1674828000000</v>
+        <v>1674815640000</v>
       </c>
       <c r="B42">
-        <v>5628900</v>
+        <v>1301800</v>
       </c>
       <c r="C42">
-        <v>6160600</v>
+        <v>1214900</v>
       </c>
       <c r="D42">
-        <v>39800</v>
+        <v>12600</v>
       </c>
       <c r="E42">
-        <v>97974296000</v>
+        <v>27182330000</v>
       </c>
       <c r="F42">
-        <v>130162858000</v>
+        <v>26425705000</v>
       </c>
       <c r="G42">
-        <v>789068000</v>
+        <v>263753000</v>
       </c>
       <c r="H42">
-        <v>11829300</v>
+        <v>2529300</v>
       </c>
       <c r="I42">
-        <v>228926222000</v>
+        <v>53871788000</v>
       </c>
       <c r="J42" t="str">
-        <v>2023-01-27T14:00:00.000Z</v>
+        <v>2023-01-27T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>8284431548000</v>
+        <v>3526754571000</v>
       </c>
       <c r="L42">
-        <v>444141600</v>
+        <v>188557300</v>
       </c>
       <c r="M42">
-        <v>531700</v>
+        <v>-86900</v>
       </c>
       <c r="N42">
-        <v>32188562000</v>
+        <v>-756625000</v>
       </c>
       <c r="O42">
-        <v>25356300</v>
+        <v>-5319700</v>
       </c>
       <c r="P42">
-        <v>777985178000</v>
+        <v>92073189000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1674828300000</v>
+        <v>1674815760000</v>
       </c>
       <c r="B43">
-        <v>3806400</v>
+        <v>1381900</v>
       </c>
       <c r="C43">
-        <v>5417100</v>
+        <v>862700</v>
       </c>
       <c r="D43">
-        <v>21000</v>
+        <v>19400</v>
       </c>
       <c r="E43">
-        <v>77875843000</v>
+        <v>25130812000</v>
       </c>
       <c r="F43">
-        <v>97707759000</v>
+        <v>16985934000</v>
       </c>
       <c r="G43">
-        <v>312805000</v>
+        <v>370270000</v>
       </c>
       <c r="H43">
-        <v>9244500</v>
+        <v>2264000</v>
       </c>
       <c r="I43">
-        <v>175896407000</v>
+        <v>42487016000</v>
       </c>
       <c r="J43" t="str">
-        <v>2023-01-27T14:05:00.000Z</v>
+        <v>2023-01-27T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>8460327955000</v>
+        <v>3569241587000</v>
       </c>
       <c r="L43">
-        <v>453386100</v>
+        <v>190821300</v>
       </c>
       <c r="M43">
-        <v>1610700</v>
+        <v>-519200</v>
       </c>
       <c r="N43">
-        <v>19831916000</v>
+        <v>-8144878000</v>
       </c>
       <c r="O43">
-        <v>26967000</v>
+        <v>-5838900</v>
       </c>
       <c r="P43">
-        <v>797817094000</v>
+        <v>83928311000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1674828600000</v>
+        <v>1674815880000</v>
       </c>
       <c r="B44">
-        <v>6629300</v>
+        <v>1168200</v>
       </c>
       <c r="C44">
-        <v>3607700</v>
+        <v>1309200</v>
       </c>
       <c r="D44">
-        <v>60200</v>
+        <v>24100</v>
       </c>
       <c r="E44">
-        <v>118308104000</v>
+        <v>18526906000</v>
       </c>
       <c r="F44">
-        <v>78123023000</v>
+        <v>29027255000</v>
       </c>
       <c r="G44">
-        <v>1300987000</v>
+        <v>449253000</v>
       </c>
       <c r="H44">
-        <v>10297200</v>
+        <v>2501500</v>
       </c>
       <c r="I44">
-        <v>197732114000</v>
+        <v>48003414000</v>
       </c>
       <c r="J44" t="str">
-        <v>2023-01-27T14:10:00.000Z</v>
+        <v>2023-01-27T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>8658060069000</v>
+        <v>3617245001000</v>
       </c>
       <c r="L44">
-        <v>463683300</v>
+        <v>193322800</v>
       </c>
       <c r="M44">
-        <v>-3021600</v>
+        <v>141000</v>
       </c>
       <c r="N44">
-        <v>-40185081000</v>
+        <v>10500349000</v>
       </c>
       <c r="O44">
-        <v>23945400</v>
+        <v>-5697900</v>
       </c>
       <c r="P44">
-        <v>757632013000</v>
+        <v>94428660000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1674828900000</v>
+        <v>1674816000000</v>
       </c>
       <c r="B45">
-        <v>7298100</v>
+        <v>866600</v>
       </c>
       <c r="C45">
-        <v>4086700</v>
+        <v>1880100</v>
       </c>
       <c r="D45">
-        <v>144200</v>
+        <v>206100</v>
       </c>
       <c r="E45">
-        <v>137067467000</v>
+        <v>16879954000</v>
       </c>
       <c r="F45">
-        <v>85240980000</v>
+        <v>44895634000</v>
       </c>
       <c r="G45">
-        <v>2064271000</v>
+        <v>3341525000</v>
       </c>
       <c r="H45">
-        <v>11529000</v>
+        <v>2952800</v>
       </c>
       <c r="I45">
-        <v>224372718000</v>
+        <v>65117113000</v>
       </c>
       <c r="J45" t="str">
-        <v>2023-01-27T14:15:00.000Z</v>
+        <v>2023-01-27T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>8882432787000</v>
+        <v>3682362114000</v>
       </c>
       <c r="L45">
-        <v>475212300</v>
+        <v>196275600</v>
       </c>
       <c r="M45">
-        <v>-3211400</v>
+        <v>1013500</v>
       </c>
       <c r="N45">
-        <v>-51826487000</v>
+        <v>28015680000</v>
       </c>
       <c r="O45">
-        <v>20734000</v>
+        <v>-4684400</v>
       </c>
       <c r="P45">
-        <v>705805526000</v>
+        <v>122444340000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1674829200000</v>
+        <v>1674816120000</v>
       </c>
       <c r="B46">
-        <v>17490500</v>
+        <v>1048200</v>
       </c>
       <c r="C46">
-        <v>5213000</v>
+        <v>3238300</v>
       </c>
       <c r="D46">
-        <v>184200</v>
+        <v>6800</v>
       </c>
       <c r="E46">
-        <v>317949994000</v>
+        <v>18872456000</v>
       </c>
       <c r="F46">
-        <v>103812614000</v>
+        <v>60694349000</v>
       </c>
       <c r="G46">
-        <v>2963736000</v>
+        <v>200009000</v>
       </c>
       <c r="H46">
-        <v>22887700</v>
+        <v>4293300</v>
       </c>
       <c r="I46">
-        <v>424726344000</v>
+        <v>79766814000</v>
       </c>
       <c r="J46" t="str">
-        <v>2023-01-27T14:20:00.000Z</v>
+        <v>2023-01-27T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>9307159131000</v>
+        <v>3762128928000</v>
       </c>
       <c r="L46">
-        <v>498100000</v>
+        <v>200568900</v>
       </c>
       <c r="M46">
-        <v>-12277500</v>
+        <v>2190100</v>
       </c>
       <c r="N46">
-        <v>-214137380000</v>
+        <v>41821893000</v>
       </c>
       <c r="O46">
-        <v>8456500</v>
+        <v>-2494300</v>
       </c>
       <c r="P46">
-        <v>491668146000</v>
+        <v>164266233000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1674829500000</v>
+        <v>1674816240000</v>
       </c>
       <c r="B47">
-        <v>15386200</v>
+        <v>1242500</v>
       </c>
       <c r="C47">
-        <v>6953000</v>
+        <v>4824400</v>
       </c>
       <c r="D47">
-        <v>247300</v>
+        <v>11200</v>
       </c>
       <c r="E47">
-        <v>270228031000</v>
+        <v>20063285000</v>
       </c>
       <c r="F47">
-        <v>129634211000</v>
+        <v>84905933000</v>
       </c>
       <c r="G47">
-        <v>4117604000</v>
+        <v>127006000</v>
       </c>
       <c r="H47">
-        <v>22586500</v>
+        <v>6078100</v>
       </c>
       <c r="I47">
-        <v>403979846000</v>
+        <v>105096224000</v>
       </c>
       <c r="J47" t="str">
-        <v>2023-01-27T14:25:00.000Z</v>
+        <v>2023-01-27T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>9711138977000</v>
+        <v>3867225152000</v>
       </c>
       <c r="L47">
-        <v>520686500</v>
+        <v>206647000</v>
       </c>
       <c r="M47">
-        <v>-8433200</v>
+        <v>3581900</v>
       </c>
       <c r="N47">
-        <v>-140593820000</v>
+        <v>64842648000</v>
       </c>
       <c r="O47">
-        <v>23300</v>
+        <v>1087600</v>
       </c>
       <c r="P47">
-        <v>351074326000</v>
+        <v>229108881000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1674829800000</v>
+        <v>1674816360000</v>
       </c>
       <c r="B48">
-        <v>24800</v>
+        <v>1570400</v>
       </c>
       <c r="C48">
-        <v>3700</v>
+        <v>6069800</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>81900</v>
       </c>
       <c r="E48">
-        <v>268880000</v>
+        <v>22617354000</v>
       </c>
       <c r="F48">
-        <v>105785000</v>
+        <v>103499456000</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1229523000</v>
       </c>
       <c r="H48">
-        <v>28500</v>
+        <v>7722100</v>
       </c>
       <c r="I48">
-        <v>374665000</v>
+        <v>127346333000</v>
       </c>
       <c r="J48" t="str">
-        <v>2023-01-27T14:30:00.000Z</v>
+        <v>2023-01-27T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>9711513642000</v>
+        <v>3994571485000</v>
       </c>
       <c r="L48">
-        <v>520715000</v>
+        <v>214369100</v>
       </c>
       <c r="M48">
-        <v>-21100</v>
+        <v>4499400</v>
       </c>
       <c r="N48">
-        <v>-163095000</v>
+        <v>80882102000</v>
       </c>
       <c r="O48">
-        <v>2200</v>
+        <v>5587000</v>
       </c>
       <c r="P48">
-        <v>350911231000</v>
+        <v>309990983000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1674830700000</v>
+        <v>1674816480000</v>
       </c>
       <c r="B49">
+        <v>1551200</v>
+      </c>
+      <c r="C49">
+        <v>3587400</v>
+      </c>
+      <c r="D49">
+        <v>61100</v>
+      </c>
+      <c r="E49">
+        <v>28814255000</v>
+      </c>
+      <c r="F49">
+        <v>58493183000</v>
+      </c>
+      <c r="G49">
+        <v>1162484000</v>
+      </c>
+      <c r="H49">
+        <v>5199700</v>
+      </c>
+      <c r="I49">
+        <v>88469922000</v>
+      </c>
+      <c r="J49" t="str">
+        <v>2023-01-27T10:48:00.000Z</v>
+      </c>
+      <c r="K49">
+        <v>4083041407000</v>
+      </c>
+      <c r="L49">
+        <v>219568800</v>
+      </c>
+      <c r="M49">
+        <v>2036200</v>
+      </c>
+      <c r="N49">
+        <v>29678928000</v>
+      </c>
+      <c r="O49">
+        <v>7623200</v>
+      </c>
+      <c r="P49">
+        <v>339669911000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>1674816600000</v>
+      </c>
+      <c r="B50">
+        <v>1139200</v>
+      </c>
+      <c r="C50">
+        <v>1999100</v>
+      </c>
+      <c r="D50">
+        <v>3100</v>
+      </c>
+      <c r="E50">
+        <v>21962846000</v>
+      </c>
+      <c r="F50">
+        <v>34718973000</v>
+      </c>
+      <c r="G50">
+        <v>81173000</v>
+      </c>
+      <c r="H50">
+        <v>3141400</v>
+      </c>
+      <c r="I50">
+        <v>56762992000</v>
+      </c>
+      <c r="J50" t="str">
+        <v>2023-01-27T10:50:00.000Z</v>
+      </c>
+      <c r="K50">
+        <v>4139804399000</v>
+      </c>
+      <c r="L50">
+        <v>222710200</v>
+      </c>
+      <c r="M50">
+        <v>859900</v>
+      </c>
+      <c r="N50">
+        <v>12756127000</v>
+      </c>
+      <c r="O50">
+        <v>8483100</v>
+      </c>
+      <c r="P50">
+        <v>352426038000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>1674816720000</v>
+      </c>
+      <c r="B51">
+        <v>1397100</v>
+      </c>
+      <c r="C51">
+        <v>1821000</v>
+      </c>
+      <c r="D51">
+        <v>6600</v>
+      </c>
+      <c r="E51">
+        <v>25648083000</v>
+      </c>
+      <c r="F51">
+        <v>36304855000</v>
+      </c>
+      <c r="G51">
+        <v>100435000</v>
+      </c>
+      <c r="H51">
+        <v>3224700</v>
+      </c>
+      <c r="I51">
+        <v>62053373000</v>
+      </c>
+      <c r="J51" t="str">
+        <v>2023-01-27T10:52:00.000Z</v>
+      </c>
+      <c r="K51">
+        <v>4201857772000</v>
+      </c>
+      <c r="L51">
+        <v>225934900</v>
+      </c>
+      <c r="M51">
+        <v>423900</v>
+      </c>
+      <c r="N51">
+        <v>10656772000</v>
+      </c>
+      <c r="O51">
+        <v>8907000</v>
+      </c>
+      <c r="P51">
+        <v>363082810000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>1674816840000</v>
+      </c>
+      <c r="B52">
+        <v>1223600</v>
+      </c>
+      <c r="C52">
+        <v>1085700</v>
+      </c>
+      <c r="D52">
+        <v>8900</v>
+      </c>
+      <c r="E52">
+        <v>20562070000</v>
+      </c>
+      <c r="F52">
+        <v>21769189000</v>
+      </c>
+      <c r="G52">
+        <v>613865000</v>
+      </c>
+      <c r="H52">
+        <v>2318200</v>
+      </c>
+      <c r="I52">
+        <v>42945124000</v>
+      </c>
+      <c r="J52" t="str">
+        <v>2023-01-27T10:54:00.000Z</v>
+      </c>
+      <c r="K52">
+        <v>4244802896000</v>
+      </c>
+      <c r="L52">
+        <v>228253100</v>
+      </c>
+      <c r="M52">
+        <v>-137900</v>
+      </c>
+      <c r="N52">
+        <v>1207119000</v>
+      </c>
+      <c r="O52">
+        <v>8769100</v>
+      </c>
+      <c r="P52">
+        <v>364289929000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>1674816960000</v>
+      </c>
+      <c r="B53">
+        <v>1023700</v>
+      </c>
+      <c r="C53">
+        <v>1515200</v>
+      </c>
+      <c r="D53">
+        <v>8500</v>
+      </c>
+      <c r="E53">
+        <v>19749201000</v>
+      </c>
+      <c r="F53">
+        <v>28410622000</v>
+      </c>
+      <c r="G53">
+        <v>82615000</v>
+      </c>
+      <c r="H53">
+        <v>2547400</v>
+      </c>
+      <c r="I53">
+        <v>48242438000</v>
+      </c>
+      <c r="J53" t="str">
+        <v>2023-01-27T10:56:00.000Z</v>
+      </c>
+      <c r="K53">
+        <v>4293045334000</v>
+      </c>
+      <c r="L53">
+        <v>230800500</v>
+      </c>
+      <c r="M53">
+        <v>491500</v>
+      </c>
+      <c r="N53">
+        <v>8661421000</v>
+      </c>
+      <c r="O53">
+        <v>9260600</v>
+      </c>
+      <c r="P53">
+        <v>372951350000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>1674817080000</v>
+      </c>
+      <c r="B54">
+        <v>721100</v>
+      </c>
+      <c r="C54">
+        <v>1343300</v>
+      </c>
+      <c r="D54">
+        <v>9200</v>
+      </c>
+      <c r="E54">
+        <v>13197582000</v>
+      </c>
+      <c r="F54">
+        <v>26914808000</v>
+      </c>
+      <c r="G54">
+        <v>62506000</v>
+      </c>
+      <c r="H54">
+        <v>2073600</v>
+      </c>
+      <c r="I54">
+        <v>40174896000</v>
+      </c>
+      <c r="J54" t="str">
+        <v>2023-01-27T10:58:00.000Z</v>
+      </c>
+      <c r="K54">
+        <v>4333220230000</v>
+      </c>
+      <c r="L54">
+        <v>232874100</v>
+      </c>
+      <c r="M54">
+        <v>622200</v>
+      </c>
+      <c r="N54">
+        <v>13717226000</v>
+      </c>
+      <c r="O54">
+        <v>9882800</v>
+      </c>
+      <c r="P54">
+        <v>386668576000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>1674817200000</v>
+      </c>
+      <c r="B55">
+        <v>1798900</v>
+      </c>
+      <c r="C55">
+        <v>1564200</v>
+      </c>
+      <c r="D55">
+        <v>500</v>
+      </c>
+      <c r="E55">
+        <v>32959456000</v>
+      </c>
+      <c r="F55">
+        <v>29514863000</v>
+      </c>
+      <c r="G55">
+        <v>16300000</v>
+      </c>
+      <c r="H55">
+        <v>3363600</v>
+      </c>
+      <c r="I55">
+        <v>62490619000</v>
+      </c>
+      <c r="J55" t="str">
+        <v>2023-01-27T11:00:00.000Z</v>
+      </c>
+      <c r="K55">
+        <v>4395710849000</v>
+      </c>
+      <c r="L55">
+        <v>236237700</v>
+      </c>
+      <c r="M55">
+        <v>-234700</v>
+      </c>
+      <c r="N55">
+        <v>-3444593000</v>
+      </c>
+      <c r="O55">
+        <v>9648100</v>
+      </c>
+      <c r="P55">
+        <v>383223983000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>1674817320000</v>
+      </c>
+      <c r="B56">
+        <v>1122900</v>
+      </c>
+      <c r="C56">
+        <v>1290200</v>
+      </c>
+      <c r="D56">
+        <v>5000</v>
+      </c>
+      <c r="E56">
+        <v>20043853000</v>
+      </c>
+      <c r="F56">
+        <v>24658566000</v>
+      </c>
+      <c r="G56">
+        <v>21118000</v>
+      </c>
+      <c r="H56">
+        <v>2418100</v>
+      </c>
+      <c r="I56">
+        <v>44723537000</v>
+      </c>
+      <c r="J56" t="str">
+        <v>2023-01-27T11:02:00.000Z</v>
+      </c>
+      <c r="K56">
+        <v>4440434386000</v>
+      </c>
+      <c r="L56">
+        <v>238655800</v>
+      </c>
+      <c r="M56">
+        <v>167300</v>
+      </c>
+      <c r="N56">
+        <v>4614713000</v>
+      </c>
+      <c r="O56">
+        <v>9815400</v>
+      </c>
+      <c r="P56">
+        <v>387838696000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>1674817440000</v>
+      </c>
+      <c r="B57">
+        <v>968400</v>
+      </c>
+      <c r="C57">
+        <v>1199100</v>
+      </c>
+      <c r="D57">
+        <v>11200</v>
+      </c>
+      <c r="E57">
+        <v>17418687000</v>
+      </c>
+      <c r="F57">
+        <v>22537219000</v>
+      </c>
+      <c r="G57">
+        <v>254575000</v>
+      </c>
+      <c r="H57">
+        <v>2178700</v>
+      </c>
+      <c r="I57">
+        <v>40210481000</v>
+      </c>
+      <c r="J57" t="str">
+        <v>2023-01-27T11:04:00.000Z</v>
+      </c>
+      <c r="K57">
+        <v>4480644867000</v>
+      </c>
+      <c r="L57">
+        <v>240834500</v>
+      </c>
+      <c r="M57">
+        <v>230700</v>
+      </c>
+      <c r="N57">
+        <v>5118532000</v>
+      </c>
+      <c r="O57">
+        <v>10046100</v>
+      </c>
+      <c r="P57">
+        <v>392957228000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1674817560000</v>
+      </c>
+      <c r="B58">
+        <v>1104400</v>
+      </c>
+      <c r="C58">
+        <v>1272300</v>
+      </c>
+      <c r="D58">
+        <v>9100</v>
+      </c>
+      <c r="E58">
+        <v>21559623000</v>
+      </c>
+      <c r="F58">
+        <v>23441222000</v>
+      </c>
+      <c r="G58">
+        <v>121221000</v>
+      </c>
+      <c r="H58">
+        <v>2385800</v>
+      </c>
+      <c r="I58">
+        <v>45122066000</v>
+      </c>
+      <c r="J58" t="str">
+        <v>2023-01-27T11:06:00.000Z</v>
+      </c>
+      <c r="K58">
+        <v>4525766933000</v>
+      </c>
+      <c r="L58">
+        <v>243220300</v>
+      </c>
+      <c r="M58">
+        <v>167900</v>
+      </c>
+      <c r="N58">
+        <v>1881599000</v>
+      </c>
+      <c r="O58">
+        <v>10214000</v>
+      </c>
+      <c r="P58">
+        <v>394838827000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>1674817680000</v>
+      </c>
+      <c r="B59">
+        <v>768000</v>
+      </c>
+      <c r="C59">
+        <v>1828400</v>
+      </c>
+      <c r="D59">
+        <v>3600</v>
+      </c>
+      <c r="E59">
+        <v>14104869000</v>
+      </c>
+      <c r="F59">
+        <v>37666282000</v>
+      </c>
+      <c r="G59">
+        <v>96144000</v>
+      </c>
+      <c r="H59">
+        <v>2600000</v>
+      </c>
+      <c r="I59">
+        <v>51867295000</v>
+      </c>
+      <c r="J59" t="str">
+        <v>2023-01-27T11:08:00.000Z</v>
+      </c>
+      <c r="K59">
+        <v>4577634228000</v>
+      </c>
+      <c r="L59">
+        <v>245820300</v>
+      </c>
+      <c r="M59">
+        <v>1060400</v>
+      </c>
+      <c r="N59">
+        <v>23561413000</v>
+      </c>
+      <c r="O59">
+        <v>11274400</v>
+      </c>
+      <c r="P59">
+        <v>418400240000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1674817800000</v>
+      </c>
+      <c r="B60">
+        <v>883600</v>
+      </c>
+      <c r="C60">
+        <v>1897700</v>
+      </c>
+      <c r="D60">
+        <v>10400</v>
+      </c>
+      <c r="E60">
+        <v>14831269000</v>
+      </c>
+      <c r="F60">
+        <v>34568368000</v>
+      </c>
+      <c r="G60">
+        <v>85039000</v>
+      </c>
+      <c r="H60">
+        <v>2791700</v>
+      </c>
+      <c r="I60">
+        <v>49484676000</v>
+      </c>
+      <c r="J60" t="str">
+        <v>2023-01-27T11:10:00.000Z</v>
+      </c>
+      <c r="K60">
+        <v>4627118904000</v>
+      </c>
+      <c r="L60">
+        <v>248612000</v>
+      </c>
+      <c r="M60">
+        <v>1014100</v>
+      </c>
+      <c r="N60">
+        <v>19737099000</v>
+      </c>
+      <c r="O60">
+        <v>12288500</v>
+      </c>
+      <c r="P60">
+        <v>438137339000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>1674817920000</v>
+      </c>
+      <c r="B61">
+        <v>1000000</v>
+      </c>
+      <c r="C61">
+        <v>2324500</v>
+      </c>
+      <c r="D61">
+        <v>12900</v>
+      </c>
+      <c r="E61">
+        <v>17500214000</v>
+      </c>
+      <c r="F61">
+        <v>43150104000</v>
+      </c>
+      <c r="G61">
+        <v>265305000</v>
+      </c>
+      <c r="H61">
+        <v>3337400</v>
+      </c>
+      <c r="I61">
+        <v>60915623000</v>
+      </c>
+      <c r="J61" t="str">
+        <v>2023-01-27T11:12:00.000Z</v>
+      </c>
+      <c r="K61">
+        <v>4688034527000</v>
+      </c>
+      <c r="L61">
+        <v>251949400</v>
+      </c>
+      <c r="M61">
+        <v>1324500</v>
+      </c>
+      <c r="N61">
+        <v>25649890000</v>
+      </c>
+      <c r="O61">
+        <v>13613000</v>
+      </c>
+      <c r="P61">
+        <v>463787229000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1674818040000</v>
+      </c>
+      <c r="B62">
+        <v>1039700</v>
+      </c>
+      <c r="C62">
+        <v>1957700</v>
+      </c>
+      <c r="D62">
+        <v>2800</v>
+      </c>
+      <c r="E62">
+        <v>17274451000</v>
+      </c>
+      <c r="F62">
+        <v>36847127000</v>
+      </c>
+      <c r="G62">
+        <v>89840000</v>
+      </c>
+      <c r="H62">
+        <v>3000200</v>
+      </c>
+      <c r="I62">
+        <v>54211418000</v>
+      </c>
+      <c r="J62" t="str">
+        <v>2023-01-27T11:14:00.000Z</v>
+      </c>
+      <c r="K62">
+        <v>4742245945000</v>
+      </c>
+      <c r="L62">
+        <v>254949600</v>
+      </c>
+      <c r="M62">
+        <v>918000</v>
+      </c>
+      <c r="N62">
+        <v>19572676000</v>
+      </c>
+      <c r="O62">
+        <v>14531000</v>
+      </c>
+      <c r="P62">
+        <v>483359905000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>1674818160000</v>
+      </c>
+      <c r="B63">
+        <v>691900</v>
+      </c>
+      <c r="C63">
+        <v>1985500</v>
+      </c>
+      <c r="D63">
+        <v>15600</v>
+      </c>
+      <c r="E63">
+        <v>13220588000</v>
+      </c>
+      <c r="F63">
+        <v>36878862000</v>
+      </c>
+      <c r="G63">
+        <v>204940000</v>
+      </c>
+      <c r="H63">
+        <v>2693000</v>
+      </c>
+      <c r="I63">
+        <v>50304390000</v>
+      </c>
+      <c r="J63" t="str">
+        <v>2023-01-27T11:16:00.000Z</v>
+      </c>
+      <c r="K63">
+        <v>4792550335000</v>
+      </c>
+      <c r="L63">
+        <v>257642600</v>
+      </c>
+      <c r="M63">
+        <v>1293600</v>
+      </c>
+      <c r="N63">
+        <v>23658274000</v>
+      </c>
+      <c r="O63">
+        <v>15824600</v>
+      </c>
+      <c r="P63">
+        <v>507018179000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>1674818280000</v>
+      </c>
+      <c r="B64">
+        <v>798400</v>
+      </c>
+      <c r="C64">
+        <v>2080400</v>
+      </c>
+      <c r="D64">
+        <v>3300</v>
+      </c>
+      <c r="E64">
+        <v>19828878000</v>
+      </c>
+      <c r="F64">
+        <v>36537274000</v>
+      </c>
+      <c r="G64">
+        <v>39495000</v>
+      </c>
+      <c r="H64">
+        <v>2882100</v>
+      </c>
+      <c r="I64">
+        <v>56405647000</v>
+      </c>
+      <c r="J64" t="str">
+        <v>2023-01-27T11:18:00.000Z</v>
+      </c>
+      <c r="K64">
+        <v>4848955982000</v>
+      </c>
+      <c r="L64">
+        <v>260524700</v>
+      </c>
+      <c r="M64">
+        <v>1282000</v>
+      </c>
+      <c r="N64">
+        <v>16708396000</v>
+      </c>
+      <c r="O64">
+        <v>17106600</v>
+      </c>
+      <c r="P64">
+        <v>523726575000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>1674818400000</v>
+      </c>
+      <c r="B65">
+        <v>937200</v>
+      </c>
+      <c r="C65">
+        <v>2385500</v>
+      </c>
+      <c r="D65">
+        <v>20000</v>
+      </c>
+      <c r="E65">
+        <v>18480618000</v>
+      </c>
+      <c r="F65">
+        <v>41648572000</v>
+      </c>
+      <c r="G65">
+        <v>283925000</v>
+      </c>
+      <c r="H65">
+        <v>3342700</v>
+      </c>
+      <c r="I65">
+        <v>60413115000</v>
+      </c>
+      <c r="J65" t="str">
+        <v>2023-01-27T11:20:00.000Z</v>
+      </c>
+      <c r="K65">
+        <v>4909369097000</v>
+      </c>
+      <c r="L65">
+        <v>263867400</v>
+      </c>
+      <c r="M65">
+        <v>1448300</v>
+      </c>
+      <c r="N65">
+        <v>23167954000</v>
+      </c>
+      <c r="O65">
+        <v>18554900</v>
+      </c>
+      <c r="P65">
+        <v>546894529000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>1674818520000</v>
+      </c>
+      <c r="B66">
+        <v>805600</v>
+      </c>
+      <c r="C66">
+        <v>2185500</v>
+      </c>
+      <c r="D66">
+        <v>20700</v>
+      </c>
+      <c r="E66">
+        <v>12525511000</v>
+      </c>
+      <c r="F66">
+        <v>38832985000</v>
+      </c>
+      <c r="G66">
+        <v>288745000</v>
+      </c>
+      <c r="H66">
+        <v>3011800</v>
+      </c>
+      <c r="I66">
+        <v>51647241000</v>
+      </c>
+      <c r="J66" t="str">
+        <v>2023-01-27T11:22:00.000Z</v>
+      </c>
+      <c r="K66">
+        <v>4961016338000</v>
+      </c>
+      <c r="L66">
+        <v>266879200</v>
+      </c>
+      <c r="M66">
+        <v>1379900</v>
+      </c>
+      <c r="N66">
+        <v>26307474000</v>
+      </c>
+      <c r="O66">
+        <v>19934800</v>
+      </c>
+      <c r="P66">
+        <v>573202003000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1674818640000</v>
+      </c>
+      <c r="B67">
+        <v>727700</v>
+      </c>
+      <c r="C67">
+        <v>2249200</v>
+      </c>
+      <c r="D67">
+        <v>6200</v>
+      </c>
+      <c r="E67">
+        <v>13993975000</v>
+      </c>
+      <c r="F67">
+        <v>40457169000</v>
+      </c>
+      <c r="G67">
+        <v>131217000</v>
+      </c>
+      <c r="H67">
+        <v>2983100</v>
+      </c>
+      <c r="I67">
+        <v>54582361000</v>
+      </c>
+      <c r="J67" t="str">
+        <v>2023-01-27T11:24:00.000Z</v>
+      </c>
+      <c r="K67">
+        <v>5015598699000</v>
+      </c>
+      <c r="L67">
+        <v>269862300</v>
+      </c>
+      <c r="M67">
+        <v>1521500</v>
+      </c>
+      <c r="N67">
+        <v>26463194000</v>
+      </c>
+      <c r="O67">
+        <v>21456300</v>
+      </c>
+      <c r="P67">
+        <v>599665197000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1674818760000</v>
+      </c>
+      <c r="B68">
+        <v>905500</v>
+      </c>
+      <c r="C68">
+        <v>2635600</v>
+      </c>
+      <c r="D68">
+        <v>2000</v>
+      </c>
+      <c r="E68">
+        <v>15342178000</v>
+      </c>
+      <c r="F68">
+        <v>48902448000</v>
+      </c>
+      <c r="G68">
+        <v>54562000</v>
+      </c>
+      <c r="H68">
+        <v>3543100</v>
+      </c>
+      <c r="I68">
+        <v>64299188000</v>
+      </c>
+      <c r="J68" t="str">
+        <v>2023-01-27T11:26:00.000Z</v>
+      </c>
+      <c r="K68">
+        <v>5079897887000</v>
+      </c>
+      <c r="L68">
+        <v>273405400</v>
+      </c>
+      <c r="M68">
+        <v>1730100</v>
+      </c>
+      <c r="N68">
+        <v>33560270000</v>
+      </c>
+      <c r="O68">
+        <v>23186400</v>
+      </c>
+      <c r="P68">
+        <v>633225467000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>1674818880000</v>
+      </c>
+      <c r="B69">
+        <v>787100</v>
+      </c>
+      <c r="C69">
+        <v>2692200</v>
+      </c>
+      <c r="D69">
+        <v>7300</v>
+      </c>
+      <c r="E69">
+        <v>13777584000</v>
+      </c>
+      <c r="F69">
+        <v>43026916000</v>
+      </c>
+      <c r="G69">
+        <v>88874000</v>
+      </c>
+      <c r="H69">
+        <v>3486600</v>
+      </c>
+      <c r="I69">
+        <v>56893374000</v>
+      </c>
+      <c r="J69" t="str">
+        <v>2023-01-27T11:28:00.000Z</v>
+      </c>
+      <c r="K69">
+        <v>5136791261000</v>
+      </c>
+      <c r="L69">
+        <v>276892000</v>
+      </c>
+      <c r="M69">
+        <v>1905100</v>
+      </c>
+      <c r="N69">
+        <v>29249332000</v>
+      </c>
+      <c r="O69">
+        <v>25091500</v>
+      </c>
+      <c r="P69">
+        <v>662474799000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>1674819000000</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>24000</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>339400000</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>24000</v>
+      </c>
+      <c r="I70">
+        <v>339400000</v>
+      </c>
+      <c r="J70" t="str">
+        <v>2023-01-27T11:30:00.000Z</v>
+      </c>
+      <c r="K70">
+        <v>5137130661000</v>
+      </c>
+      <c r="L70">
+        <v>276916000</v>
+      </c>
+      <c r="M70">
+        <v>24000</v>
+      </c>
+      <c r="N70">
+        <v>339400000</v>
+      </c>
+      <c r="O70">
+        <v>25115500</v>
+      </c>
+      <c r="P70">
+        <v>662814199000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>1674824400000</v>
+      </c>
+      <c r="B71">
+        <v>4046500</v>
+      </c>
+      <c r="C71">
+        <v>4949500</v>
+      </c>
+      <c r="D71">
+        <v>172500</v>
+      </c>
+      <c r="E71">
+        <v>70718251000</v>
+      </c>
+      <c r="F71">
+        <v>85558765000</v>
+      </c>
+      <c r="G71">
+        <v>3608392000</v>
+      </c>
+      <c r="H71">
+        <v>9168500</v>
+      </c>
+      <c r="I71">
+        <v>159885408000</v>
+      </c>
+      <c r="J71" t="str">
+        <v>2023-01-27T13:00:00.000Z</v>
+      </c>
+      <c r="K71">
+        <v>5297016069000</v>
+      </c>
+      <c r="L71">
+        <v>286084500</v>
+      </c>
+      <c r="M71">
+        <v>903000</v>
+      </c>
+      <c r="N71">
+        <v>14840514000</v>
+      </c>
+      <c r="O71">
+        <v>26018500</v>
+      </c>
+      <c r="P71">
+        <v>677654713000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1674824520000</v>
+      </c>
+      <c r="B72">
+        <v>2052800</v>
+      </c>
+      <c r="C72">
+        <v>2092800</v>
+      </c>
+      <c r="D72">
+        <v>20000</v>
+      </c>
+      <c r="E72">
+        <v>39611020000</v>
+      </c>
+      <c r="F72">
+        <v>31803793000</v>
+      </c>
+      <c r="G72">
+        <v>320965000</v>
+      </c>
+      <c r="H72">
+        <v>4165600</v>
+      </c>
+      <c r="I72">
+        <v>71735778000</v>
+      </c>
+      <c r="J72" t="str">
+        <v>2023-01-27T13:02:00.000Z</v>
+      </c>
+      <c r="K72">
+        <v>5368751847000</v>
+      </c>
+      <c r="L72">
+        <v>290250100</v>
+      </c>
+      <c r="M72">
+        <v>40000</v>
+      </c>
+      <c r="N72">
+        <v>-7807227000</v>
+      </c>
+      <c r="O72">
+        <v>26058500</v>
+      </c>
+      <c r="P72">
+        <v>669847486000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1674824640000</v>
+      </c>
+      <c r="B73">
+        <v>2329500</v>
+      </c>
+      <c r="C73">
+        <v>1732500</v>
+      </c>
+      <c r="D73">
+        <v>800</v>
+      </c>
+      <c r="E73">
+        <v>40158765000</v>
+      </c>
+      <c r="F73">
+        <v>33110895000</v>
+      </c>
+      <c r="G73">
+        <v>16145000</v>
+      </c>
+      <c r="H73">
+        <v>4062800</v>
+      </c>
+      <c r="I73">
+        <v>73285805000</v>
+      </c>
+      <c r="J73" t="str">
+        <v>2023-01-27T13:04:00.000Z</v>
+      </c>
+      <c r="K73">
+        <v>5442037652000</v>
+      </c>
+      <c r="L73">
+        <v>294312900</v>
+      </c>
+      <c r="M73">
+        <v>-597000</v>
+      </c>
+      <c r="N73">
+        <v>-7047870000</v>
+      </c>
+      <c r="O73">
+        <v>25461500</v>
+      </c>
+      <c r="P73">
+        <v>662799616000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>1674824760000</v>
+      </c>
+      <c r="B74">
+        <v>2614700</v>
+      </c>
+      <c r="C74">
+        <v>2437400</v>
+      </c>
+      <c r="D74">
+        <v>56300</v>
+      </c>
+      <c r="E74">
+        <v>43200647000</v>
+      </c>
+      <c r="F74">
+        <v>45744297000</v>
+      </c>
+      <c r="G74">
+        <v>781554000</v>
+      </c>
+      <c r="H74">
+        <v>5108400</v>
+      </c>
+      <c r="I74">
+        <v>89726498000</v>
+      </c>
+      <c r="J74" t="str">
+        <v>2023-01-27T13:06:00.000Z</v>
+      </c>
+      <c r="K74">
+        <v>5531764150000</v>
+      </c>
+      <c r="L74">
+        <v>299421300</v>
+      </c>
+      <c r="M74">
+        <v>-177300</v>
+      </c>
+      <c r="N74">
+        <v>2543650000</v>
+      </c>
+      <c r="O74">
+        <v>25284200</v>
+      </c>
+      <c r="P74">
+        <v>665343266000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>1674824880000</v>
+      </c>
+      <c r="B75">
+        <v>1556400</v>
+      </c>
+      <c r="C75">
+        <v>1892600</v>
+      </c>
+      <c r="D75">
+        <v>3100</v>
+      </c>
+      <c r="E75">
+        <v>24026720000</v>
+      </c>
+      <c r="F75">
+        <v>35173879000</v>
+      </c>
+      <c r="G75">
+        <v>162325000</v>
+      </c>
+      <c r="H75">
+        <v>3452100</v>
+      </c>
+      <c r="I75">
+        <v>59362924000</v>
+      </c>
+      <c r="J75" t="str">
+        <v>2023-01-27T13:08:00.000Z</v>
+      </c>
+      <c r="K75">
+        <v>5591127074000</v>
+      </c>
+      <c r="L75">
+        <v>302873400</v>
+      </c>
+      <c r="M75">
+        <v>336200</v>
+      </c>
+      <c r="N75">
+        <v>11147159000</v>
+      </c>
+      <c r="O75">
+        <v>25620400</v>
+      </c>
+      <c r="P75">
+        <v>676490425000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>1674825000000</v>
+      </c>
+      <c r="B76">
+        <v>2329500</v>
+      </c>
+      <c r="C76">
+        <v>2986900</v>
+      </c>
+      <c r="D76">
+        <v>21000</v>
+      </c>
+      <c r="E76">
+        <v>41776785000</v>
+      </c>
+      <c r="F76">
+        <v>51281386000</v>
+      </c>
+      <c r="G76">
+        <v>382181000</v>
+      </c>
+      <c r="H76">
+        <v>5337400</v>
+      </c>
+      <c r="I76">
+        <v>93440352000</v>
+      </c>
+      <c r="J76" t="str">
+        <v>2023-01-27T13:10:00.000Z</v>
+      </c>
+      <c r="K76">
+        <v>5684567426000</v>
+      </c>
+      <c r="L76">
+        <v>308210800</v>
+      </c>
+      <c r="M76">
+        <v>657400</v>
+      </c>
+      <c r="N76">
+        <v>9504601000</v>
+      </c>
+      <c r="O76">
+        <v>26277800</v>
+      </c>
+      <c r="P76">
+        <v>685995026000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>1674825120000</v>
+      </c>
+      <c r="B77">
+        <v>1937100</v>
+      </c>
+      <c r="C77">
+        <v>2670300</v>
+      </c>
+      <c r="D77">
+        <v>14400</v>
+      </c>
+      <c r="E77">
+        <v>35297315000</v>
+      </c>
+      <c r="F77">
+        <v>44784196000</v>
+      </c>
+      <c r="G77">
+        <v>257300000</v>
+      </c>
+      <c r="H77">
+        <v>4621800</v>
+      </c>
+      <c r="I77">
+        <v>80338811000</v>
+      </c>
+      <c r="J77" t="str">
+        <v>2023-01-27T13:12:00.000Z</v>
+      </c>
+      <c r="K77">
+        <v>5764906237000</v>
+      </c>
+      <c r="L77">
+        <v>312832600</v>
+      </c>
+      <c r="M77">
+        <v>733200</v>
+      </c>
+      <c r="N77">
+        <v>9486881000</v>
+      </c>
+      <c r="O77">
+        <v>27011000</v>
+      </c>
+      <c r="P77">
+        <v>695481907000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1674825240000</v>
+      </c>
+      <c r="B78">
+        <v>2299800</v>
+      </c>
+      <c r="C78">
+        <v>2833700</v>
+      </c>
+      <c r="D78">
+        <v>11500</v>
+      </c>
+      <c r="E78">
+        <v>40465115000</v>
+      </c>
+      <c r="F78">
+        <v>48670778000</v>
+      </c>
+      <c r="G78">
+        <v>153530000</v>
+      </c>
+      <c r="H78">
+        <v>5145000</v>
+      </c>
+      <c r="I78">
+        <v>89289423000</v>
+      </c>
+      <c r="J78" t="str">
+        <v>2023-01-27T13:14:00.000Z</v>
+      </c>
+      <c r="K78">
+        <v>5854195660000</v>
+      </c>
+      <c r="L78">
+        <v>317977600</v>
+      </c>
+      <c r="M78">
+        <v>533900</v>
+      </c>
+      <c r="N78">
+        <v>8205663000</v>
+      </c>
+      <c r="O78">
+        <v>27544900</v>
+      </c>
+      <c r="P78">
+        <v>703687570000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>1674825360000</v>
+      </c>
+      <c r="B79">
+        <v>1780200</v>
+      </c>
+      <c r="C79">
+        <v>2660300</v>
+      </c>
+      <c r="D79">
+        <v>8900</v>
+      </c>
+      <c r="E79">
+        <v>30854624000</v>
+      </c>
+      <c r="F79">
+        <v>57978636000</v>
+      </c>
+      <c r="G79">
+        <v>314614000</v>
+      </c>
+      <c r="H79">
+        <v>4449400</v>
+      </c>
+      <c r="I79">
+        <v>89147874000</v>
+      </c>
+      <c r="J79" t="str">
+        <v>2023-01-27T13:16:00.000Z</v>
+      </c>
+      <c r="K79">
+        <v>5943343534000</v>
+      </c>
+      <c r="L79">
+        <v>322427000</v>
+      </c>
+      <c r="M79">
+        <v>880100</v>
+      </c>
+      <c r="N79">
+        <v>27124012000</v>
+      </c>
+      <c r="O79">
+        <v>28425000</v>
+      </c>
+      <c r="P79">
+        <v>730811582000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>1674825480000</v>
+      </c>
+      <c r="B80">
+        <v>1846300</v>
+      </c>
+      <c r="C80">
+        <v>3168100</v>
+      </c>
+      <c r="D80">
+        <v>16300</v>
+      </c>
+      <c r="E80">
+        <v>31433071000</v>
+      </c>
+      <c r="F80">
+        <v>64491109000</v>
+      </c>
+      <c r="G80">
+        <v>575166000</v>
+      </c>
+      <c r="H80">
+        <v>5030700</v>
+      </c>
+      <c r="I80">
+        <v>96499346000</v>
+      </c>
+      <c r="J80" t="str">
+        <v>2023-01-27T13:18:00.000Z</v>
+      </c>
+      <c r="K80">
+        <v>6039842880000</v>
+      </c>
+      <c r="L80">
+        <v>327457700</v>
+      </c>
+      <c r="M80">
+        <v>1321800</v>
+      </c>
+      <c r="N80">
+        <v>33058038000</v>
+      </c>
+      <c r="O80">
+        <v>29746800</v>
+      </c>
+      <c r="P80">
+        <v>763869620000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1674825600000</v>
+      </c>
+      <c r="B81">
+        <v>2290400</v>
+      </c>
+      <c r="C81">
+        <v>4579800</v>
+      </c>
+      <c r="D81">
+        <v>37100</v>
+      </c>
+      <c r="E81">
+        <v>40949345000</v>
+      </c>
+      <c r="F81">
+        <v>101313789000</v>
+      </c>
+      <c r="G81">
+        <v>628742000</v>
+      </c>
+      <c r="H81">
+        <v>6907300</v>
+      </c>
+      <c r="I81">
+        <v>142891876000</v>
+      </c>
+      <c r="J81" t="str">
+        <v>2023-01-27T13:20:00.000Z</v>
+      </c>
+      <c r="K81">
+        <v>6182734756000</v>
+      </c>
+      <c r="L81">
+        <v>334365000</v>
+      </c>
+      <c r="M81">
+        <v>2289400</v>
+      </c>
+      <c r="N81">
+        <v>60364444000</v>
+      </c>
+      <c r="O81">
+        <v>32036200</v>
+      </c>
+      <c r="P81">
+        <v>824234064000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>1674825720000</v>
+      </c>
+      <c r="B82">
+        <v>2055100</v>
+      </c>
+      <c r="C82">
+        <v>4142500</v>
+      </c>
+      <c r="D82">
+        <v>1700</v>
+      </c>
+      <c r="E82">
+        <v>37963087000</v>
+      </c>
+      <c r="F82">
+        <v>82333171000</v>
+      </c>
+      <c r="G82">
+        <v>8187000</v>
+      </c>
+      <c r="H82">
+        <v>6199300</v>
+      </c>
+      <c r="I82">
+        <v>120304445000</v>
+      </c>
+      <c r="J82" t="str">
+        <v>2023-01-27T13:22:00.000Z</v>
+      </c>
+      <c r="K82">
+        <v>6303039201000</v>
+      </c>
+      <c r="L82">
+        <v>340564300</v>
+      </c>
+      <c r="M82">
+        <v>2087400</v>
+      </c>
+      <c r="N82">
+        <v>44370084000</v>
+      </c>
+      <c r="O82">
+        <v>34123600</v>
+      </c>
+      <c r="P82">
+        <v>868604148000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>1674825840000</v>
+      </c>
+      <c r="B83">
+        <v>1799800</v>
+      </c>
+      <c r="C83">
+        <v>4554100</v>
+      </c>
+      <c r="D83">
+        <v>109200</v>
+      </c>
+      <c r="E83">
+        <v>29374246000</v>
+      </c>
+      <c r="F83">
+        <v>88598328000</v>
+      </c>
+      <c r="G83">
+        <v>2189788000</v>
+      </c>
+      <c r="H83">
+        <v>6463100</v>
+      </c>
+      <c r="I83">
+        <v>120162362000</v>
+      </c>
+      <c r="J83" t="str">
+        <v>2023-01-27T13:24:00.000Z</v>
+      </c>
+      <c r="K83">
+        <v>6423201563000</v>
+      </c>
+      <c r="L83">
+        <v>347027400</v>
+      </c>
+      <c r="M83">
+        <v>2754300</v>
+      </c>
+      <c r="N83">
+        <v>59224082000</v>
+      </c>
+      <c r="O83">
+        <v>36877900</v>
+      </c>
+      <c r="P83">
+        <v>927828230000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1674825960000</v>
+      </c>
+      <c r="B84">
+        <v>3158700</v>
+      </c>
+      <c r="C84">
+        <v>3216600</v>
+      </c>
+      <c r="D84">
+        <v>29600</v>
+      </c>
+      <c r="E84">
+        <v>58476868000</v>
+      </c>
+      <c r="F84">
+        <v>55230183000</v>
+      </c>
+      <c r="G84">
+        <v>241854000</v>
+      </c>
+      <c r="H84">
+        <v>6404900</v>
+      </c>
+      <c r="I84">
+        <v>113948905000</v>
+      </c>
+      <c r="J84" t="str">
+        <v>2023-01-27T13:26:00.000Z</v>
+      </c>
+      <c r="K84">
+        <v>6537150468000</v>
+      </c>
+      <c r="L84">
+        <v>353432300</v>
+      </c>
+      <c r="M84">
+        <v>57900</v>
+      </c>
+      <c r="N84">
+        <v>-3246685000</v>
+      </c>
+      <c r="O84">
+        <v>36935800</v>
+      </c>
+      <c r="P84">
+        <v>924581545000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>1674826080000</v>
+      </c>
+      <c r="B85">
+        <v>1485500</v>
+      </c>
+      <c r="C85">
+        <v>3066900</v>
+      </c>
+      <c r="D85">
+        <v>8000</v>
+      </c>
+      <c r="E85">
+        <v>24983786000</v>
+      </c>
+      <c r="F85">
+        <v>63563235000</v>
+      </c>
+      <c r="G85">
+        <v>137019000</v>
+      </c>
+      <c r="H85">
+        <v>4560400</v>
+      </c>
+      <c r="I85">
+        <v>88684040000</v>
+      </c>
+      <c r="J85" t="str">
+        <v>2023-01-27T13:28:00.000Z</v>
+      </c>
+      <c r="K85">
+        <v>6625834508000</v>
+      </c>
+      <c r="L85">
+        <v>357992700</v>
+      </c>
+      <c r="M85">
+        <v>1581400</v>
+      </c>
+      <c r="N85">
+        <v>38579449000</v>
+      </c>
+      <c r="O85">
+        <v>38517200</v>
+      </c>
+      <c r="P85">
+        <v>963160994000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>1674826200000</v>
+      </c>
+      <c r="B86">
+        <v>1689100</v>
+      </c>
+      <c r="C86">
+        <v>2139500</v>
+      </c>
+      <c r="D86">
+        <v>3000</v>
+      </c>
+      <c r="E86">
+        <v>29693916000</v>
+      </c>
+      <c r="F86">
+        <v>42055315000</v>
+      </c>
+      <c r="G86">
+        <v>83680000</v>
+      </c>
+      <c r="H86">
+        <v>3831600</v>
+      </c>
+      <c r="I86">
+        <v>71832911000</v>
+      </c>
+      <c r="J86" t="str">
+        <v>2023-01-27T13:30:00.000Z</v>
+      </c>
+      <c r="K86">
+        <v>6697667419000</v>
+      </c>
+      <c r="L86">
+        <v>361824300</v>
+      </c>
+      <c r="M86">
+        <v>450400</v>
+      </c>
+      <c r="N86">
+        <v>12361399000</v>
+      </c>
+      <c r="O86">
+        <v>38967600</v>
+      </c>
+      <c r="P86">
+        <v>975522393000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>1674826320000</v>
+      </c>
+      <c r="B87">
+        <v>1607100</v>
+      </c>
+      <c r="C87">
+        <v>2770700</v>
+      </c>
+      <c r="D87">
+        <v>24600</v>
+      </c>
+      <c r="E87">
+        <v>28559767000</v>
+      </c>
+      <c r="F87">
+        <v>50146939000</v>
+      </c>
+      <c r="G87">
+        <v>608349000</v>
+      </c>
+      <c r="H87">
+        <v>4402400</v>
+      </c>
+      <c r="I87">
+        <v>79315055000</v>
+      </c>
+      <c r="J87" t="str">
+        <v>2023-01-27T13:32:00.000Z</v>
+      </c>
+      <c r="K87">
+        <v>6776982474000</v>
+      </c>
+      <c r="L87">
+        <v>366226700</v>
+      </c>
+      <c r="M87">
+        <v>1163600</v>
+      </c>
+      <c r="N87">
+        <v>21587172000</v>
+      </c>
+      <c r="O87">
+        <v>40131200</v>
+      </c>
+      <c r="P87">
+        <v>997109565000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>1674826440000</v>
+      </c>
+      <c r="B88">
+        <v>2014800</v>
+      </c>
+      <c r="C88">
+        <v>2532800</v>
+      </c>
+      <c r="D88">
+        <v>7500</v>
+      </c>
+      <c r="E88">
+        <v>31241833000</v>
+      </c>
+      <c r="F88">
+        <v>49379748000</v>
+      </c>
+      <c r="G88">
+        <v>184420000</v>
+      </c>
+      <c r="H88">
+        <v>4555100</v>
+      </c>
+      <c r="I88">
+        <v>80806001000</v>
+      </c>
+      <c r="J88" t="str">
+        <v>2023-01-27T13:34:00.000Z</v>
+      </c>
+      <c r="K88">
+        <v>6857788475000</v>
+      </c>
+      <c r="L88">
+        <v>370781800</v>
+      </c>
+      <c r="M88">
+        <v>518000</v>
+      </c>
+      <c r="N88">
+        <v>18137915000</v>
+      </c>
+      <c r="O88">
+        <v>40649200</v>
+      </c>
+      <c r="P88">
+        <v>1015247480000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1674826560000</v>
+      </c>
+      <c r="B89">
+        <v>2402000</v>
+      </c>
+      <c r="C89">
+        <v>2365300</v>
+      </c>
+      <c r="D89">
+        <v>17500</v>
+      </c>
+      <c r="E89">
+        <v>46889812000</v>
+      </c>
+      <c r="F89">
+        <v>46395634000</v>
+      </c>
+      <c r="G89">
+        <v>127816000</v>
+      </c>
+      <c r="H89">
+        <v>4784800</v>
+      </c>
+      <c r="I89">
+        <v>93413262000</v>
+      </c>
+      <c r="J89" t="str">
+        <v>2023-01-27T13:36:00.000Z</v>
+      </c>
+      <c r="K89">
+        <v>6951201737000</v>
+      </c>
+      <c r="L89">
+        <v>375566600</v>
+      </c>
+      <c r="M89">
+        <v>-36700</v>
+      </c>
+      <c r="N89">
+        <v>-494178000</v>
+      </c>
+      <c r="O89">
+        <v>40612500</v>
+      </c>
+      <c r="P89">
+        <v>1014753302000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1674826680000</v>
+      </c>
+      <c r="B90">
+        <v>2773600</v>
+      </c>
+      <c r="C90">
+        <v>2501600</v>
+      </c>
+      <c r="D90">
+        <v>7700</v>
+      </c>
+      <c r="E90">
+        <v>51213534000</v>
+      </c>
+      <c r="F90">
+        <v>48525922000</v>
+      </c>
+      <c r="G90">
+        <v>260128000</v>
+      </c>
+      <c r="H90">
+        <v>5282900</v>
+      </c>
+      <c r="I90">
+        <v>99999584000</v>
+      </c>
+      <c r="J90" t="str">
+        <v>2023-01-27T13:38:00.000Z</v>
+      </c>
+      <c r="K90">
+        <v>7051201321000</v>
+      </c>
+      <c r="L90">
+        <v>380849500</v>
+      </c>
+      <c r="M90">
+        <v>-272000</v>
+      </c>
+      <c r="N90">
+        <v>-2687612000</v>
+      </c>
+      <c r="O90">
+        <v>40340500</v>
+      </c>
+      <c r="P90">
+        <v>1012065690000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>1674826800000</v>
+      </c>
+      <c r="B91">
+        <v>2330400</v>
+      </c>
+      <c r="C91">
+        <v>2262500</v>
+      </c>
+      <c r="D91">
+        <v>94700</v>
+      </c>
+      <c r="E91">
+        <v>43926984000</v>
+      </c>
+      <c r="F91">
+        <v>45721316000</v>
+      </c>
+      <c r="G91">
+        <v>3590348000</v>
+      </c>
+      <c r="H91">
+        <v>4687600</v>
+      </c>
+      <c r="I91">
+        <v>93238648000</v>
+      </c>
+      <c r="J91" t="str">
+        <v>2023-01-27T13:40:00.000Z</v>
+      </c>
+      <c r="K91">
+        <v>7144439969000</v>
+      </c>
+      <c r="L91">
+        <v>385537100</v>
+      </c>
+      <c r="M91">
+        <v>-67900</v>
+      </c>
+      <c r="N91">
+        <v>1794332000</v>
+      </c>
+      <c r="O91">
+        <v>40272600</v>
+      </c>
+      <c r="P91">
+        <v>1013860022000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1674826920000</v>
+      </c>
+      <c r="B92">
+        <v>3176300</v>
+      </c>
+      <c r="C92">
+        <v>2266300</v>
+      </c>
+      <c r="D92">
+        <v>13500</v>
+      </c>
+      <c r="E92">
+        <v>52503256000</v>
+      </c>
+      <c r="F92">
+        <v>45249416000</v>
+      </c>
+      <c r="G92">
+        <v>117530000</v>
+      </c>
+      <c r="H92">
+        <v>5456100</v>
+      </c>
+      <c r="I92">
+        <v>97870202000</v>
+      </c>
+      <c r="J92" t="str">
+        <v>2023-01-27T13:42:00.000Z</v>
+      </c>
+      <c r="K92">
+        <v>7242310171000</v>
+      </c>
+      <c r="L92">
+        <v>390993200</v>
+      </c>
+      <c r="M92">
+        <v>-910000</v>
+      </c>
+      <c r="N92">
+        <v>-7253840000</v>
+      </c>
+      <c r="O92">
+        <v>39362600</v>
+      </c>
+      <c r="P92">
+        <v>1006606182000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>1674827040000</v>
+      </c>
+      <c r="B93">
+        <v>2076700</v>
+      </c>
+      <c r="C93">
+        <v>2251100</v>
+      </c>
+      <c r="D93">
+        <v>19400</v>
+      </c>
+      <c r="E93">
+        <v>40474374000</v>
+      </c>
+      <c r="F93">
+        <v>49468106000</v>
+      </c>
+      <c r="G93">
+        <v>222954000</v>
+      </c>
+      <c r="H93">
+        <v>4347200</v>
+      </c>
+      <c r="I93">
+        <v>90165434000</v>
+      </c>
+      <c r="J93" t="str">
+        <v>2023-01-27T13:44:00.000Z</v>
+      </c>
+      <c r="K93">
+        <v>7332475605000</v>
+      </c>
+      <c r="L93">
+        <v>395340400</v>
+      </c>
+      <c r="M93">
+        <v>174400</v>
+      </c>
+      <c r="N93">
+        <v>8993732000</v>
+      </c>
+      <c r="O93">
+        <v>39537000</v>
+      </c>
+      <c r="P93">
+        <v>1015599914000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>1674827160000</v>
+      </c>
+      <c r="B94">
+        <v>2298000</v>
+      </c>
+      <c r="C94">
+        <v>1720900</v>
+      </c>
+      <c r="D94">
+        <v>75500</v>
+      </c>
+      <c r="E94">
+        <v>41097088000</v>
+      </c>
+      <c r="F94">
+        <v>34313813000</v>
+      </c>
+      <c r="G94">
+        <v>657288000</v>
+      </c>
+      <c r="H94">
+        <v>4094400</v>
+      </c>
+      <c r="I94">
+        <v>76068189000</v>
+      </c>
+      <c r="J94" t="str">
+        <v>2023-01-27T13:46:00.000Z</v>
+      </c>
+      <c r="K94">
+        <v>7408543794000</v>
+      </c>
+      <c r="L94">
+        <v>399434800</v>
+      </c>
+      <c r="M94">
+        <v>-577100</v>
+      </c>
+      <c r="N94">
+        <v>-6783275000</v>
+      </c>
+      <c r="O94">
+        <v>38959900</v>
+      </c>
+      <c r="P94">
+        <v>1008816639000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>1674827280000</v>
+      </c>
+      <c r="B95">
+        <v>3136900</v>
+      </c>
+      <c r="C95">
+        <v>2122300</v>
+      </c>
+      <c r="D95">
+        <v>15100</v>
+      </c>
+      <c r="E95">
+        <v>81607855000</v>
+      </c>
+      <c r="F95">
+        <v>43006774000</v>
+      </c>
+      <c r="G95">
+        <v>331725000</v>
+      </c>
+      <c r="H95">
+        <v>5274300</v>
+      </c>
+      <c r="I95">
+        <v>124946354000</v>
+      </c>
+      <c r="J95" t="str">
+        <v>2023-01-27T13:48:00.000Z</v>
+      </c>
+      <c r="K95">
+        <v>7533490148000</v>
+      </c>
+      <c r="L95">
+        <v>404709100</v>
+      </c>
+      <c r="M95">
+        <v>-1014600</v>
+      </c>
+      <c r="N95">
+        <v>-38601081000</v>
+      </c>
+      <c r="O95">
+        <v>37945300</v>
+      </c>
+      <c r="P95">
+        <v>970215558000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1674827400000</v>
+      </c>
+      <c r="B96">
+        <v>2596900</v>
+      </c>
+      <c r="C96">
+        <v>1829200</v>
+      </c>
+      <c r="D96">
+        <v>7500</v>
+      </c>
+      <c r="E96">
+        <v>58086411000</v>
+      </c>
+      <c r="F96">
+        <v>38124688000</v>
+      </c>
+      <c r="G96">
+        <v>224118000</v>
+      </c>
+      <c r="H96">
+        <v>4433600</v>
+      </c>
+      <c r="I96">
+        <v>96435217000</v>
+      </c>
+      <c r="J96" t="str">
+        <v>2023-01-27T13:50:00.000Z</v>
+      </c>
+      <c r="K96">
+        <v>7629925365000</v>
+      </c>
+      <c r="L96">
+        <v>409142700</v>
+      </c>
+      <c r="M96">
+        <v>-767700</v>
+      </c>
+      <c r="N96">
+        <v>-19961723000</v>
+      </c>
+      <c r="O96">
+        <v>37177600</v>
+      </c>
+      <c r="P96">
+        <v>950253835000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>1674827520000</v>
+      </c>
+      <c r="B97">
+        <v>3470300</v>
+      </c>
+      <c r="C97">
+        <v>1298000</v>
+      </c>
+      <c r="D97">
+        <v>19900</v>
+      </c>
+      <c r="E97">
+        <v>63270333000</v>
+      </c>
+      <c r="F97">
+        <v>28470716000</v>
+      </c>
+      <c r="G97">
+        <v>437601000</v>
+      </c>
+      <c r="H97">
+        <v>4788200</v>
+      </c>
+      <c r="I97">
+        <v>92178650000</v>
+      </c>
+      <c r="J97" t="str">
+        <v>2023-01-27T13:52:00.000Z</v>
+      </c>
+      <c r="K97">
+        <v>7722104015000</v>
+      </c>
+      <c r="L97">
+        <v>413930900</v>
+      </c>
+      <c r="M97">
+        <v>-2172300</v>
+      </c>
+      <c r="N97">
+        <v>-34799617000</v>
+      </c>
+      <c r="O97">
+        <v>35005300</v>
+      </c>
+      <c r="P97">
+        <v>915454218000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>1674827640000</v>
+      </c>
+      <c r="B98">
+        <v>4664200</v>
+      </c>
+      <c r="C98">
+        <v>1125700</v>
+      </c>
+      <c r="D98">
+        <v>100600</v>
+      </c>
+      <c r="E98">
+        <v>80812447000</v>
+      </c>
+      <c r="F98">
+        <v>24718620000</v>
+      </c>
+      <c r="G98">
+        <v>2353007000</v>
+      </c>
+      <c r="H98">
+        <v>5890500</v>
+      </c>
+      <c r="I98">
+        <v>107884074000</v>
+      </c>
+      <c r="J98" t="str">
+        <v>2023-01-27T13:54:00.000Z</v>
+      </c>
+      <c r="K98">
+        <v>7829988089000</v>
+      </c>
+      <c r="L98">
+        <v>419821400</v>
+      </c>
+      <c r="M98">
+        <v>-3538500</v>
+      </c>
+      <c r="N98">
+        <v>-56093827000</v>
+      </c>
+      <c r="O98">
+        <v>31466800</v>
+      </c>
+      <c r="P98">
+        <v>859360391000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>1674827760000</v>
+      </c>
+      <c r="B99">
+        <v>3666800</v>
+      </c>
+      <c r="C99">
+        <v>1461200</v>
+      </c>
+      <c r="D99">
+        <v>18500</v>
+      </c>
+      <c r="E99">
+        <v>73942792000</v>
+      </c>
+      <c r="F99">
+        <v>27824617000</v>
+      </c>
+      <c r="G99">
+        <v>457927000</v>
+      </c>
+      <c r="H99">
+        <v>5146500</v>
+      </c>
+      <c r="I99">
+        <v>102225336000</v>
+      </c>
+      <c r="J99" t="str">
+        <v>2023-01-27T13:56:00.000Z</v>
+      </c>
+      <c r="K99">
+        <v>7932213425000</v>
+      </c>
+      <c r="L99">
+        <v>424967900</v>
+      </c>
+      <c r="M99">
+        <v>-2205600</v>
+      </c>
+      <c r="N99">
+        <v>-46118175000</v>
+      </c>
+      <c r="O99">
+        <v>29261200</v>
+      </c>
+      <c r="P99">
+        <v>813242216000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>1674827880000</v>
+      </c>
+      <c r="B100">
+        <v>5884900</v>
+      </c>
+      <c r="C100">
+        <v>1448300</v>
+      </c>
+      <c r="D100">
+        <v>11200</v>
+      </c>
+      <c r="E100">
+        <v>95243677000</v>
+      </c>
+      <c r="F100">
+        <v>27798077000</v>
+      </c>
+      <c r="G100">
+        <v>250147000</v>
+      </c>
+      <c r="H100">
+        <v>7344400</v>
+      </c>
+      <c r="I100">
+        <v>123291901000</v>
+      </c>
+      <c r="J100" t="str">
+        <v>2023-01-27T13:58:00.000Z</v>
+      </c>
+      <c r="K100">
+        <v>8055505326000</v>
+      </c>
+      <c r="L100">
+        <v>432312300</v>
+      </c>
+      <c r="M100">
+        <v>-4436600</v>
+      </c>
+      <c r="N100">
+        <v>-67445600000</v>
+      </c>
+      <c r="O100">
+        <v>24824600</v>
+      </c>
+      <c r="P100">
+        <v>745796616000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>1674828000000</v>
+      </c>
+      <c r="B101">
+        <v>3223800</v>
+      </c>
+      <c r="C101">
+        <v>1756400</v>
+      </c>
+      <c r="D101">
+        <v>10700</v>
+      </c>
+      <c r="E101">
+        <v>50456666000</v>
+      </c>
+      <c r="F101">
+        <v>42306340000</v>
+      </c>
+      <c r="G101">
+        <v>231984000</v>
+      </c>
+      <c r="H101">
+        <v>4990900</v>
+      </c>
+      <c r="I101">
+        <v>92994990000</v>
+      </c>
+      <c r="J101" t="str">
+        <v>2023-01-27T14:00:00.000Z</v>
+      </c>
+      <c r="K101">
+        <v>8148500316000</v>
+      </c>
+      <c r="L101">
+        <v>437303200</v>
+      </c>
+      <c r="M101">
+        <v>-1467400</v>
+      </c>
+      <c r="N101">
+        <v>-8150326000</v>
+      </c>
+      <c r="O101">
+        <v>23357200</v>
+      </c>
+      <c r="P101">
+        <v>737646290000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>1674828120000</v>
+      </c>
+      <c r="B102">
+        <v>1608900</v>
+      </c>
+      <c r="C102">
+        <v>2974900</v>
+      </c>
+      <c r="D102">
+        <v>22100</v>
+      </c>
+      <c r="E102">
+        <v>29422327000</v>
+      </c>
+      <c r="F102">
+        <v>59712083000</v>
+      </c>
+      <c r="G102">
+        <v>376509000</v>
+      </c>
+      <c r="H102">
+        <v>4605900</v>
+      </c>
+      <c r="I102">
+        <v>89510919000</v>
+      </c>
+      <c r="J102" t="str">
+        <v>2023-01-27T14:02:00.000Z</v>
+      </c>
+      <c r="K102">
+        <v>8238011235000</v>
+      </c>
+      <c r="L102">
+        <v>441909100</v>
+      </c>
+      <c r="M102">
+        <v>1366000</v>
+      </c>
+      <c r="N102">
+        <v>30289756000</v>
+      </c>
+      <c r="O102">
+        <v>24723200</v>
+      </c>
+      <c r="P102">
+        <v>767936046000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>1674828240000</v>
+      </c>
+      <c r="B103">
+        <v>1347000</v>
+      </c>
+      <c r="C103">
+        <v>2190600</v>
+      </c>
+      <c r="D103">
+        <v>9000</v>
+      </c>
+      <c r="E103">
+        <v>27192816000</v>
+      </c>
+      <c r="F103">
+        <v>44154173000</v>
+      </c>
+      <c r="G103">
+        <v>211936000</v>
+      </c>
+      <c r="H103">
+        <v>3546600</v>
+      </c>
+      <c r="I103">
+        <v>71558925000</v>
+      </c>
+      <c r="J103" t="str">
+        <v>2023-01-27T14:04:00.000Z</v>
+      </c>
+      <c r="K103">
+        <v>8309570160000</v>
+      </c>
+      <c r="L103">
+        <v>445455700</v>
+      </c>
+      <c r="M103">
+        <v>843600</v>
+      </c>
+      <c r="N103">
+        <v>16961357000</v>
+      </c>
+      <c r="O103">
+        <v>25566800</v>
+      </c>
+      <c r="P103">
+        <v>784897403000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>1674828360000</v>
+      </c>
+      <c r="B104">
+        <v>1085400</v>
+      </c>
+      <c r="C104">
+        <v>2079700</v>
+      </c>
+      <c r="D104">
+        <v>4900</v>
+      </c>
+      <c r="E104">
+        <v>18555809000</v>
+      </c>
+      <c r="F104">
+        <v>39893252000</v>
+      </c>
+      <c r="G104">
+        <v>84013000</v>
+      </c>
+      <c r="H104">
+        <v>3170000</v>
+      </c>
+      <c r="I104">
+        <v>58533074000</v>
+      </c>
+      <c r="J104" t="str">
+        <v>2023-01-27T14:06:00.000Z</v>
+      </c>
+      <c r="K104">
+        <v>8368103234000</v>
+      </c>
+      <c r="L104">
+        <v>448625700</v>
+      </c>
+      <c r="M104">
+        <v>994300</v>
+      </c>
+      <c r="N104">
+        <v>21337443000</v>
+      </c>
+      <c r="O104">
+        <v>26561100</v>
+      </c>
+      <c r="P104">
+        <v>806234846000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>1674828480000</v>
+      </c>
+      <c r="B105">
+        <v>2170200</v>
+      </c>
+      <c r="C105">
+        <v>2576100</v>
+      </c>
+      <c r="D105">
+        <v>14100</v>
+      </c>
+      <c r="E105">
+        <v>50222521000</v>
+      </c>
+      <c r="F105">
+        <v>41804769000</v>
+      </c>
+      <c r="G105">
+        <v>197431000</v>
+      </c>
+      <c r="H105">
+        <v>4760400</v>
+      </c>
+      <c r="I105">
+        <v>92224721000</v>
+      </c>
+      <c r="J105" t="str">
+        <v>2023-01-27T14:08:00.000Z</v>
+      </c>
+      <c r="K105">
+        <v>8460327955000</v>
+      </c>
+      <c r="L105">
+        <v>453386100</v>
+      </c>
+      <c r="M105">
+        <v>405900</v>
+      </c>
+      <c r="N105">
+        <v>-8417752000</v>
+      </c>
+      <c r="O105">
+        <v>26967000</v>
+      </c>
+      <c r="P105">
+        <v>797817094000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>1674828600000</v>
+      </c>
+      <c r="B106">
+        <v>2854800</v>
+      </c>
+      <c r="C106">
+        <v>1488800</v>
+      </c>
+      <c r="D106">
+        <v>44400</v>
+      </c>
+      <c r="E106">
+        <v>55643250000</v>
+      </c>
+      <c r="F106">
+        <v>29868145000</v>
+      </c>
+      <c r="G106">
+        <v>1050375000</v>
+      </c>
+      <c r="H106">
+        <v>4388000</v>
+      </c>
+      <c r="I106">
+        <v>86561770000</v>
+      </c>
+      <c r="J106" t="str">
+        <v>2023-01-27T14:10:00.000Z</v>
+      </c>
+      <c r="K106">
+        <v>8546889725000</v>
+      </c>
+      <c r="L106">
+        <v>457774100</v>
+      </c>
+      <c r="M106">
+        <v>-1366000</v>
+      </c>
+      <c r="N106">
+        <v>-25775105000</v>
+      </c>
+      <c r="O106">
+        <v>25601000</v>
+      </c>
+      <c r="P106">
+        <v>772041989000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>1674828720000</v>
+      </c>
+      <c r="B107">
+        <v>2519600</v>
+      </c>
+      <c r="C107">
+        <v>1272600</v>
+      </c>
+      <c r="D107">
+        <v>7600</v>
+      </c>
+      <c r="E107">
+        <v>45305152000</v>
+      </c>
+      <c r="F107">
+        <v>28883678000</v>
+      </c>
+      <c r="G107">
+        <v>46107000</v>
+      </c>
+      <c r="H107">
+        <v>3799800</v>
+      </c>
+      <c r="I107">
+        <v>74234937000</v>
+      </c>
+      <c r="J107" t="str">
+        <v>2023-01-27T14:12:00.000Z</v>
+      </c>
+      <c r="K107">
+        <v>8621124662000</v>
+      </c>
+      <c r="L107">
+        <v>461573900</v>
+      </c>
+      <c r="M107">
+        <v>-1247000</v>
+      </c>
+      <c r="N107">
+        <v>-16421474000</v>
+      </c>
+      <c r="O107">
+        <v>24354000</v>
+      </c>
+      <c r="P107">
+        <v>755620515000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>1674828840000</v>
+      </c>
+      <c r="B108">
+        <v>2672100</v>
+      </c>
+      <c r="C108">
+        <v>1757300</v>
+      </c>
+      <c r="D108">
+        <v>10900</v>
+      </c>
+      <c r="E108">
+        <v>41360488000</v>
+      </c>
+      <c r="F108">
+        <v>39560697000</v>
+      </c>
+      <c r="G108">
+        <v>264111000</v>
+      </c>
+      <c r="H108">
+        <v>4440300</v>
+      </c>
+      <c r="I108">
+        <v>81185296000</v>
+      </c>
+      <c r="J108" t="str">
+        <v>2023-01-27T14:14:00.000Z</v>
+      </c>
+      <c r="K108">
+        <v>8702309958000</v>
+      </c>
+      <c r="L108">
+        <v>466014200</v>
+      </c>
+      <c r="M108">
+        <v>-914800</v>
+      </c>
+      <c r="N108">
+        <v>-1799791000</v>
+      </c>
+      <c r="O108">
+        <v>23439200</v>
+      </c>
+      <c r="P108">
+        <v>753820724000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>1674828960000</v>
+      </c>
+      <c r="B109">
+        <v>1935600</v>
+      </c>
+      <c r="C109">
+        <v>1938400</v>
+      </c>
+      <c r="D109">
+        <v>120300</v>
+      </c>
+      <c r="E109">
+        <v>33947817000</v>
+      </c>
+      <c r="F109">
+        <v>38653812000</v>
+      </c>
+      <c r="G109">
+        <v>1539583000</v>
+      </c>
+      <c r="H109">
+        <v>3994300</v>
+      </c>
+      <c r="I109">
+        <v>74141212000</v>
+      </c>
+      <c r="J109" t="str">
+        <v>2023-01-27T14:16:00.000Z</v>
+      </c>
+      <c r="K109">
+        <v>8776451170000</v>
+      </c>
+      <c r="L109">
+        <v>470008500</v>
+      </c>
+      <c r="M109">
+        <v>2800</v>
+      </c>
+      <c r="N109">
+        <v>4705995000</v>
+      </c>
+      <c r="O109">
+        <v>23442000</v>
+      </c>
+      <c r="P109">
+        <v>758526719000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>1674829080000</v>
+      </c>
+      <c r="B110">
+        <v>3945300</v>
+      </c>
+      <c r="C110">
+        <v>1237300</v>
+      </c>
+      <c r="D110">
+        <v>21200</v>
+      </c>
+      <c r="E110">
+        <v>79118864000</v>
+      </c>
+      <c r="F110">
+        <v>26397671000</v>
+      </c>
+      <c r="G110">
+        <v>465082000</v>
+      </c>
+      <c r="H110">
+        <v>5203800</v>
+      </c>
+      <c r="I110">
+        <v>105981617000</v>
+      </c>
+      <c r="J110" t="str">
+        <v>2023-01-27T14:18:00.000Z</v>
+      </c>
+      <c r="K110">
+        <v>8882432787000</v>
+      </c>
+      <c r="L110">
+        <v>475212300</v>
+      </c>
+      <c r="M110">
+        <v>-2708000</v>
+      </c>
+      <c r="N110">
+        <v>-52721193000</v>
+      </c>
+      <c r="O110">
+        <v>20734000</v>
+      </c>
+      <c r="P110">
+        <v>705805526000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>1674829200000</v>
+      </c>
+      <c r="B111">
+        <v>8233100</v>
+      </c>
+      <c r="C111">
+        <v>2174400</v>
+      </c>
+      <c r="D111">
+        <v>38100</v>
+      </c>
+      <c r="E111">
+        <v>152021875000</v>
+      </c>
+      <c r="F111">
+        <v>41919076000</v>
+      </c>
+      <c r="G111">
+        <v>647484000</v>
+      </c>
+      <c r="H111">
+        <v>10445600</v>
+      </c>
+      <c r="I111">
+        <v>194588435000</v>
+      </c>
+      <c r="J111" t="str">
+        <v>2023-01-27T14:20:00.000Z</v>
+      </c>
+      <c r="K111">
+        <v>9077021222000</v>
+      </c>
+      <c r="L111">
+        <v>485657900</v>
+      </c>
+      <c r="M111">
+        <v>-6058700</v>
+      </c>
+      <c r="N111">
+        <v>-110102799000</v>
+      </c>
+      <c r="O111">
+        <v>14675300</v>
+      </c>
+      <c r="P111">
+        <v>595702727000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>1674829320000</v>
+      </c>
+      <c r="B112">
+        <v>5282700</v>
+      </c>
+      <c r="C112">
+        <v>2081500</v>
+      </c>
+      <c r="D112">
+        <v>95400</v>
+      </c>
+      <c r="E112">
+        <v>93890353000</v>
+      </c>
+      <c r="F112">
+        <v>41988919000</v>
+      </c>
+      <c r="G112">
+        <v>1396617000</v>
+      </c>
+      <c r="H112">
+        <v>7459600</v>
+      </c>
+      <c r="I112">
+        <v>137275889000</v>
+      </c>
+      <c r="J112" t="str">
+        <v>2023-01-27T14:22:00.000Z</v>
+      </c>
+      <c r="K112">
+        <v>9214297111000</v>
+      </c>
+      <c r="L112">
+        <v>493117500</v>
+      </c>
+      <c r="M112">
+        <v>-3201200</v>
+      </c>
+      <c r="N112">
+        <v>-51901434000</v>
+      </c>
+      <c r="O112">
+        <v>11474100</v>
+      </c>
+      <c r="P112">
+        <v>543801293000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>1674829440000</v>
+      </c>
+      <c r="B113">
+        <v>6611700</v>
+      </c>
+      <c r="C113">
+        <v>1824000</v>
+      </c>
+      <c r="D113">
+        <v>72100</v>
+      </c>
+      <c r="E113">
+        <v>116795034000</v>
+      </c>
+      <c r="F113">
+        <v>35905467000</v>
+      </c>
+      <c r="G113">
+        <v>1283793000</v>
+      </c>
+      <c r="H113">
+        <v>8507800</v>
+      </c>
+      <c r="I113">
+        <v>153984294000</v>
+      </c>
+      <c r="J113" t="str">
+        <v>2023-01-27T14:24:00.000Z</v>
+      </c>
+      <c r="K113">
+        <v>9368281405000</v>
+      </c>
+      <c r="L113">
+        <v>501625300</v>
+      </c>
+      <c r="M113">
+        <v>-4787700</v>
+      </c>
+      <c r="N113">
+        <v>-80889567000</v>
+      </c>
+      <c r="O113">
+        <v>6686400</v>
+      </c>
+      <c r="P113">
+        <v>462911726000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>1674829560000</v>
+      </c>
+      <c r="B114">
+        <v>6795300</v>
+      </c>
+      <c r="C114">
+        <v>2726800</v>
+      </c>
+      <c r="D114">
+        <v>189700</v>
+      </c>
+      <c r="E114">
+        <v>121783847000</v>
+      </c>
+      <c r="F114">
+        <v>49536976000</v>
+      </c>
+      <c r="G114">
+        <v>3338501000</v>
+      </c>
+      <c r="H114">
+        <v>9711800</v>
+      </c>
+      <c r="I114">
+        <v>174659324000</v>
+      </c>
+      <c r="J114" t="str">
+        <v>2023-01-27T14:26:00.000Z</v>
+      </c>
+      <c r="K114">
+        <v>9542940729000</v>
+      </c>
+      <c r="L114">
+        <v>511337100</v>
+      </c>
+      <c r="M114">
+        <v>-4068500</v>
+      </c>
+      <c r="N114">
+        <v>-72246871000</v>
+      </c>
+      <c r="O114">
+        <v>2617900</v>
+      </c>
+      <c r="P114">
+        <v>390664855000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>1674829680000</v>
+      </c>
+      <c r="B115">
+        <v>5953900</v>
+      </c>
+      <c r="C115">
+        <v>3359300</v>
+      </c>
+      <c r="D115">
+        <v>36200</v>
+      </c>
+      <c r="E115">
+        <v>103686916000</v>
+      </c>
+      <c r="F115">
+        <v>64096387000</v>
+      </c>
+      <c r="G115">
+        <v>414945000</v>
+      </c>
+      <c r="H115">
+        <v>9349400</v>
+      </c>
+      <c r="I115">
+        <v>168198248000</v>
+      </c>
+      <c r="J115" t="str">
+        <v>2023-01-27T14:28:00.000Z</v>
+      </c>
+      <c r="K115">
+        <v>9711138977000</v>
+      </c>
+      <c r="L115">
+        <v>520686500</v>
+      </c>
+      <c r="M115">
+        <v>-2594600</v>
+      </c>
+      <c r="N115">
+        <v>-39590529000</v>
+      </c>
+      <c r="O115">
+        <v>23300</v>
+      </c>
+      <c r="P115">
+        <v>351074326000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>1674829800000</v>
+      </c>
+      <c r="B116">
+        <v>24800</v>
+      </c>
+      <c r="C116">
+        <v>3700</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>268880000</v>
+      </c>
+      <c r="F116">
+        <v>105785000</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>28500</v>
+      </c>
+      <c r="I116">
+        <v>374665000</v>
+      </c>
+      <c r="J116" t="str">
+        <v>2023-01-27T14:30:00.000Z</v>
+      </c>
+      <c r="K116">
+        <v>9711513642000</v>
+      </c>
+      <c r="L116">
+        <v>520715000</v>
+      </c>
+      <c r="M116">
+        <v>-21100</v>
+      </c>
+      <c r="N116">
+        <v>-163095000</v>
+      </c>
+      <c r="O116">
+        <v>2200</v>
+      </c>
+      <c r="P116">
+        <v>350911231000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>1674830640000</v>
+      </c>
+      <c r="B117">
         <v>1562300</v>
       </c>
-      <c r="C49">
+      <c r="C117">
         <v>1446500</v>
       </c>
-      <c r="D49">
+      <c r="D117">
         <v>24326600</v>
       </c>
-      <c r="E49">
+      <c r="E117">
         <v>40189927000</v>
       </c>
-      <c r="F49">
+      <c r="F117">
         <v>36724778000</v>
       </c>
-      <c r="G49">
+      <c r="G117">
         <v>486290331000</v>
       </c>
-      <c r="H49">
+      <c r="H117">
         <v>27335400</v>
       </c>
-      <c r="I49">
+      <c r="I117">
         <v>563205036000</v>
       </c>
-      <c r="J49" t="str">
-        <v>2023-01-27T14:45:00.000Z</v>
-      </c>
-      <c r="K49">
+      <c r="J117" t="str">
+        <v>2023-01-27T14:44:00.000Z</v>
+      </c>
+      <c r="K117">
         <v>10274718678000</v>
       </c>
-      <c r="L49">
+      <c r="L117">
         <v>548050400</v>
       </c>
-      <c r="M49">
+      <c r="M117">
         <v>-115800</v>
       </c>
-      <c r="N49">
+      <c r="N117">
         <v>-3465149000</v>
       </c>
-      <c r="O49">
+      <c r="O117">
         <v>-113600</v>
       </c>
-      <c r="P49">
+      <c r="P117">
         <v>347446082000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P49"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P117"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/name/vnindex/20230127/VNINDEX_HOSE_5p_20230127.xlsx
+++ b/name/vnindex/20230127/VNINDEX_HOSE_5p_20230127.xlsx
@@ -466,25 +466,25 @@
         <v>3412000</v>
       </c>
       <c r="E2">
-        <v>111933944000</v>
+        <v>105247037600</v>
       </c>
       <c r="F2">
-        <v>83031725000</v>
+        <v>72645022100</v>
       </c>
       <c r="G2">
-        <v>51358233000</v>
+        <v>19044579000</v>
       </c>
       <c r="H2">
         <v>14400300</v>
       </c>
       <c r="I2">
-        <v>246323902000</v>
+        <v>196936638700</v>
       </c>
       <c r="J2" t="str">
         <v>2023-01-27T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>246323902000</v>
+        <v>196936638700</v>
       </c>
       <c r="L2">
         <v>14400300</v>
@@ -493,13 +493,13 @@
         <v>-1368100</v>
       </c>
       <c r="N2">
-        <v>-28902219000</v>
+        <v>-32602015500</v>
       </c>
       <c r="O2">
         <v>-1368100</v>
       </c>
       <c r="P2">
-        <v>-28902219000</v>
+        <v>-32602015500</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +516,25 @@
         <v>80000</v>
       </c>
       <c r="E3">
-        <v>72929787000</v>
+        <v>68580540600</v>
       </c>
       <c r="F3">
-        <v>110084181000</v>
+        <v>92079004200</v>
       </c>
       <c r="G3">
-        <v>1559402000</v>
+        <v>1154007800</v>
       </c>
       <c r="H3">
         <v>9730000</v>
       </c>
       <c r="I3">
-        <v>184573370000</v>
+        <v>161813552600</v>
       </c>
       <c r="J3" t="str">
         <v>2023-01-27T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>430897272000</v>
+        <v>358750191300</v>
       </c>
       <c r="L3">
         <v>24130300</v>
@@ -543,13 +543,13 @@
         <v>1240400</v>
       </c>
       <c r="N3">
-        <v>37154394000</v>
+        <v>23498463600</v>
       </c>
       <c r="O3">
         <v>-127700</v>
       </c>
       <c r="P3">
-        <v>8252175000</v>
+        <v>-9103551900</v>
       </c>
     </row>
     <row r="4">
@@ -566,25 +566,25 @@
         <v>89700</v>
       </c>
       <c r="E4">
-        <v>83229808000</v>
+        <v>77193850000</v>
       </c>
       <c r="F4">
-        <v>82469543000</v>
+        <v>69590435000</v>
       </c>
       <c r="G4">
-        <v>916326000</v>
+        <v>785057400</v>
       </c>
       <c r="H4">
         <v>9116900</v>
       </c>
       <c r="I4">
-        <v>166615677000</v>
+        <v>147569342400</v>
       </c>
       <c r="J4" t="str">
         <v>2023-01-27T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>597512949000</v>
+        <v>506319533700</v>
       </c>
       <c r="L4">
         <v>33247200</v>
@@ -593,13 +593,13 @@
         <v>-680000</v>
       </c>
       <c r="N4">
-        <v>-760265000</v>
+        <v>-7603415000</v>
       </c>
       <c r="O4">
         <v>-807700</v>
       </c>
       <c r="P4">
-        <v>7491910000</v>
+        <v>-16706966900</v>
       </c>
     </row>
     <row r="5">
@@ -616,10 +616,10 @@
         <v>111800</v>
       </c>
       <c r="E5">
-        <v>80080698000</v>
+        <v>77581599600</v>
       </c>
       <c r="F5">
-        <v>70997655000</v>
+        <v>61304058300</v>
       </c>
       <c r="G5">
         <v>2396630000</v>
@@ -628,13 +628,13 @@
         <v>7705700</v>
       </c>
       <c r="I5">
-        <v>153474983000</v>
+        <v>141282287900</v>
       </c>
       <c r="J5" t="str">
         <v>2023-01-27T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>750987932000</v>
+        <v>647601821600</v>
       </c>
       <c r="L5">
         <v>40952900</v>
@@ -643,13 +643,13 @@
         <v>-936900</v>
       </c>
       <c r="N5">
-        <v>-9083043000</v>
+        <v>-16277541300</v>
       </c>
       <c r="O5">
         <v>-1744600</v>
       </c>
       <c r="P5">
-        <v>-1591133000</v>
+        <v>-32984508200</v>
       </c>
     </row>
     <row r="6">
@@ -666,10 +666,10 @@
         <v>33800</v>
       </c>
       <c r="E6">
-        <v>77961465000</v>
+        <v>66381256800</v>
       </c>
       <c r="F6">
-        <v>61671739000</v>
+        <v>58784529100</v>
       </c>
       <c r="G6">
         <v>996797000</v>
@@ -678,13 +678,13 @@
         <v>7200800</v>
       </c>
       <c r="I6">
-        <v>140630001000</v>
+        <v>126162582900</v>
       </c>
       <c r="J6" t="str">
         <v>2023-01-27T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>891617933000</v>
+        <v>773764404500</v>
       </c>
       <c r="L6">
         <v>48153700</v>
@@ -693,13 +693,13 @@
         <v>-877600</v>
       </c>
       <c r="N6">
-        <v>-16289726000</v>
+        <v>-7596727700</v>
       </c>
       <c r="O6">
         <v>-2622200</v>
       </c>
       <c r="P6">
-        <v>-17880859000</v>
+        <v>-40581235900</v>
       </c>
     </row>
     <row r="7">
@@ -716,10 +716,10 @@
         <v>36400</v>
       </c>
       <c r="E7">
-        <v>65454097000</v>
+        <v>61411044100</v>
       </c>
       <c r="F7">
-        <v>49252462000</v>
+        <v>44399719600</v>
       </c>
       <c r="G7">
         <v>760506000</v>
@@ -728,13 +728,13 @@
         <v>6364500</v>
       </c>
       <c r="I7">
-        <v>115467065000</v>
+        <v>106571269700</v>
       </c>
       <c r="J7" t="str">
         <v>2023-01-27T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>1007084998000</v>
+        <v>880335674200</v>
       </c>
       <c r="L7">
         <v>54518200</v>
@@ -743,13 +743,13 @@
         <v>-1295300</v>
       </c>
       <c r="N7">
-        <v>-16201635000</v>
+        <v>-17011324500</v>
       </c>
       <c r="O7">
         <v>-3917500</v>
       </c>
       <c r="P7">
-        <v>-34082494000</v>
+        <v>-57592560400</v>
       </c>
     </row>
     <row r="8">
@@ -766,25 +766,25 @@
         <v>17700</v>
       </c>
       <c r="E8">
-        <v>47250727000</v>
+        <v>43196485300</v>
       </c>
       <c r="F8">
-        <v>75945924000</v>
+        <v>54925265700</v>
       </c>
       <c r="G8">
-        <v>549830000</v>
+        <v>290090000</v>
       </c>
       <c r="H8">
         <v>6421300</v>
       </c>
       <c r="I8">
-        <v>123746481000</v>
+        <v>98411841000</v>
       </c>
       <c r="J8" t="str">
         <v>2023-01-27T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>1130831479000</v>
+        <v>978747515200</v>
       </c>
       <c r="L8">
         <v>60939500</v>
@@ -793,13 +793,13 @@
         <v>1050400</v>
       </c>
       <c r="N8">
-        <v>28695197000</v>
+        <v>11728780400</v>
       </c>
       <c r="O8">
         <v>-2867100</v>
       </c>
       <c r="P8">
-        <v>-5387297000</v>
+        <v>-45863780000</v>
       </c>
     </row>
     <row r="9">
@@ -816,25 +816,25 @@
         <v>13100</v>
       </c>
       <c r="E9">
-        <v>38669868000</v>
+        <v>36920019600</v>
       </c>
       <c r="F9">
-        <v>61240988000</v>
+        <v>56835198200</v>
       </c>
       <c r="G9">
-        <v>533221000</v>
+        <v>525229000</v>
       </c>
       <c r="H9">
         <v>5269300</v>
       </c>
       <c r="I9">
-        <v>100444077000</v>
+        <v>94280446800</v>
       </c>
       <c r="J9" t="str">
         <v>2023-01-27T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>1231275556000</v>
+        <v>1073027962000</v>
       </c>
       <c r="L9">
         <v>66208800</v>
@@ -843,13 +843,13 @@
         <v>863200</v>
       </c>
       <c r="N9">
-        <v>22571120000</v>
+        <v>19915178600</v>
       </c>
       <c r="O9">
         <v>-2003900</v>
       </c>
       <c r="P9">
-        <v>17183823000</v>
+        <v>-25948601400</v>
       </c>
     </row>
     <row r="10">
@@ -866,10 +866,10 @@
         <v>6400</v>
       </c>
       <c r="E10">
-        <v>34522440000</v>
+        <v>31245919800</v>
       </c>
       <c r="F10">
-        <v>69285699000</v>
+        <v>64489400100</v>
       </c>
       <c r="G10">
         <v>43682000</v>
@@ -878,13 +878,13 @@
         <v>5761400</v>
       </c>
       <c r="I10">
-        <v>103851821000</v>
+        <v>95779001900</v>
       </c>
       <c r="J10" t="str">
         <v>2023-01-27T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>1335127377000</v>
+        <v>1168806963900</v>
       </c>
       <c r="L10">
         <v>71970200</v>
@@ -893,13 +893,13 @@
         <v>1828400</v>
       </c>
       <c r="N10">
-        <v>34763259000</v>
+        <v>33243480300</v>
       </c>
       <c r="O10">
         <v>-175500</v>
       </c>
       <c r="P10">
-        <v>51947082000</v>
+        <v>7294878900</v>
       </c>
     </row>
     <row r="11">
@@ -916,10 +916,10 @@
         <v>19700</v>
       </c>
       <c r="E11">
-        <v>37727456000</v>
+        <v>33314873000</v>
       </c>
       <c r="F11">
-        <v>45689730000</v>
+        <v>44638981800</v>
       </c>
       <c r="G11">
         <v>197659000</v>
@@ -928,13 +928,13 @@
         <v>4538200</v>
       </c>
       <c r="I11">
-        <v>83614845000</v>
+        <v>78151513800</v>
       </c>
       <c r="J11" t="str">
         <v>2023-01-27T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>1418742222000</v>
+        <v>1246958477700</v>
       </c>
       <c r="L11">
         <v>76508400</v>
@@ -943,13 +943,13 @@
         <v>-194700</v>
       </c>
       <c r="N11">
-        <v>7962274000</v>
+        <v>11324108800</v>
       </c>
       <c r="O11">
         <v>-370200</v>
       </c>
       <c r="P11">
-        <v>59909356000</v>
+        <v>18618987700</v>
       </c>
     </row>
     <row r="12">
@@ -966,10 +966,10 @@
         <v>3000</v>
       </c>
       <c r="E12">
-        <v>63920177000</v>
+        <v>58984917200</v>
       </c>
       <c r="F12">
-        <v>32356465000</v>
+        <v>28929595300</v>
       </c>
       <c r="G12">
         <v>55118000</v>
@@ -978,13 +978,13 @@
         <v>5008900</v>
       </c>
       <c r="I12">
-        <v>96331760000</v>
+        <v>87969630500</v>
       </c>
       <c r="J12" t="str">
         <v>2023-01-27T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>1515073982000</v>
+        <v>1334928108200</v>
       </c>
       <c r="L12">
         <v>81517300</v>
@@ -993,13 +993,13 @@
         <v>-1764500</v>
       </c>
       <c r="N12">
-        <v>-31563712000</v>
+        <v>-30055321900</v>
       </c>
       <c r="O12">
         <v>-2134700</v>
       </c>
       <c r="P12">
-        <v>28345644000</v>
+        <v>-11436334200</v>
       </c>
     </row>
     <row r="13">
@@ -1016,10 +1016,10 @@
         <v>12600</v>
       </c>
       <c r="E13">
-        <v>37127135000</v>
+        <v>29122847300</v>
       </c>
       <c r="F13">
-        <v>37409315000</v>
+        <v>33838189700</v>
       </c>
       <c r="G13">
         <v>274716000</v>
@@ -1028,13 +1028,13 @@
         <v>4192200</v>
       </c>
       <c r="I13">
-        <v>74811166000</v>
+        <v>63235753000</v>
       </c>
       <c r="J13" t="str">
         <v>2023-01-27T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>1589885148000</v>
+        <v>1398163861200</v>
       </c>
       <c r="L13">
         <v>85709500</v>
@@ -1043,13 +1043,13 @@
         <v>-276200</v>
       </c>
       <c r="N13">
-        <v>282180000</v>
+        <v>4715342400</v>
       </c>
       <c r="O13">
         <v>-2410900</v>
       </c>
       <c r="P13">
-        <v>28627824000</v>
+        <v>-6720991800</v>
       </c>
     </row>
     <row r="14">
@@ -1066,10 +1066,10 @@
         <v>4500</v>
       </c>
       <c r="E14">
-        <v>36712692000</v>
+        <v>32447961000</v>
       </c>
       <c r="F14">
-        <v>42102337000</v>
+        <v>39253788400</v>
       </c>
       <c r="G14">
         <v>135816000</v>
@@ -1078,13 +1078,13 @@
         <v>4218500</v>
       </c>
       <c r="I14">
-        <v>78950845000</v>
+        <v>71837565400</v>
       </c>
       <c r="J14" t="str">
         <v>2023-01-27T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>1668835993000</v>
+        <v>1470001426600</v>
       </c>
       <c r="L14">
         <v>89928000</v>
@@ -1093,13 +1093,13 @@
         <v>131400</v>
       </c>
       <c r="N14">
-        <v>5389645000</v>
+        <v>6805827400</v>
       </c>
       <c r="O14">
         <v>-2279500</v>
       </c>
       <c r="P14">
-        <v>34017469000</v>
+        <v>84835600</v>
       </c>
     </row>
     <row r="15">
@@ -1116,25 +1116,25 @@
         <v>18700</v>
       </c>
       <c r="E15">
-        <v>28563188000</v>
+        <v>27120332300</v>
       </c>
       <c r="F15">
-        <v>44294033000</v>
+        <v>38089943300</v>
       </c>
       <c r="G15">
-        <v>234348000</v>
+        <v>216765600</v>
       </c>
       <c r="H15">
         <v>3756700</v>
       </c>
       <c r="I15">
-        <v>73091569000</v>
+        <v>65427041200</v>
       </c>
       <c r="J15" t="str">
         <v>2023-01-27T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>1741927562000</v>
+        <v>1535428467800</v>
       </c>
       <c r="L15">
         <v>93684700</v>
@@ -1143,13 +1143,13 @@
         <v>362800</v>
       </c>
       <c r="N15">
-        <v>15730845000</v>
+        <v>10969611000</v>
       </c>
       <c r="O15">
         <v>-1916700</v>
       </c>
       <c r="P15">
-        <v>49748314000</v>
+        <v>11054446600</v>
       </c>
     </row>
     <row r="16">
@@ -1166,10 +1166,10 @@
         <v>38900</v>
       </c>
       <c r="E16">
-        <v>37215581000</v>
+        <v>34020579200</v>
       </c>
       <c r="F16">
-        <v>34558577000</v>
+        <v>30577961600</v>
       </c>
       <c r="G16">
         <v>726045000</v>
@@ -1178,13 +1178,13 @@
         <v>3951300</v>
       </c>
       <c r="I16">
-        <v>72500203000</v>
+        <v>65324585800</v>
       </c>
       <c r="J16" t="str">
         <v>2023-01-27T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>1814427765000</v>
+        <v>1600753053600</v>
       </c>
       <c r="L16">
         <v>97636000</v>
@@ -1193,13 +1193,13 @@
         <v>-247000</v>
       </c>
       <c r="N16">
-        <v>-2657004000</v>
+        <v>-3442617600</v>
       </c>
       <c r="O16">
         <v>-2163700</v>
       </c>
       <c r="P16">
-        <v>47091310000</v>
+        <v>7611829000</v>
       </c>
     </row>
     <row r="17">
@@ -1216,10 +1216,10 @@
         <v>18400</v>
       </c>
       <c r="E17">
-        <v>33870532000</v>
+        <v>30339666400</v>
       </c>
       <c r="F17">
-        <v>34090909000</v>
+        <v>29781123100</v>
       </c>
       <c r="G17">
         <v>191228000</v>
@@ -1228,13 +1228,13 @@
         <v>3598300</v>
       </c>
       <c r="I17">
-        <v>68152669000</v>
+        <v>60312017500</v>
       </c>
       <c r="J17" t="str">
         <v>2023-01-27T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>1882580434000</v>
+        <v>1661065071100</v>
       </c>
       <c r="L17">
         <v>101234300</v>
@@ -1243,13 +1243,13 @@
         <v>-43100</v>
       </c>
       <c r="N17">
-        <v>220377000</v>
+        <v>-558543300</v>
       </c>
       <c r="O17">
         <v>-2206800</v>
       </c>
       <c r="P17">
-        <v>47311687000</v>
+        <v>7053285700</v>
       </c>
     </row>
     <row r="18">
@@ -1266,25 +1266,25 @@
         <v>3000</v>
       </c>
       <c r="E18">
-        <v>24423966000</v>
+        <v>23095395900</v>
       </c>
       <c r="F18">
-        <v>33876746000</v>
+        <v>32364260000</v>
       </c>
       <c r="G18">
-        <v>55251000</v>
+        <v>39267000</v>
       </c>
       <c r="H18">
         <v>3241000</v>
       </c>
       <c r="I18">
-        <v>58355963000</v>
+        <v>55498922900</v>
       </c>
       <c r="J18" t="str">
         <v>2023-01-27T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>1940936397000</v>
+        <v>1716563994000</v>
       </c>
       <c r="L18">
         <v>104475300</v>
@@ -1293,13 +1293,13 @@
         <v>34000</v>
       </c>
       <c r="N18">
-        <v>9452780000</v>
+        <v>9268864100</v>
       </c>
       <c r="O18">
         <v>-2172800</v>
       </c>
       <c r="P18">
-        <v>56764467000</v>
+        <v>16322149800</v>
       </c>
     </row>
     <row r="19">
@@ -1316,10 +1316,10 @@
         <v>8100</v>
       </c>
       <c r="E19">
-        <v>30405922000</v>
+        <v>27598232500</v>
       </c>
       <c r="F19">
-        <v>37465305000</v>
+        <v>31160815800</v>
       </c>
       <c r="G19">
         <v>117008000</v>
@@ -1328,13 +1328,13 @@
         <v>3640500</v>
       </c>
       <c r="I19">
-        <v>67988235000</v>
+        <v>58876056300</v>
       </c>
       <c r="J19" t="str">
         <v>2023-01-27T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>2008924632000</v>
+        <v>1775440050300</v>
       </c>
       <c r="L19">
         <v>108115800</v>
@@ -1343,13 +1343,13 @@
         <v>-227800</v>
       </c>
       <c r="N19">
-        <v>7059383000</v>
+        <v>3562583300</v>
       </c>
       <c r="O19">
         <v>-2400600</v>
       </c>
       <c r="P19">
-        <v>63823850000</v>
+        <v>19884733100</v>
       </c>
     </row>
     <row r="20">
@@ -1366,10 +1366,10 @@
         <v>5100</v>
       </c>
       <c r="E20">
-        <v>22304335000</v>
+        <v>21858581200</v>
       </c>
       <c r="F20">
-        <v>35019415000</v>
+        <v>32958478000</v>
       </c>
       <c r="G20">
         <v>176349000</v>
@@ -1378,13 +1378,13 @@
         <v>3007800</v>
       </c>
       <c r="I20">
-        <v>57500099000</v>
+        <v>54993408200</v>
       </c>
       <c r="J20" t="str">
         <v>2023-01-27T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>2066424731000</v>
+        <v>1830433458500</v>
       </c>
       <c r="L20">
         <v>111123600</v>
@@ -1393,13 +1393,13 @@
         <v>225700</v>
       </c>
       <c r="N20">
-        <v>12715080000</v>
+        <v>11099896800</v>
       </c>
       <c r="O20">
         <v>-2174900</v>
       </c>
       <c r="P20">
-        <v>76538930000</v>
+        <v>30984629900</v>
       </c>
     </row>
     <row r="21">
@@ -1416,10 +1416,10 @@
         <v>16400</v>
       </c>
       <c r="E21">
-        <v>16768418000</v>
+        <v>16545940700</v>
       </c>
       <c r="F21">
-        <v>39772697000</v>
+        <v>37240431800</v>
       </c>
       <c r="G21">
         <v>462582000</v>
@@ -1428,13 +1428,13 @@
         <v>2763400</v>
       </c>
       <c r="I21">
-        <v>57003697000</v>
+        <v>54248954500</v>
       </c>
       <c r="J21" t="str">
         <v>2023-01-27T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>2123428428000</v>
+        <v>1884682413000</v>
       </c>
       <c r="L21">
         <v>113887000</v>
@@ -1443,13 +1443,13 @@
         <v>788600</v>
       </c>
       <c r="N21">
-        <v>23004279000</v>
+        <v>20694491100</v>
       </c>
       <c r="O21">
         <v>-1386300</v>
       </c>
       <c r="P21">
-        <v>99543209000</v>
+        <v>51679121000</v>
       </c>
     </row>
     <row r="22">
@@ -1466,25 +1466,25 @@
         <v>19500</v>
       </c>
       <c r="E22">
-        <v>20707744000</v>
+        <v>20385366700</v>
       </c>
       <c r="F22">
-        <v>39487789000</v>
+        <v>33409773100</v>
       </c>
       <c r="G22">
-        <v>875985000</v>
+        <v>386874600</v>
       </c>
       <c r="H22">
         <v>2995800</v>
       </c>
       <c r="I22">
-        <v>61071518000</v>
+        <v>54182014400</v>
       </c>
       <c r="J22" t="str">
         <v>2023-01-27T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>2184499946000</v>
+        <v>1938864427400</v>
       </c>
       <c r="L22">
         <v>116882800</v>
@@ -1493,13 +1493,13 @@
         <v>708300</v>
       </c>
       <c r="N22">
-        <v>18780045000</v>
+        <v>13024406400</v>
       </c>
       <c r="O22">
         <v>-678000</v>
       </c>
       <c r="P22">
-        <v>118323254000</v>
+        <v>64703527400</v>
       </c>
     </row>
     <row r="23">
@@ -1516,10 +1516,10 @@
         <v>8000</v>
       </c>
       <c r="E23">
-        <v>33157176000</v>
+        <v>32500133700</v>
       </c>
       <c r="F23">
-        <v>36779404000</v>
+        <v>33402084700</v>
       </c>
       <c r="G23">
         <v>241311000</v>
@@ -1528,13 +1528,13 @@
         <v>3630000</v>
       </c>
       <c r="I23">
-        <v>70177891000</v>
+        <v>66143529400</v>
       </c>
       <c r="J23" t="str">
         <v>2023-01-27T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>2254677837000</v>
+        <v>2005007956800</v>
       </c>
       <c r="L23">
         <v>120512800</v>
@@ -1543,13 +1543,13 @@
         <v>-95800</v>
       </c>
       <c r="N23">
-        <v>3622228000</v>
+        <v>901951000</v>
       </c>
       <c r="O23">
         <v>-773800</v>
       </c>
       <c r="P23">
-        <v>121945482000</v>
+        <v>65605478400</v>
       </c>
     </row>
     <row r="24">
@@ -1566,10 +1566,10 @@
         <v>20900</v>
       </c>
       <c r="E24">
-        <v>29779647000</v>
+        <v>28778649000</v>
       </c>
       <c r="F24">
-        <v>30350583000</v>
+        <v>28956778200</v>
       </c>
       <c r="G24">
         <v>282786000</v>
@@ -1578,13 +1578,13 @@
         <v>3218500</v>
       </c>
       <c r="I24">
-        <v>60413016000</v>
+        <v>58018213200</v>
       </c>
       <c r="J24" t="str">
         <v>2023-01-27T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>2315090853000</v>
+        <v>2063026170000</v>
       </c>
       <c r="L24">
         <v>123731300</v>
@@ -1593,13 +1593,13 @@
         <v>-82600</v>
       </c>
       <c r="N24">
-        <v>570936000</v>
+        <v>178129200</v>
       </c>
       <c r="O24">
         <v>-856400</v>
       </c>
       <c r="P24">
-        <v>122516418000</v>
+        <v>65783607600</v>
       </c>
     </row>
     <row r="25">
@@ -1616,25 +1616,25 @@
         <v>38600</v>
       </c>
       <c r="E25">
-        <v>37173060000</v>
+        <v>35909624700</v>
       </c>
       <c r="F25">
-        <v>31027209000</v>
+        <v>28913724600</v>
       </c>
       <c r="G25">
-        <v>573029000</v>
+        <v>433169000</v>
       </c>
       <c r="H25">
         <v>3796200</v>
       </c>
       <c r="I25">
-        <v>68773298000</v>
+        <v>65256518300</v>
       </c>
       <c r="J25" t="str">
         <v>2023-01-27T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>2383864151000</v>
+        <v>2128282688300</v>
       </c>
       <c r="L25">
         <v>127527500</v>
@@ -1643,13 +1643,13 @@
         <v>-779200</v>
       </c>
       <c r="N25">
-        <v>-6145851000</v>
+        <v>-6995900100</v>
       </c>
       <c r="O25">
         <v>-1635600</v>
       </c>
       <c r="P25">
-        <v>116370567000</v>
+        <v>58787707500</v>
       </c>
     </row>
     <row r="26">
@@ -1666,10 +1666,10 @@
         <v>2800</v>
       </c>
       <c r="E26">
-        <v>44798330000</v>
+        <v>40943588600</v>
       </c>
       <c r="F26">
-        <v>31984020000</v>
+        <v>26893515600</v>
       </c>
       <c r="G26">
         <v>37238000</v>
@@ -1678,13 +1678,13 @@
         <v>4065500</v>
       </c>
       <c r="I26">
-        <v>76819588000</v>
+        <v>67874342200</v>
       </c>
       <c r="J26" t="str">
         <v>2023-01-27T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>2460683739000</v>
+        <v>2196157030500</v>
       </c>
       <c r="L26">
         <v>131593000</v>
@@ -1693,13 +1693,13 @@
         <v>-833900</v>
       </c>
       <c r="N26">
-        <v>-12814310000</v>
+        <v>-14050073000</v>
       </c>
       <c r="O26">
         <v>-2469500</v>
       </c>
       <c r="P26">
-        <v>103556257000</v>
+        <v>44737634500</v>
       </c>
     </row>
     <row r="27">
@@ -1716,10 +1716,10 @@
         <v>9500</v>
       </c>
       <c r="E27">
-        <v>63794840000</v>
+        <v>61216520900</v>
       </c>
       <c r="F27">
-        <v>27199961000</v>
+        <v>23344320500</v>
       </c>
       <c r="G27">
         <v>141111000</v>
@@ -1728,13 +1728,13 @@
         <v>4986500</v>
       </c>
       <c r="I27">
-        <v>91135912000</v>
+        <v>84701952400</v>
       </c>
       <c r="J27" t="str">
         <v>2023-01-27T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>2551819651000</v>
+        <v>2280858982900</v>
       </c>
       <c r="L27">
         <v>136579500</v>
@@ -1743,13 +1743,13 @@
         <v>-2202600</v>
       </c>
       <c r="N27">
-        <v>-36594879000</v>
+        <v>-37872200400</v>
       </c>
       <c r="O27">
         <v>-4672100</v>
       </c>
       <c r="P27">
-        <v>66961378000</v>
+        <v>6865434100</v>
       </c>
     </row>
     <row r="28">
@@ -1766,10 +1766,10 @@
         <v>25600</v>
       </c>
       <c r="E28">
-        <v>72873880000</v>
+        <v>66732727300</v>
       </c>
       <c r="F28">
-        <v>28098529000</v>
+        <v>27079848700</v>
       </c>
       <c r="G28">
         <v>338118000</v>
@@ -1778,13 +1778,13 @@
         <v>5763900</v>
       </c>
       <c r="I28">
-        <v>101310527000</v>
+        <v>94150694000</v>
       </c>
       <c r="J28" t="str">
         <v>2023-01-27T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>2653130178000</v>
+        <v>2375009676900</v>
       </c>
       <c r="L28">
         <v>142343400</v>
@@ -1793,13 +1793,13 @@
         <v>-2690500</v>
       </c>
       <c r="N28">
-        <v>-44775351000</v>
+        <v>-39652878600</v>
       </c>
       <c r="O28">
         <v>-7362600</v>
       </c>
       <c r="P28">
-        <v>22186027000</v>
+        <v>-32787444500</v>
       </c>
     </row>
     <row r="29">
@@ -1816,25 +1816,25 @@
         <v>24800</v>
       </c>
       <c r="E29">
-        <v>64873752000</v>
+        <v>58582050000</v>
       </c>
       <c r="F29">
-        <v>26524360000</v>
+        <v>23626660600</v>
       </c>
       <c r="G29">
-        <v>902803000</v>
+        <v>181225300</v>
       </c>
       <c r="H29">
         <v>5183600</v>
       </c>
       <c r="I29">
-        <v>92300915000</v>
+        <v>82389935900</v>
       </c>
       <c r="J29" t="str">
         <v>2023-01-27T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>2745431093000</v>
+        <v>2457399612800</v>
       </c>
       <c r="L29">
         <v>147527000</v>
@@ -1843,13 +1843,13 @@
         <v>-2133200</v>
       </c>
       <c r="N29">
-        <v>-38349392000</v>
+        <v>-34955389400</v>
       </c>
       <c r="O29">
         <v>-9495800</v>
       </c>
       <c r="P29">
-        <v>-16163365000</v>
+        <v>-67742833900</v>
       </c>
     </row>
     <row r="30">
@@ -1866,25 +1866,25 @@
         <v>11800</v>
       </c>
       <c r="E30">
-        <v>44598802000</v>
+        <v>36441867100</v>
       </c>
       <c r="F30">
-        <v>33733896000</v>
+        <v>30291841500</v>
       </c>
       <c r="G30">
-        <v>213273000</v>
+        <v>199287000</v>
       </c>
       <c r="H30">
         <v>3917800</v>
       </c>
       <c r="I30">
-        <v>78545971000</v>
+        <v>66932995600</v>
       </c>
       <c r="J30" t="str">
         <v>2023-01-27T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>2823977064000</v>
+        <v>2524332608400</v>
       </c>
       <c r="L30">
         <v>151444800</v>
@@ -1893,13 +1893,13 @@
         <v>-868600</v>
       </c>
       <c r="N30">
-        <v>-10864906000</v>
+        <v>-6150025600</v>
       </c>
       <c r="O30">
         <v>-10364400</v>
       </c>
       <c r="P30">
-        <v>-27028271000</v>
+        <v>-73892859500</v>
       </c>
     </row>
     <row r="31">
@@ -1916,25 +1916,25 @@
         <v>43300</v>
       </c>
       <c r="E31">
-        <v>53802677000</v>
+        <v>38000295200</v>
       </c>
       <c r="F31">
-        <v>38162553000</v>
+        <v>31701420600</v>
       </c>
       <c r="G31">
-        <v>1040050000</v>
+        <v>863926300</v>
       </c>
       <c r="H31">
         <v>4712300</v>
       </c>
       <c r="I31">
-        <v>93005280000</v>
+        <v>70565642100</v>
       </c>
       <c r="J31" t="str">
         <v>2023-01-27T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>2916982344000</v>
+        <v>2594898250500</v>
       </c>
       <c r="L31">
         <v>156157100</v>
@@ -1943,13 +1943,13 @@
         <v>-1406800</v>
       </c>
       <c r="N31">
-        <v>-15640124000</v>
+        <v>-6298874600</v>
       </c>
       <c r="O31">
         <v>-11771200</v>
       </c>
       <c r="P31">
-        <v>-42668395000</v>
+        <v>-80191734100</v>
       </c>
     </row>
     <row r="32">
@@ -1966,10 +1966,10 @@
         <v>2000</v>
       </c>
       <c r="E32">
-        <v>27111589000</v>
+        <v>24819483400</v>
       </c>
       <c r="F32">
-        <v>20528233000</v>
+        <v>17745218800</v>
       </c>
       <c r="G32">
         <v>29128000</v>
@@ -1978,13 +1978,13 @@
         <v>2567800</v>
       </c>
       <c r="I32">
-        <v>47668950000</v>
+        <v>42593830200</v>
       </c>
       <c r="J32" t="str">
         <v>2023-01-27T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>2964651294000</v>
+        <v>2637492080700</v>
       </c>
       <c r="L32">
         <v>158724900</v>
@@ -1993,13 +1993,13 @@
         <v>-528600</v>
       </c>
       <c r="N32">
-        <v>-6583356000</v>
+        <v>-7074264600</v>
       </c>
       <c r="O32">
         <v>-12299800</v>
       </c>
       <c r="P32">
-        <v>-49251751000</v>
+        <v>-87265998700</v>
       </c>
     </row>
     <row r="33">
@@ -2016,10 +2016,10 @@
         <v>34900</v>
       </c>
       <c r="E33">
-        <v>25745148000</v>
+        <v>24276717900</v>
       </c>
       <c r="F33">
-        <v>24486358000</v>
+        <v>22491854500</v>
       </c>
       <c r="G33">
         <v>559690000</v>
@@ -2028,13 +2028,13 @@
         <v>2654900</v>
       </c>
       <c r="I33">
-        <v>50791196000</v>
+        <v>47328262400</v>
       </c>
       <c r="J33" t="str">
         <v>2023-01-27T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>3015442490000</v>
+        <v>2684820343100</v>
       </c>
       <c r="L33">
         <v>161379800</v>
@@ -2043,13 +2043,13 @@
         <v>-296000</v>
       </c>
       <c r="N33">
-        <v>-1258790000</v>
+        <v>-1784863400</v>
       </c>
       <c r="O33">
         <v>-12595800</v>
       </c>
       <c r="P33">
-        <v>-50510541000</v>
+        <v>-89050862100</v>
       </c>
     </row>
     <row r="34">
@@ -2066,25 +2066,25 @@
         <v>16600</v>
       </c>
       <c r="E34">
-        <v>25700821000</v>
+        <v>22855768900</v>
       </c>
       <c r="F34">
-        <v>40794238000</v>
+        <v>31998642400</v>
       </c>
       <c r="G34">
-        <v>400642000</v>
+        <v>399243400</v>
       </c>
       <c r="H34">
         <v>3147100</v>
       </c>
       <c r="I34">
-        <v>66895701000</v>
+        <v>55253654700</v>
       </c>
       <c r="J34" t="str">
         <v>2023-01-27T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>3082338191000</v>
+        <v>2740073997800</v>
       </c>
       <c r="L34">
         <v>164526900</v>
@@ -2093,13 +2093,13 @@
         <v>662100</v>
       </c>
       <c r="N34">
-        <v>15093417000</v>
+        <v>9142873500</v>
       </c>
       <c r="O34">
         <v>-11933700</v>
       </c>
       <c r="P34">
-        <v>-35417124000</v>
+        <v>-79907988600</v>
       </c>
     </row>
     <row r="35">
@@ -2116,25 +2116,25 @@
         <v>3200</v>
       </c>
       <c r="E35">
-        <v>16478666000</v>
+        <v>14703742700</v>
       </c>
       <c r="F35">
-        <v>44042990000</v>
+        <v>37527512000</v>
       </c>
       <c r="G35">
-        <v>120635000</v>
+        <v>83672000</v>
       </c>
       <c r="H35">
         <v>3128300</v>
       </c>
       <c r="I35">
-        <v>60642291000</v>
+        <v>52314926700</v>
       </c>
       <c r="J35" t="str">
         <v>2023-01-27T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>3142980482000</v>
+        <v>2792388924500</v>
       </c>
       <c r="L35">
         <v>167655200</v>
@@ -2143,13 +2143,13 @@
         <v>1252100</v>
       </c>
       <c r="N35">
-        <v>27564324000</v>
+        <v>22823769300</v>
       </c>
       <c r="O35">
         <v>-10681600</v>
       </c>
       <c r="P35">
-        <v>-7852800000</v>
+        <v>-57084219300</v>
       </c>
     </row>
     <row r="36">
@@ -2166,10 +2166,10 @@
         <v>6900</v>
       </c>
       <c r="E36">
-        <v>15373046000</v>
+        <v>13042678700</v>
       </c>
       <c r="F36">
-        <v>42277510000</v>
+        <v>39308382100</v>
       </c>
       <c r="G36">
         <v>322894000</v>
@@ -2178,13 +2178,13 @@
         <v>3008600</v>
       </c>
       <c r="I36">
-        <v>57973450000</v>
+        <v>52673954800</v>
       </c>
       <c r="J36" t="str">
         <v>2023-01-27T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>3200953932000</v>
+        <v>2845062879300</v>
       </c>
       <c r="L36">
         <v>170663800</v>
@@ -2193,13 +2193,13 @@
         <v>1193900</v>
       </c>
       <c r="N36">
-        <v>26904464000</v>
+        <v>26265703400</v>
       </c>
       <c r="O36">
         <v>-9487700</v>
       </c>
       <c r="P36">
-        <v>19051664000</v>
+        <v>-30818515900</v>
       </c>
     </row>
     <row r="37">
@@ -2216,10 +2216,10 @@
         <v>116600</v>
       </c>
       <c r="E37">
-        <v>17854278000</v>
+        <v>15448186500</v>
       </c>
       <c r="F37">
-        <v>36183432000</v>
+        <v>32679539400</v>
       </c>
       <c r="G37">
         <v>1949266000</v>
@@ -2228,13 +2228,13 @@
         <v>3179600</v>
       </c>
       <c r="I37">
-        <v>55986976000</v>
+        <v>50076991900</v>
       </c>
       <c r="J37" t="str">
         <v>2023-01-27T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>3256940908000</v>
+        <v>2895139871200</v>
       </c>
       <c r="L37">
         <v>173843400</v>
@@ -2243,13 +2243,13 @@
         <v>1046200</v>
       </c>
       <c r="N37">
-        <v>18329154000</v>
+        <v>17231352900</v>
       </c>
       <c r="O37">
         <v>-8441500</v>
       </c>
       <c r="P37">
-        <v>37380818000</v>
+        <v>-13587163000</v>
       </c>
     </row>
     <row r="38">
@@ -2266,10 +2266,10 @@
         <v>66700</v>
       </c>
       <c r="E38">
-        <v>17385222000</v>
+        <v>14333576700</v>
       </c>
       <c r="F38">
-        <v>25730932000</v>
+        <v>24869993800</v>
       </c>
       <c r="G38">
         <v>1248099000</v>
@@ -2278,13 +2278,13 @@
         <v>2512600</v>
       </c>
       <c r="I38">
-        <v>44364253000</v>
+        <v>40451669500</v>
       </c>
       <c r="J38" t="str">
         <v>2023-01-27T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>3301305161000</v>
+        <v>2935591540700</v>
       </c>
       <c r="L38">
         <v>176356000</v>
@@ -2293,13 +2293,13 @@
         <v>589900</v>
       </c>
       <c r="N38">
-        <v>8345710000</v>
+        <v>10536417100</v>
       </c>
       <c r="O38">
         <v>-7851600</v>
       </c>
       <c r="P38">
-        <v>45726528000</v>
+        <v>-3050745900</v>
       </c>
     </row>
     <row r="39">
@@ -2316,10 +2316,10 @@
         <v>1400</v>
       </c>
       <c r="E39">
-        <v>20767147000</v>
+        <v>19612203100</v>
       </c>
       <c r="F39">
-        <v>55873574000</v>
+        <v>46503553400</v>
       </c>
       <c r="G39">
         <v>22959999.999999996</v>
@@ -2328,13 +2328,13 @@
         <v>4491700</v>
       </c>
       <c r="I39">
-        <v>76663681000</v>
+        <v>66138716500</v>
       </c>
       <c r="J39" t="str">
         <v>2023-01-27T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>3377968842000</v>
+        <v>3001730257200</v>
       </c>
       <c r="L39">
         <v>180847700</v>
@@ -2343,13 +2343,13 @@
         <v>1999500</v>
       </c>
       <c r="N39">
-        <v>35106427000</v>
+        <v>26891350300</v>
       </c>
       <c r="O39">
         <v>-5852100</v>
       </c>
       <c r="P39">
-        <v>80832955000</v>
+        <v>23840604400</v>
       </c>
     </row>
     <row r="40">
@@ -2366,10 +2366,10 @@
         <v>4900</v>
       </c>
       <c r="E40">
-        <v>18413499000</v>
+        <v>16459854600</v>
       </c>
       <c r="F40">
-        <v>24570631000</v>
+        <v>22102401700</v>
       </c>
       <c r="G40">
         <v>79840000</v>
@@ -2378,13 +2378,13 @@
         <v>2428800</v>
       </c>
       <c r="I40">
-        <v>43063970000</v>
+        <v>38642096300</v>
       </c>
       <c r="J40" t="str">
         <v>2023-01-27T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>3421032812000</v>
+        <v>3040372353500</v>
       </c>
       <c r="L40">
         <v>183276500</v>
@@ -2393,13 +2393,13 @@
         <v>438500</v>
       </c>
       <c r="N40">
-        <v>6157132000</v>
+        <v>5642547100</v>
       </c>
       <c r="O40">
         <v>-5413600</v>
       </c>
       <c r="P40">
-        <v>86990087000</v>
+        <v>29483151500</v>
       </c>
     </row>
     <row r="41">
@@ -2416,10 +2416,10 @@
         <v>700</v>
       </c>
       <c r="E41">
-        <v>23000852000</v>
+        <v>22969183700</v>
       </c>
       <c r="F41">
-        <v>28840579000</v>
+        <v>21634192600</v>
       </c>
       <c r="G41">
         <v>8540000</v>
@@ -2428,13 +2428,13 @@
         <v>2751500</v>
       </c>
       <c r="I41">
-        <v>51849971000</v>
+        <v>44611916300</v>
       </c>
       <c r="J41" t="str">
         <v>2023-01-27T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>3472882783000</v>
+        <v>3084984269800</v>
       </c>
       <c r="L41">
         <v>186028000</v>
@@ -2443,13 +2443,13 @@
         <v>180800</v>
       </c>
       <c r="N41">
-        <v>5839727000</v>
+        <v>-1334991100</v>
       </c>
       <c r="O41">
         <v>-5232800</v>
       </c>
       <c r="P41">
-        <v>92829814000</v>
+        <v>28148160400</v>
       </c>
     </row>
     <row r="42">
@@ -2466,10 +2466,10 @@
         <v>12600</v>
       </c>
       <c r="E42">
-        <v>27182330000</v>
+        <v>24873241400</v>
       </c>
       <c r="F42">
-        <v>26425705000</v>
+        <v>24240392500</v>
       </c>
       <c r="G42">
         <v>263753000</v>
@@ -2478,13 +2478,13 @@
         <v>2529300</v>
       </c>
       <c r="I42">
-        <v>53871788000</v>
+        <v>49377386900</v>
       </c>
       <c r="J42" t="str">
         <v>2023-01-27T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>3526754571000</v>
+        <v>3134361656700</v>
       </c>
       <c r="L42">
         <v>188557300</v>
@@ -2493,13 +2493,13 @@
         <v>-86900</v>
       </c>
       <c r="N42">
-        <v>-756625000</v>
+        <v>-632848900</v>
       </c>
       <c r="O42">
         <v>-5319700</v>
       </c>
       <c r="P42">
-        <v>92073189000</v>
+        <v>27515311500</v>
       </c>
     </row>
     <row r="43">
@@ -2516,10 +2516,10 @@
         <v>19400</v>
       </c>
       <c r="E43">
-        <v>25130812000</v>
+        <v>23219924800</v>
       </c>
       <c r="F43">
-        <v>16985934000</v>
+        <v>15814007100</v>
       </c>
       <c r="G43">
         <v>370270000</v>
@@ -2528,13 +2528,13 @@
         <v>2264000</v>
       </c>
       <c r="I43">
-        <v>42487016000</v>
+        <v>39404201900</v>
       </c>
       <c r="J43" t="str">
         <v>2023-01-27T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>3569241587000</v>
+        <v>3173765858600</v>
       </c>
       <c r="L43">
         <v>190821300</v>
@@ -2543,13 +2543,13 @@
         <v>-519200</v>
       </c>
       <c r="N43">
-        <v>-8144878000</v>
+        <v>-7405917700</v>
       </c>
       <c r="O43">
         <v>-5838900</v>
       </c>
       <c r="P43">
-        <v>83928311000</v>
+        <v>20109393800</v>
       </c>
     </row>
     <row r="44">
@@ -2566,10 +2566,10 @@
         <v>24100</v>
       </c>
       <c r="E44">
-        <v>18526906000</v>
+        <v>17400133900</v>
       </c>
       <c r="F44">
-        <v>29027255000</v>
+        <v>26756428100</v>
       </c>
       <c r="G44">
         <v>449253000</v>
@@ -2578,13 +2578,13 @@
         <v>2501500</v>
       </c>
       <c r="I44">
-        <v>48003414000</v>
+        <v>44605815000</v>
       </c>
       <c r="J44" t="str">
         <v>2023-01-27T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>3617245001000</v>
+        <v>3218371673600</v>
       </c>
       <c r="L44">
         <v>193322800</v>
@@ -2593,13 +2593,13 @@
         <v>141000</v>
       </c>
       <c r="N44">
-        <v>10500349000</v>
+        <v>9356294200</v>
       </c>
       <c r="O44">
         <v>-5697900</v>
       </c>
       <c r="P44">
-        <v>94428660000</v>
+        <v>29465688000</v>
       </c>
     </row>
     <row r="45">
@@ -2616,25 +2616,25 @@
         <v>206100</v>
       </c>
       <c r="E45">
-        <v>16879954000</v>
+        <v>15089945800</v>
       </c>
       <c r="F45">
-        <v>44895634000</v>
+        <v>40469264800</v>
       </c>
       <c r="G45">
-        <v>3341525000</v>
+        <v>3320546000</v>
       </c>
       <c r="H45">
         <v>2952800</v>
       </c>
       <c r="I45">
-        <v>65117113000</v>
+        <v>58879756600</v>
       </c>
       <c r="J45" t="str">
         <v>2023-01-27T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>3682362114000</v>
+        <v>3277251430200</v>
       </c>
       <c r="L45">
         <v>196275600</v>
@@ -2643,13 +2643,13 @@
         <v>1013500</v>
       </c>
       <c r="N45">
-        <v>28015680000</v>
+        <v>25379319000</v>
       </c>
       <c r="O45">
         <v>-4684400</v>
       </c>
       <c r="P45">
-        <v>122444340000</v>
+        <v>54845007000</v>
       </c>
     </row>
     <row r="46">
@@ -2666,25 +2666,25 @@
         <v>6800</v>
       </c>
       <c r="E46">
-        <v>18872456000</v>
+        <v>14884847600</v>
       </c>
       <c r="F46">
-        <v>60694349000</v>
+        <v>57389457200</v>
       </c>
       <c r="G46">
-        <v>200009000</v>
+        <v>43765400</v>
       </c>
       <c r="H46">
         <v>4293300</v>
       </c>
       <c r="I46">
-        <v>79766814000</v>
+        <v>72318070200</v>
       </c>
       <c r="J46" t="str">
         <v>2023-01-27T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>3762128928000</v>
+        <v>3349569500400</v>
       </c>
       <c r="L46">
         <v>200568900</v>
@@ -2693,13 +2693,13 @@
         <v>2190100</v>
       </c>
       <c r="N46">
-        <v>41821893000</v>
+        <v>42504609600</v>
       </c>
       <c r="O46">
         <v>-2494300</v>
       </c>
       <c r="P46">
-        <v>164266233000</v>
+        <v>97349616600</v>
       </c>
     </row>
     <row r="47">
@@ -2716,10 +2716,10 @@
         <v>11200</v>
       </c>
       <c r="E47">
-        <v>20063285000</v>
+        <v>18692357300</v>
       </c>
       <c r="F47">
-        <v>84905933000</v>
+        <v>80460682700</v>
       </c>
       <c r="G47">
         <v>127006000</v>
@@ -2728,13 +2728,13 @@
         <v>6078100</v>
       </c>
       <c r="I47">
-        <v>105096224000</v>
+        <v>99280046000</v>
       </c>
       <c r="J47" t="str">
         <v>2023-01-27T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>3867225152000</v>
+        <v>3448849546400</v>
       </c>
       <c r="L47">
         <v>206647000</v>
@@ -2743,13 +2743,13 @@
         <v>3581900</v>
       </c>
       <c r="N47">
-        <v>64842648000</v>
+        <v>61768325400</v>
       </c>
       <c r="O47">
         <v>1087600</v>
       </c>
       <c r="P47">
-        <v>229108881000</v>
+        <v>159117942000</v>
       </c>
     </row>
     <row r="48">
@@ -2766,10 +2766,10 @@
         <v>81900</v>
       </c>
       <c r="E48">
-        <v>22617354000</v>
+        <v>21904267800</v>
       </c>
       <c r="F48">
-        <v>103499456000</v>
+        <v>88188282500</v>
       </c>
       <c r="G48">
         <v>1229523000</v>
@@ -2778,13 +2778,13 @@
         <v>7722100</v>
       </c>
       <c r="I48">
-        <v>127346333000</v>
+        <v>111322073300</v>
       </c>
       <c r="J48" t="str">
         <v>2023-01-27T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>3994571485000</v>
+        <v>3560171619700</v>
       </c>
       <c r="L48">
         <v>214369100</v>
@@ -2793,13 +2793,13 @@
         <v>4499400</v>
       </c>
       <c r="N48">
-        <v>80882102000</v>
+        <v>66284014700</v>
       </c>
       <c r="O48">
         <v>5587000</v>
       </c>
       <c r="P48">
-        <v>309990983000</v>
+        <v>225401956700</v>
       </c>
     </row>
     <row r="49">
@@ -2816,10 +2816,10 @@
         <v>61100</v>
       </c>
       <c r="E49">
-        <v>28814255000</v>
+        <v>25967105000</v>
       </c>
       <c r="F49">
-        <v>58493183000</v>
+        <v>56493784400</v>
       </c>
       <c r="G49">
         <v>1162484000</v>
@@ -2828,13 +2828,13 @@
         <v>5199700</v>
       </c>
       <c r="I49">
-        <v>88469922000</v>
+        <v>83623373400</v>
       </c>
       <c r="J49" t="str">
         <v>2023-01-27T10:48:00.000Z</v>
       </c>
       <c r="K49">
-        <v>4083041407000</v>
+        <v>3643794993100</v>
       </c>
       <c r="L49">
         <v>219568800</v>
@@ -2843,13 +2843,13 @@
         <v>2036200</v>
       </c>
       <c r="N49">
-        <v>29678928000</v>
+        <v>30526679400</v>
       </c>
       <c r="O49">
         <v>7623200</v>
       </c>
       <c r="P49">
-        <v>339669911000</v>
+        <v>255928636100</v>
       </c>
     </row>
     <row r="50">
@@ -2866,10 +2866,10 @@
         <v>3100</v>
       </c>
       <c r="E50">
-        <v>21962846000</v>
+        <v>20955654200</v>
       </c>
       <c r="F50">
-        <v>34718973000</v>
+        <v>31918276500</v>
       </c>
       <c r="G50">
         <v>81173000</v>
@@ -2878,13 +2878,13 @@
         <v>3141400</v>
       </c>
       <c r="I50">
-        <v>56762992000</v>
+        <v>52955103700</v>
       </c>
       <c r="J50" t="str">
         <v>2023-01-27T10:50:00.000Z</v>
       </c>
       <c r="K50">
-        <v>4139804399000</v>
+        <v>3696750096800</v>
       </c>
       <c r="L50">
         <v>222710200</v>
@@ -2893,13 +2893,13 @@
         <v>859900</v>
       </c>
       <c r="N50">
-        <v>12756127000</v>
+        <v>10962622300</v>
       </c>
       <c r="O50">
         <v>8483100</v>
       </c>
       <c r="P50">
-        <v>352426038000</v>
+        <v>266891258400</v>
       </c>
     </row>
     <row r="51">
@@ -2916,10 +2916,10 @@
         <v>6600</v>
       </c>
       <c r="E51">
-        <v>25648083000</v>
+        <v>24243289200</v>
       </c>
       <c r="F51">
-        <v>36304855000</v>
+        <v>30660305200</v>
       </c>
       <c r="G51">
         <v>100435000</v>
@@ -2928,13 +2928,13 @@
         <v>3224700</v>
       </c>
       <c r="I51">
-        <v>62053373000</v>
+        <v>55004029400</v>
       </c>
       <c r="J51" t="str">
         <v>2023-01-27T10:52:00.000Z</v>
       </c>
       <c r="K51">
-        <v>4201857772000</v>
+        <v>3751754126200</v>
       </c>
       <c r="L51">
         <v>225934900</v>
@@ -2943,13 +2943,13 @@
         <v>423900</v>
       </c>
       <c r="N51">
-        <v>10656772000</v>
+        <v>6417016000</v>
       </c>
       <c r="O51">
         <v>8907000</v>
       </c>
       <c r="P51">
-        <v>363082810000</v>
+        <v>273308274400</v>
       </c>
     </row>
     <row r="52">
@@ -2966,25 +2966,25 @@
         <v>8900</v>
       </c>
       <c r="E52">
-        <v>20562070000</v>
+        <v>19366167100</v>
       </c>
       <c r="F52">
-        <v>21769189000</v>
+        <v>20924334700</v>
       </c>
       <c r="G52">
-        <v>613865000</v>
+        <v>176003300</v>
       </c>
       <c r="H52">
         <v>2318200</v>
       </c>
       <c r="I52">
-        <v>42945124000</v>
+        <v>40466505100</v>
       </c>
       <c r="J52" t="str">
         <v>2023-01-27T10:54:00.000Z</v>
       </c>
       <c r="K52">
-        <v>4244802896000</v>
+        <v>3792220631300</v>
       </c>
       <c r="L52">
         <v>228253100</v>
@@ -2993,13 +2993,13 @@
         <v>-137900</v>
       </c>
       <c r="N52">
-        <v>1207119000</v>
+        <v>1558167600</v>
       </c>
       <c r="O52">
         <v>8769100</v>
       </c>
       <c r="P52">
-        <v>364289929000</v>
+        <v>274866442000</v>
       </c>
     </row>
     <row r="53">
@@ -3016,10 +3016,10 @@
         <v>8500</v>
       </c>
       <c r="E53">
-        <v>19749201000</v>
+        <v>16194858900</v>
       </c>
       <c r="F53">
-        <v>28410622000</v>
+        <v>24284052700</v>
       </c>
       <c r="G53">
         <v>82615000</v>
@@ -3028,13 +3028,13 @@
         <v>2547400</v>
       </c>
       <c r="I53">
-        <v>48242438000</v>
+        <v>40561526600</v>
       </c>
       <c r="J53" t="str">
         <v>2023-01-27T10:56:00.000Z</v>
       </c>
       <c r="K53">
-        <v>4293045334000</v>
+        <v>3832782157900</v>
       </c>
       <c r="L53">
         <v>230800500</v>
@@ -3043,13 +3043,13 @@
         <v>491500</v>
       </c>
       <c r="N53">
-        <v>8661421000</v>
+        <v>8089193800</v>
       </c>
       <c r="O53">
         <v>9260600</v>
       </c>
       <c r="P53">
-        <v>372951350000</v>
+        <v>282955635800</v>
       </c>
     </row>
     <row r="54">
@@ -3066,10 +3066,10 @@
         <v>9200</v>
       </c>
       <c r="E54">
-        <v>13197582000</v>
+        <v>11685295800</v>
       </c>
       <c r="F54">
-        <v>26914808000</v>
+        <v>22373753600</v>
       </c>
       <c r="G54">
         <v>62506000</v>
@@ -3078,13 +3078,13 @@
         <v>2073600</v>
       </c>
       <c r="I54">
-        <v>40174896000</v>
+        <v>34121555400</v>
       </c>
       <c r="J54" t="str">
         <v>2023-01-27T10:58:00.000Z</v>
       </c>
       <c r="K54">
-        <v>4333220230000</v>
+        <v>3866903713300</v>
       </c>
       <c r="L54">
         <v>232874100</v>
@@ -3093,13 +3093,13 @@
         <v>622200</v>
       </c>
       <c r="N54">
-        <v>13717226000</v>
+        <v>10688457800</v>
       </c>
       <c r="O54">
         <v>9882800</v>
       </c>
       <c r="P54">
-        <v>386668576000</v>
+        <v>293644093600</v>
       </c>
     </row>
     <row r="55">
@@ -3116,10 +3116,10 @@
         <v>500</v>
       </c>
       <c r="E55">
-        <v>32959456000</v>
+        <v>29432986000</v>
       </c>
       <c r="F55">
-        <v>29514863000</v>
+        <v>27332048000</v>
       </c>
       <c r="G55">
         <v>16300000</v>
@@ -3128,13 +3128,13 @@
         <v>3363600</v>
       </c>
       <c r="I55">
-        <v>62490619000</v>
+        <v>56781334000</v>
       </c>
       <c r="J55" t="str">
         <v>2023-01-27T11:00:00.000Z</v>
       </c>
       <c r="K55">
-        <v>4395710849000</v>
+        <v>3923685047300</v>
       </c>
       <c r="L55">
         <v>236237700</v>
@@ -3143,13 +3143,13 @@
         <v>-234700</v>
       </c>
       <c r="N55">
-        <v>-3444593000</v>
+        <v>-2100938000</v>
       </c>
       <c r="O55">
         <v>9648100</v>
       </c>
       <c r="P55">
-        <v>383223983000</v>
+        <v>291543155600</v>
       </c>
     </row>
     <row r="56">
@@ -3166,10 +3166,10 @@
         <v>5000</v>
       </c>
       <c r="E56">
-        <v>20043853000</v>
+        <v>18921776200</v>
       </c>
       <c r="F56">
-        <v>24658566000</v>
+        <v>21373654200</v>
       </c>
       <c r="G56">
         <v>21118000</v>
@@ -3178,13 +3178,13 @@
         <v>2418100</v>
       </c>
       <c r="I56">
-        <v>44723537000</v>
+        <v>40316548400</v>
       </c>
       <c r="J56" t="str">
         <v>2023-01-27T11:02:00.000Z</v>
       </c>
       <c r="K56">
-        <v>4440434386000</v>
+        <v>3964001595700</v>
       </c>
       <c r="L56">
         <v>238655800</v>
@@ -3193,13 +3193,13 @@
         <v>167300</v>
       </c>
       <c r="N56">
-        <v>4614713000</v>
+        <v>2451878000</v>
       </c>
       <c r="O56">
         <v>9815400</v>
       </c>
       <c r="P56">
-        <v>387838696000</v>
+        <v>293995033600</v>
       </c>
     </row>
     <row r="57">
@@ -3216,10 +3216,10 @@
         <v>11200</v>
       </c>
       <c r="E57">
-        <v>17418687000</v>
+        <v>16584322200</v>
       </c>
       <c r="F57">
-        <v>22537219000</v>
+        <v>19986472300</v>
       </c>
       <c r="G57">
         <v>254575000</v>
@@ -3228,13 +3228,13 @@
         <v>2178700</v>
       </c>
       <c r="I57">
-        <v>40210481000</v>
+        <v>36825369500</v>
       </c>
       <c r="J57" t="str">
         <v>2023-01-27T11:04:00.000Z</v>
       </c>
       <c r="K57">
-        <v>4480644867000</v>
+        <v>4000826965200</v>
       </c>
       <c r="L57">
         <v>240834500</v>
@@ -3243,13 +3243,13 @@
         <v>230700</v>
       </c>
       <c r="N57">
-        <v>5118532000</v>
+        <v>3402150100</v>
       </c>
       <c r="O57">
         <v>10046100</v>
       </c>
       <c r="P57">
-        <v>392957228000</v>
+        <v>297397183700</v>
       </c>
     </row>
     <row r="58">
@@ -3266,10 +3266,10 @@
         <v>9100</v>
       </c>
       <c r="E58">
-        <v>21559623000</v>
+        <v>19986797400</v>
       </c>
       <c r="F58">
-        <v>23441222000</v>
+        <v>21410354900</v>
       </c>
       <c r="G58">
         <v>121221000</v>
@@ -3278,13 +3278,13 @@
         <v>2385800</v>
       </c>
       <c r="I58">
-        <v>45122066000</v>
+        <v>41518373300</v>
       </c>
       <c r="J58" t="str">
         <v>2023-01-27T11:06:00.000Z</v>
       </c>
       <c r="K58">
-        <v>4525766933000</v>
+        <v>4042345338500</v>
       </c>
       <c r="L58">
         <v>243220300</v>
@@ -3293,13 +3293,13 @@
         <v>167900</v>
       </c>
       <c r="N58">
-        <v>1881599000</v>
+        <v>1423557500</v>
       </c>
       <c r="O58">
         <v>10214000</v>
       </c>
       <c r="P58">
-        <v>394838827000</v>
+        <v>298820741200</v>
       </c>
     </row>
     <row r="59">
@@ -3316,25 +3316,25 @@
         <v>3600</v>
       </c>
       <c r="E59">
-        <v>14104869000</v>
+        <v>13670603700</v>
       </c>
       <c r="F59">
-        <v>37666282000</v>
+        <v>34838612500</v>
       </c>
       <c r="G59">
-        <v>96144000</v>
+        <v>80759400</v>
       </c>
       <c r="H59">
         <v>2600000</v>
       </c>
       <c r="I59">
-        <v>51867295000</v>
+        <v>48589975600</v>
       </c>
       <c r="J59" t="str">
         <v>2023-01-27T11:08:00.000Z</v>
       </c>
       <c r="K59">
-        <v>4577634228000</v>
+        <v>4090935314100</v>
       </c>
       <c r="L59">
         <v>245820300</v>
@@ -3343,13 +3343,13 @@
         <v>1060400</v>
       </c>
       <c r="N59">
-        <v>23561413000</v>
+        <v>21168008800</v>
       </c>
       <c r="O59">
         <v>11274400</v>
       </c>
       <c r="P59">
-        <v>418400240000</v>
+        <v>319988750000</v>
       </c>
     </row>
     <row r="60">
@@ -3366,10 +3366,10 @@
         <v>10400</v>
       </c>
       <c r="E60">
-        <v>14831269000</v>
+        <v>14445355300</v>
       </c>
       <c r="F60">
-        <v>34568368000</v>
+        <v>32383754800</v>
       </c>
       <c r="G60">
         <v>85039000</v>
@@ -3378,13 +3378,13 @@
         <v>2791700</v>
       </c>
       <c r="I60">
-        <v>49484676000</v>
+        <v>46914149100</v>
       </c>
       <c r="J60" t="str">
         <v>2023-01-27T11:10:00.000Z</v>
       </c>
       <c r="K60">
-        <v>4627118904000</v>
+        <v>4137849463200</v>
       </c>
       <c r="L60">
         <v>248612000</v>
@@ -3393,13 +3393,13 @@
         <v>1014100</v>
       </c>
       <c r="N60">
-        <v>19737099000</v>
+        <v>17938399500</v>
       </c>
       <c r="O60">
         <v>12288500</v>
       </c>
       <c r="P60">
-        <v>438137339000</v>
+        <v>337927149500</v>
       </c>
     </row>
     <row r="61">
@@ -3416,10 +3416,10 @@
         <v>12900</v>
       </c>
       <c r="E61">
-        <v>17500214000</v>
+        <v>16984530200</v>
       </c>
       <c r="F61">
-        <v>43150104000</v>
+        <v>36489771000</v>
       </c>
       <c r="G61">
         <v>265305000</v>
@@ -3428,13 +3428,13 @@
         <v>3337400</v>
       </c>
       <c r="I61">
-        <v>60915623000</v>
+        <v>53739606200</v>
       </c>
       <c r="J61" t="str">
         <v>2023-01-27T11:12:00.000Z</v>
       </c>
       <c r="K61">
-        <v>4688034527000</v>
+        <v>4191589069400</v>
       </c>
       <c r="L61">
         <v>251949400</v>
@@ -3443,13 +3443,13 @@
         <v>1324500</v>
       </c>
       <c r="N61">
-        <v>25649890000</v>
+        <v>19505240800</v>
       </c>
       <c r="O61">
         <v>13613000</v>
       </c>
       <c r="P61">
-        <v>463787229000</v>
+        <v>357432390300</v>
       </c>
     </row>
     <row r="62">
@@ -3466,25 +3466,25 @@
         <v>2800</v>
       </c>
       <c r="E62">
-        <v>17274451000</v>
+        <v>15129398200</v>
       </c>
       <c r="F62">
-        <v>36847127000</v>
+        <v>31993385600</v>
       </c>
       <c r="G62">
-        <v>89840000</v>
+        <v>88341500</v>
       </c>
       <c r="H62">
         <v>3000200</v>
       </c>
       <c r="I62">
-        <v>54211418000</v>
+        <v>47211125300</v>
       </c>
       <c r="J62" t="str">
         <v>2023-01-27T11:14:00.000Z</v>
       </c>
       <c r="K62">
-        <v>4742245945000</v>
+        <v>4238800194700</v>
       </c>
       <c r="L62">
         <v>254949600</v>
@@ -3493,13 +3493,13 @@
         <v>918000</v>
       </c>
       <c r="N62">
-        <v>19572676000</v>
+        <v>16863987400</v>
       </c>
       <c r="O62">
         <v>14531000</v>
       </c>
       <c r="P62">
-        <v>483359905000</v>
+        <v>374296377700</v>
       </c>
     </row>
     <row r="63">
@@ -3516,10 +3516,10 @@
         <v>15600</v>
       </c>
       <c r="E63">
-        <v>13220588000</v>
+        <v>12067342400</v>
       </c>
       <c r="F63">
-        <v>36878862000</v>
+        <v>34607635500</v>
       </c>
       <c r="G63">
         <v>204940000</v>
@@ -3528,13 +3528,13 @@
         <v>2693000</v>
       </c>
       <c r="I63">
-        <v>50304390000</v>
+        <v>46879917900</v>
       </c>
       <c r="J63" t="str">
         <v>2023-01-27T11:16:00.000Z</v>
       </c>
       <c r="K63">
-        <v>4792550335000</v>
+        <v>4285680112600</v>
       </c>
       <c r="L63">
         <v>257642600</v>
@@ -3543,13 +3543,13 @@
         <v>1293600</v>
       </c>
       <c r="N63">
-        <v>23658274000</v>
+        <v>22540293100</v>
       </c>
       <c r="O63">
         <v>15824600</v>
       </c>
       <c r="P63">
-        <v>507018179000</v>
+        <v>396836670800</v>
       </c>
     </row>
     <row r="64">
@@ -3566,10 +3566,10 @@
         <v>3300</v>
       </c>
       <c r="E64">
-        <v>19828878000</v>
+        <v>15859950900</v>
       </c>
       <c r="F64">
-        <v>36537274000</v>
+        <v>35179633000</v>
       </c>
       <c r="G64">
         <v>39495000</v>
@@ -3578,13 +3578,13 @@
         <v>2882100</v>
       </c>
       <c r="I64">
-        <v>56405647000</v>
+        <v>51079078900</v>
       </c>
       <c r="J64" t="str">
         <v>2023-01-27T11:18:00.000Z</v>
       </c>
       <c r="K64">
-        <v>4848955982000</v>
+        <v>4336759191500</v>
       </c>
       <c r="L64">
         <v>260524700</v>
@@ -3593,13 +3593,13 @@
         <v>1282000</v>
       </c>
       <c r="N64">
-        <v>16708396000</v>
+        <v>19319682100</v>
       </c>
       <c r="O64">
         <v>17106600</v>
       </c>
       <c r="P64">
-        <v>523726575000</v>
+        <v>416156352900</v>
       </c>
     </row>
     <row r="65">
@@ -3616,10 +3616,10 @@
         <v>20000</v>
       </c>
       <c r="E65">
-        <v>18480618000</v>
+        <v>17686413000</v>
       </c>
       <c r="F65">
-        <v>41648572000</v>
+        <v>38799923500</v>
       </c>
       <c r="G65">
         <v>283925000</v>
@@ -3628,13 +3628,13 @@
         <v>3342700</v>
       </c>
       <c r="I65">
-        <v>60413115000</v>
+        <v>56770261500</v>
       </c>
       <c r="J65" t="str">
         <v>2023-01-27T11:20:00.000Z</v>
       </c>
       <c r="K65">
-        <v>4909369097000</v>
+        <v>4393529453000</v>
       </c>
       <c r="L65">
         <v>263867400</v>
@@ -3643,13 +3643,13 @@
         <v>1448300</v>
       </c>
       <c r="N65">
-        <v>23167954000</v>
+        <v>21113510500</v>
       </c>
       <c r="O65">
         <v>18554900</v>
       </c>
       <c r="P65">
-        <v>546894529000</v>
+        <v>437269863400</v>
       </c>
     </row>
     <row r="66">
@@ -3666,25 +3666,25 @@
         <v>20700</v>
       </c>
       <c r="E66">
-        <v>12525511000</v>
+        <v>12236700100</v>
       </c>
       <c r="F66">
-        <v>38832985000</v>
+        <v>34386436000</v>
       </c>
       <c r="G66">
-        <v>288745000</v>
+        <v>260773000</v>
       </c>
       <c r="H66">
         <v>3011800</v>
       </c>
       <c r="I66">
-        <v>51647241000</v>
+        <v>46883909100</v>
       </c>
       <c r="J66" t="str">
         <v>2023-01-27T11:22:00.000Z</v>
       </c>
       <c r="K66">
-        <v>4961016338000</v>
+        <v>4440413362100</v>
       </c>
       <c r="L66">
         <v>266879200</v>
@@ -3693,13 +3693,13 @@
         <v>1379900</v>
       </c>
       <c r="N66">
-        <v>26307474000</v>
+        <v>22149735900</v>
       </c>
       <c r="O66">
         <v>19934800</v>
       </c>
       <c r="P66">
-        <v>573202003000</v>
+        <v>459419599300</v>
       </c>
     </row>
     <row r="67">
@@ -3716,10 +3716,10 @@
         <v>6200</v>
       </c>
       <c r="E67">
-        <v>13993975000</v>
+        <v>13195873900</v>
       </c>
       <c r="F67">
-        <v>40457169000</v>
+        <v>37399130100</v>
       </c>
       <c r="G67">
         <v>131217000</v>
@@ -3728,13 +3728,13 @@
         <v>2983100</v>
       </c>
       <c r="I67">
-        <v>54582361000</v>
+        <v>50726221000</v>
       </c>
       <c r="J67" t="str">
         <v>2023-01-27T11:24:00.000Z</v>
       </c>
       <c r="K67">
-        <v>5015598699000</v>
+        <v>4491139583100</v>
       </c>
       <c r="L67">
         <v>269862300</v>
@@ -3743,13 +3743,13 @@
         <v>1521500</v>
       </c>
       <c r="N67">
-        <v>26463194000</v>
+        <v>24203256200</v>
       </c>
       <c r="O67">
         <v>21456300</v>
       </c>
       <c r="P67">
-        <v>599665197000</v>
+        <v>483622855500</v>
       </c>
     </row>
     <row r="68">
@@ -3766,10 +3766,10 @@
         <v>2000</v>
       </c>
       <c r="E68">
-        <v>15342178000</v>
+        <v>14259162100</v>
       </c>
       <c r="F68">
-        <v>48902448000</v>
+        <v>46307845200</v>
       </c>
       <c r="G68">
         <v>54562000</v>
@@ -3778,13 +3778,13 @@
         <v>3543100</v>
       </c>
       <c r="I68">
-        <v>64299188000</v>
+        <v>60621569300</v>
       </c>
       <c r="J68" t="str">
         <v>2023-01-27T11:26:00.000Z</v>
       </c>
       <c r="K68">
-        <v>5079897887000</v>
+        <v>4551761152400</v>
       </c>
       <c r="L68">
         <v>273405400</v>
@@ -3793,13 +3793,13 @@
         <v>1730100</v>
       </c>
       <c r="N68">
-        <v>33560270000</v>
+        <v>32048683100</v>
       </c>
       <c r="O68">
         <v>23186400</v>
       </c>
       <c r="P68">
-        <v>633225467000</v>
+        <v>515671538600</v>
       </c>
     </row>
     <row r="69">
@@ -3816,25 +3816,25 @@
         <v>7300</v>
       </c>
       <c r="E69">
-        <v>13777584000</v>
+        <v>12236127000</v>
       </c>
       <c r="F69">
-        <v>43026916000</v>
+        <v>40087558300</v>
       </c>
       <c r="G69">
-        <v>88874000</v>
+        <v>78284600</v>
       </c>
       <c r="H69">
         <v>3486600</v>
       </c>
       <c r="I69">
-        <v>56893374000</v>
+        <v>52401969900</v>
       </c>
       <c r="J69" t="str">
         <v>2023-01-27T11:28:00.000Z</v>
       </c>
       <c r="K69">
-        <v>5136791261000</v>
+        <v>4604163122300</v>
       </c>
       <c r="L69">
         <v>276892000</v>
@@ -3843,13 +3843,13 @@
         <v>1905100</v>
       </c>
       <c r="N69">
-        <v>29249332000</v>
+        <v>27851431300</v>
       </c>
       <c r="O69">
         <v>25091500</v>
       </c>
       <c r="P69">
-        <v>662474799000</v>
+        <v>543522969900</v>
       </c>
     </row>
     <row r="70">
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>339400000</v>
+        <v>281957500</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -3878,13 +3878,13 @@
         <v>24000</v>
       </c>
       <c r="I70">
-        <v>339400000</v>
+        <v>281957500</v>
       </c>
       <c r="J70" t="str">
         <v>2023-01-27T11:30:00.000Z</v>
       </c>
       <c r="K70">
-        <v>5137130661000</v>
+        <v>4604445079800</v>
       </c>
       <c r="L70">
         <v>276916000</v>
@@ -3893,13 +3893,13 @@
         <v>24000</v>
       </c>
       <c r="N70">
-        <v>339400000</v>
+        <v>281957500</v>
       </c>
       <c r="O70">
         <v>25115500</v>
       </c>
       <c r="P70">
-        <v>662814199000</v>
+        <v>543804927400</v>
       </c>
     </row>
     <row r="71">
@@ -3916,25 +3916,25 @@
         <v>172500</v>
       </c>
       <c r="E71">
-        <v>70718251000</v>
+        <v>66226147600</v>
       </c>
       <c r="F71">
-        <v>85558765000</v>
+        <v>79634495200</v>
       </c>
       <c r="G71">
-        <v>3608392000</v>
+        <v>3426973600</v>
       </c>
       <c r="H71">
         <v>9168500</v>
       </c>
       <c r="I71">
-        <v>159885408000</v>
+        <v>149287616400</v>
       </c>
       <c r="J71" t="str">
         <v>2023-01-27T13:00:00.000Z</v>
       </c>
       <c r="K71">
-        <v>5297016069000</v>
+        <v>4753732696200</v>
       </c>
       <c r="L71">
         <v>286084500</v>
@@ -3943,13 +3943,13 @@
         <v>903000</v>
       </c>
       <c r="N71">
-        <v>14840514000</v>
+        <v>13408347600</v>
       </c>
       <c r="O71">
         <v>26018500</v>
       </c>
       <c r="P71">
-        <v>677654713000</v>
+        <v>557213275000</v>
       </c>
     </row>
     <row r="72">
@@ -3966,25 +3966,25 @@
         <v>20000</v>
       </c>
       <c r="E72">
-        <v>39611020000</v>
+        <v>37296137200</v>
       </c>
       <c r="F72">
-        <v>31803793000</v>
+        <v>24348755500</v>
       </c>
       <c r="G72">
-        <v>320965000</v>
+        <v>201484600</v>
       </c>
       <c r="H72">
         <v>4165600</v>
       </c>
       <c r="I72">
-        <v>71735778000</v>
+        <v>61846377300</v>
       </c>
       <c r="J72" t="str">
         <v>2023-01-27T13:02:00.000Z</v>
       </c>
       <c r="K72">
-        <v>5368751847000</v>
+        <v>4815579073500</v>
       </c>
       <c r="L72">
         <v>290250100</v>
@@ -3993,13 +3993,13 @@
         <v>40000</v>
       </c>
       <c r="N72">
-        <v>-7807227000</v>
+        <v>-12947381700</v>
       </c>
       <c r="O72">
         <v>26058500</v>
       </c>
       <c r="P72">
-        <v>669847486000</v>
+        <v>544265893300</v>
       </c>
     </row>
     <row r="73">
@@ -4016,10 +4016,10 @@
         <v>800</v>
       </c>
       <c r="E73">
-        <v>40158765000</v>
+        <v>35091437400</v>
       </c>
       <c r="F73">
-        <v>33110895000</v>
+        <v>32012794200</v>
       </c>
       <c r="G73">
         <v>16145000</v>
@@ -4028,13 +4028,13 @@
         <v>4062800</v>
       </c>
       <c r="I73">
-        <v>73285805000</v>
+        <v>67120376600</v>
       </c>
       <c r="J73" t="str">
         <v>2023-01-27T13:04:00.000Z</v>
       </c>
       <c r="K73">
-        <v>5442037652000</v>
+        <v>4882699450100</v>
       </c>
       <c r="L73">
         <v>294312900</v>
@@ -4043,13 +4043,13 @@
         <v>-597000</v>
       </c>
       <c r="N73">
-        <v>-7047870000</v>
+        <v>-3078643200</v>
       </c>
       <c r="O73">
         <v>25461500</v>
       </c>
       <c r="P73">
-        <v>662799616000</v>
+        <v>541187250100</v>
       </c>
     </row>
     <row r="74">
@@ -4066,10 +4066,10 @@
         <v>56300</v>
       </c>
       <c r="E74">
-        <v>43200647000</v>
+        <v>42365383100</v>
       </c>
       <c r="F74">
-        <v>45744297000</v>
+        <v>45482958600</v>
       </c>
       <c r="G74">
         <v>781554000</v>
@@ -4078,13 +4078,13 @@
         <v>5108400</v>
       </c>
       <c r="I74">
-        <v>89726498000</v>
+        <v>88629895700</v>
       </c>
       <c r="J74" t="str">
         <v>2023-01-27T13:06:00.000Z</v>
       </c>
       <c r="K74">
-        <v>5531764150000</v>
+        <v>4971329345800</v>
       </c>
       <c r="L74">
         <v>299421300</v>
@@ -4093,13 +4093,13 @@
         <v>-177300</v>
       </c>
       <c r="N74">
-        <v>2543650000</v>
+        <v>3117575500</v>
       </c>
       <c r="O74">
         <v>25284200</v>
       </c>
       <c r="P74">
-        <v>665343266000</v>
+        <v>544304825600</v>
       </c>
     </row>
     <row r="75">
@@ -4116,10 +4116,10 @@
         <v>3100</v>
       </c>
       <c r="E75">
-        <v>24026720000</v>
+        <v>23001346400</v>
       </c>
       <c r="F75">
-        <v>35173879000</v>
+        <v>33983870200</v>
       </c>
       <c r="G75">
         <v>162325000</v>
@@ -4128,13 +4128,13 @@
         <v>3452100</v>
       </c>
       <c r="I75">
-        <v>59362924000</v>
+        <v>57147541600</v>
       </c>
       <c r="J75" t="str">
         <v>2023-01-27T13:08:00.000Z</v>
       </c>
       <c r="K75">
-        <v>5591127074000</v>
+        <v>5028476887400</v>
       </c>
       <c r="L75">
         <v>302873400</v>
@@ -4143,13 +4143,13 @@
         <v>336200</v>
       </c>
       <c r="N75">
-        <v>11147159000</v>
+        <v>10982523800</v>
       </c>
       <c r="O75">
         <v>25620400</v>
       </c>
       <c r="P75">
-        <v>676490425000</v>
+        <v>555287349400</v>
       </c>
     </row>
     <row r="76">
@@ -4166,25 +4166,25 @@
         <v>21000</v>
       </c>
       <c r="E76">
-        <v>41776785000</v>
+        <v>40199563800</v>
       </c>
       <c r="F76">
-        <v>51281386000</v>
+        <v>45528444700</v>
       </c>
       <c r="G76">
-        <v>382181000</v>
+        <v>318744500</v>
       </c>
       <c r="H76">
         <v>5337400</v>
       </c>
       <c r="I76">
-        <v>93440352000</v>
+        <v>86046753000</v>
       </c>
       <c r="J76" t="str">
         <v>2023-01-27T13:10:00.000Z</v>
       </c>
       <c r="K76">
-        <v>5684567426000</v>
+        <v>5114523640400</v>
       </c>
       <c r="L76">
         <v>308210800</v>
@@ -4193,13 +4193,13 @@
         <v>657400</v>
       </c>
       <c r="N76">
-        <v>9504601000</v>
+        <v>5328880900</v>
       </c>
       <c r="O76">
         <v>26277800</v>
       </c>
       <c r="P76">
-        <v>685995026000</v>
+        <v>560616230300</v>
       </c>
     </row>
     <row r="77">
@@ -4216,10 +4216,10 @@
         <v>14400</v>
       </c>
       <c r="E77">
-        <v>35297315000</v>
+        <v>33152561900</v>
       </c>
       <c r="F77">
-        <v>44784196000</v>
+        <v>37660526800</v>
       </c>
       <c r="G77">
         <v>257300000</v>
@@ -4228,13 +4228,13 @@
         <v>4621800</v>
       </c>
       <c r="I77">
-        <v>80338811000</v>
+        <v>71070388700</v>
       </c>
       <c r="J77" t="str">
         <v>2023-01-27T13:12:00.000Z</v>
       </c>
       <c r="K77">
-        <v>5764906237000</v>
+        <v>5185594029100</v>
       </c>
       <c r="L77">
         <v>312832600</v>
@@ -4243,13 +4243,13 @@
         <v>733200</v>
       </c>
       <c r="N77">
-        <v>9486881000</v>
+        <v>4507964900</v>
       </c>
       <c r="O77">
         <v>27011000</v>
       </c>
       <c r="P77">
-        <v>695481907000</v>
+        <v>565124195200</v>
       </c>
     </row>
     <row r="78">
@@ -4266,25 +4266,25 @@
         <v>11500</v>
       </c>
       <c r="E78">
-        <v>40465115000</v>
+        <v>37520862200</v>
       </c>
       <c r="F78">
-        <v>48670778000</v>
+        <v>45060991400</v>
       </c>
       <c r="G78">
-        <v>153530000</v>
+        <v>136946600</v>
       </c>
       <c r="H78">
         <v>5145000</v>
       </c>
       <c r="I78">
-        <v>89289423000</v>
+        <v>82718800200</v>
       </c>
       <c r="J78" t="str">
         <v>2023-01-27T13:14:00.000Z</v>
       </c>
       <c r="K78">
-        <v>5854195660000</v>
+        <v>5268312829300</v>
       </c>
       <c r="L78">
         <v>317977600</v>
@@ -4293,13 +4293,13 @@
         <v>533900</v>
       </c>
       <c r="N78">
-        <v>8205663000</v>
+        <v>7540129200</v>
       </c>
       <c r="O78">
         <v>27544900</v>
       </c>
       <c r="P78">
-        <v>703687570000</v>
+        <v>572664324400</v>
       </c>
     </row>
     <row r="79">
@@ -4316,10 +4316,10 @@
         <v>8900</v>
       </c>
       <c r="E79">
-        <v>30854624000</v>
+        <v>27236046200</v>
       </c>
       <c r="F79">
-        <v>57978636000</v>
+        <v>53390029200</v>
       </c>
       <c r="G79">
         <v>314614000</v>
@@ -4328,13 +4328,13 @@
         <v>4449400</v>
       </c>
       <c r="I79">
-        <v>89147874000</v>
+        <v>80940689400</v>
       </c>
       <c r="J79" t="str">
         <v>2023-01-27T13:16:00.000Z</v>
       </c>
       <c r="K79">
-        <v>5943343534000</v>
+        <v>5349253518700</v>
       </c>
       <c r="L79">
         <v>322427000</v>
@@ -4343,13 +4343,13 @@
         <v>880100</v>
       </c>
       <c r="N79">
-        <v>27124012000</v>
+        <v>26153983000</v>
       </c>
       <c r="O79">
         <v>28425000</v>
       </c>
       <c r="P79">
-        <v>730811582000</v>
+        <v>598818307400</v>
       </c>
     </row>
     <row r="80">
@@ -4366,10 +4366,10 @@
         <v>16300</v>
       </c>
       <c r="E80">
-        <v>31433071000</v>
+        <v>30380025100</v>
       </c>
       <c r="F80">
-        <v>64491109000</v>
+        <v>59344460800</v>
       </c>
       <c r="G80">
         <v>575166000</v>
@@ -4378,13 +4378,13 @@
         <v>5030700</v>
       </c>
       <c r="I80">
-        <v>96499346000</v>
+        <v>90299651900</v>
       </c>
       <c r="J80" t="str">
         <v>2023-01-27T13:18:00.000Z</v>
       </c>
       <c r="K80">
-        <v>6039842880000</v>
+        <v>5439553170600</v>
       </c>
       <c r="L80">
         <v>327457700</v>
@@ -4393,13 +4393,13 @@
         <v>1321800</v>
       </c>
       <c r="N80">
-        <v>33058038000</v>
+        <v>28964435700</v>
       </c>
       <c r="O80">
         <v>29746800</v>
       </c>
       <c r="P80">
-        <v>763869620000</v>
+        <v>627782743100</v>
       </c>
     </row>
     <row r="81">
@@ -4416,25 +4416,25 @@
         <v>37100</v>
       </c>
       <c r="E81">
-        <v>40949345000</v>
+        <v>39262133900</v>
       </c>
       <c r="F81">
-        <v>101313789000</v>
+        <v>94857651600</v>
       </c>
       <c r="G81">
-        <v>628742000</v>
+        <v>620150600</v>
       </c>
       <c r="H81">
         <v>6907300</v>
       </c>
       <c r="I81">
-        <v>142891876000</v>
+        <v>134739936100</v>
       </c>
       <c r="J81" t="str">
         <v>2023-01-27T13:20:00.000Z</v>
       </c>
       <c r="K81">
-        <v>6182734756000</v>
+        <v>5574293106700</v>
       </c>
       <c r="L81">
         <v>334365000</v>
@@ -4443,13 +4443,13 @@
         <v>2289400</v>
       </c>
       <c r="N81">
-        <v>60364444000</v>
+        <v>55595517700</v>
       </c>
       <c r="O81">
         <v>32036200</v>
       </c>
       <c r="P81">
-        <v>824234064000</v>
+        <v>683378260800</v>
       </c>
     </row>
     <row r="82">
@@ -4466,10 +4466,10 @@
         <v>1700</v>
       </c>
       <c r="E82">
-        <v>37963087000</v>
+        <v>36931819300</v>
       </c>
       <c r="F82">
-        <v>82333171000</v>
+        <v>73599713200</v>
       </c>
       <c r="G82">
         <v>8187000</v>
@@ -4478,13 +4478,13 @@
         <v>6199300</v>
       </c>
       <c r="I82">
-        <v>120304445000</v>
+        <v>110539719500</v>
       </c>
       <c r="J82" t="str">
         <v>2023-01-27T13:22:00.000Z</v>
       </c>
       <c r="K82">
-        <v>6303039201000</v>
+        <v>5684832826200</v>
       </c>
       <c r="L82">
         <v>340564300</v>
@@ -4493,13 +4493,13 @@
         <v>2087400</v>
       </c>
       <c r="N82">
-        <v>44370084000</v>
+        <v>36667893900</v>
       </c>
       <c r="O82">
         <v>34123600</v>
       </c>
       <c r="P82">
-        <v>868604148000</v>
+        <v>720046154700</v>
       </c>
     </row>
     <row r="83">
@@ -4516,10 +4516,10 @@
         <v>109200</v>
       </c>
       <c r="E83">
-        <v>29374246000</v>
+        <v>28654066900</v>
       </c>
       <c r="F83">
-        <v>88598328000</v>
+        <v>72742799400</v>
       </c>
       <c r="G83">
         <v>2189788000</v>
@@ -4528,13 +4528,13 @@
         <v>6463100</v>
       </c>
       <c r="I83">
-        <v>120162362000</v>
+        <v>103586654300</v>
       </c>
       <c r="J83" t="str">
         <v>2023-01-27T13:24:00.000Z</v>
       </c>
       <c r="K83">
-        <v>6423201563000</v>
+        <v>5788419480500</v>
       </c>
       <c r="L83">
         <v>347027400</v>
@@ -4543,13 +4543,13 @@
         <v>2754300</v>
       </c>
       <c r="N83">
-        <v>59224082000</v>
+        <v>44088732500</v>
       </c>
       <c r="O83">
         <v>36877900</v>
       </c>
       <c r="P83">
-        <v>927828230000</v>
+        <v>764134887200</v>
       </c>
     </row>
     <row r="84">
@@ -4566,10 +4566,10 @@
         <v>29600</v>
       </c>
       <c r="E84">
-        <v>58476868000</v>
+        <v>55684063600</v>
       </c>
       <c r="F84">
-        <v>55230183000</v>
+        <v>48927591900</v>
       </c>
       <c r="G84">
         <v>241854000</v>
@@ -4578,13 +4578,13 @@
         <v>6404900</v>
       </c>
       <c r="I84">
-        <v>113948905000</v>
+        <v>104853509500</v>
       </c>
       <c r="J84" t="str">
         <v>2023-01-27T13:26:00.000Z</v>
       </c>
       <c r="K84">
-        <v>6537150468000</v>
+        <v>5893272990000</v>
       </c>
       <c r="L84">
         <v>353432300</v>
@@ -4593,13 +4593,13 @@
         <v>57900</v>
       </c>
       <c r="N84">
-        <v>-3246685000</v>
+        <v>-6756471700</v>
       </c>
       <c r="O84">
         <v>36935800</v>
       </c>
       <c r="P84">
-        <v>924581545000</v>
+        <v>757378415500</v>
       </c>
     </row>
     <row r="85">
@@ -4616,10 +4616,10 @@
         <v>8000</v>
       </c>
       <c r="E85">
-        <v>24983786000</v>
+        <v>22761510500</v>
       </c>
       <c r="F85">
-        <v>63563235000</v>
+        <v>62206692900</v>
       </c>
       <c r="G85">
         <v>137019000</v>
@@ -4628,13 +4628,13 @@
         <v>4560400</v>
       </c>
       <c r="I85">
-        <v>88684040000</v>
+        <v>85105222400</v>
       </c>
       <c r="J85" t="str">
         <v>2023-01-27T13:28:00.000Z</v>
       </c>
       <c r="K85">
-        <v>6625834508000</v>
+        <v>5978378212400</v>
       </c>
       <c r="L85">
         <v>357992700</v>
@@ -4643,13 +4643,13 @@
         <v>1581400</v>
       </c>
       <c r="N85">
-        <v>38579449000</v>
+        <v>39445182400</v>
       </c>
       <c r="O85">
         <v>38517200</v>
       </c>
       <c r="P85">
-        <v>963160994000</v>
+        <v>796823597900</v>
       </c>
     </row>
     <row r="86">
@@ -4666,10 +4666,10 @@
         <v>3000</v>
       </c>
       <c r="E86">
-        <v>29693916000</v>
+        <v>28298213100</v>
       </c>
       <c r="F86">
-        <v>42055315000</v>
+        <v>40410261700</v>
       </c>
       <c r="G86">
         <v>83680000</v>
@@ -4678,13 +4678,13 @@
         <v>3831600</v>
       </c>
       <c r="I86">
-        <v>71832911000</v>
+        <v>68792154800</v>
       </c>
       <c r="J86" t="str">
         <v>2023-01-27T13:30:00.000Z</v>
       </c>
       <c r="K86">
-        <v>6697667419000</v>
+        <v>6047170367200</v>
       </c>
       <c r="L86">
         <v>361824300</v>
@@ -4693,13 +4693,13 @@
         <v>450400</v>
       </c>
       <c r="N86">
-        <v>12361399000</v>
+        <v>12112048600</v>
       </c>
       <c r="O86">
         <v>38967600</v>
       </c>
       <c r="P86">
-        <v>975522393000</v>
+        <v>808935646500</v>
       </c>
     </row>
     <row r="87">
@@ -4716,25 +4716,25 @@
         <v>24600</v>
       </c>
       <c r="E87">
-        <v>28559767000</v>
+        <v>26786741800</v>
       </c>
       <c r="F87">
-        <v>50146939000</v>
+        <v>46800289000</v>
       </c>
       <c r="G87">
-        <v>608349000</v>
+        <v>207550200</v>
       </c>
       <c r="H87">
         <v>4402400</v>
       </c>
       <c r="I87">
-        <v>79315055000</v>
+        <v>73794581000</v>
       </c>
       <c r="J87" t="str">
         <v>2023-01-27T13:32:00.000Z</v>
       </c>
       <c r="K87">
-        <v>6776982474000</v>
+        <v>6120964948200</v>
       </c>
       <c r="L87">
         <v>366226700</v>
@@ -4743,13 +4743,13 @@
         <v>1163600</v>
       </c>
       <c r="N87">
-        <v>21587172000</v>
+        <v>20013547200</v>
       </c>
       <c r="O87">
         <v>40131200</v>
       </c>
       <c r="P87">
-        <v>997109565000</v>
+        <v>828949193700</v>
       </c>
     </row>
     <row r="88">
@@ -4766,10 +4766,10 @@
         <v>7500</v>
       </c>
       <c r="E88">
-        <v>31241833000</v>
+        <v>31119155800</v>
       </c>
       <c r="F88">
-        <v>49379748000</v>
+        <v>46317213600</v>
       </c>
       <c r="G88">
         <v>184420000</v>
@@ -4778,13 +4778,13 @@
         <v>4555100</v>
       </c>
       <c r="I88">
-        <v>80806001000</v>
+        <v>77620789400</v>
       </c>
       <c r="J88" t="str">
         <v>2023-01-27T13:34:00.000Z</v>
       </c>
       <c r="K88">
-        <v>6857788475000</v>
+        <v>6198585737600</v>
       </c>
       <c r="L88">
         <v>370781800</v>
@@ -4793,13 +4793,13 @@
         <v>518000</v>
       </c>
       <c r="N88">
-        <v>18137915000</v>
+        <v>15198057800</v>
       </c>
       <c r="O88">
         <v>40649200</v>
       </c>
       <c r="P88">
-        <v>1015247480000</v>
+        <v>844147251500</v>
       </c>
     </row>
     <row r="89">
@@ -4816,10 +4816,10 @@
         <v>17500</v>
       </c>
       <c r="E89">
-        <v>46889812000</v>
+        <v>44882821000</v>
       </c>
       <c r="F89">
-        <v>46395634000</v>
+        <v>43571560900</v>
       </c>
       <c r="G89">
         <v>127816000</v>
@@ -4828,13 +4828,13 @@
         <v>4784800</v>
       </c>
       <c r="I89">
-        <v>93413262000</v>
+        <v>88582197900</v>
       </c>
       <c r="J89" t="str">
         <v>2023-01-27T13:36:00.000Z</v>
       </c>
       <c r="K89">
-        <v>6951201737000</v>
+        <v>6287167935500</v>
       </c>
       <c r="L89">
         <v>375566600</v>
@@ -4843,13 +4843,13 @@
         <v>-36700</v>
       </c>
       <c r="N89">
-        <v>-494178000</v>
+        <v>-1311260100</v>
       </c>
       <c r="O89">
         <v>40612500</v>
       </c>
       <c r="P89">
-        <v>1014753302000</v>
+        <v>842835991400</v>
       </c>
     </row>
     <row r="90">
@@ -4866,25 +4866,25 @@
         <v>7700</v>
       </c>
       <c r="E90">
-        <v>51213534000</v>
+        <v>46361391000</v>
       </c>
       <c r="F90">
-        <v>48525922000</v>
+        <v>43677575200</v>
       </c>
       <c r="G90">
-        <v>260128000</v>
+        <v>236951200</v>
       </c>
       <c r="H90">
         <v>5282900</v>
       </c>
       <c r="I90">
-        <v>99999584000</v>
+        <v>90275917400</v>
       </c>
       <c r="J90" t="str">
         <v>2023-01-27T13:38:00.000Z</v>
       </c>
       <c r="K90">
-        <v>7051201321000</v>
+        <v>6377443852900</v>
       </c>
       <c r="L90">
         <v>380849500</v>
@@ -4893,13 +4893,13 @@
         <v>-272000</v>
       </c>
       <c r="N90">
-        <v>-2687612000</v>
+        <v>-2683815800</v>
       </c>
       <c r="O90">
         <v>40340500</v>
       </c>
       <c r="P90">
-        <v>1012065690000</v>
+        <v>840152175600</v>
       </c>
     </row>
     <row r="91">
@@ -4916,25 +4916,25 @@
         <v>94700</v>
       </c>
       <c r="E91">
-        <v>43926984000</v>
+        <v>35559160200</v>
       </c>
       <c r="F91">
-        <v>45721316000</v>
+        <v>38475369200</v>
       </c>
       <c r="G91">
-        <v>3590348000</v>
+        <v>143798000</v>
       </c>
       <c r="H91">
         <v>4687600</v>
       </c>
       <c r="I91">
-        <v>93238648000</v>
+        <v>74178327400</v>
       </c>
       <c r="J91" t="str">
         <v>2023-01-27T13:40:00.000Z</v>
       </c>
       <c r="K91">
-        <v>7144439969000</v>
+        <v>6451622180300</v>
       </c>
       <c r="L91">
         <v>385537100</v>
@@ -4943,13 +4943,13 @@
         <v>-67900</v>
       </c>
       <c r="N91">
-        <v>1794332000</v>
+        <v>2916209000</v>
       </c>
       <c r="O91">
         <v>40272600</v>
       </c>
       <c r="P91">
-        <v>1013860022000</v>
+        <v>843068384600</v>
       </c>
     </row>
     <row r="92">
@@ -4966,10 +4966,10 @@
         <v>13500</v>
       </c>
       <c r="E92">
-        <v>52503256000</v>
+        <v>46919545300</v>
       </c>
       <c r="F92">
-        <v>45249416000</v>
+        <v>43047220400</v>
       </c>
       <c r="G92">
         <v>117530000</v>
@@ -4978,13 +4978,13 @@
         <v>5456100</v>
       </c>
       <c r="I92">
-        <v>97870202000</v>
+        <v>90084295700</v>
       </c>
       <c r="J92" t="str">
         <v>2023-01-27T13:42:00.000Z</v>
       </c>
       <c r="K92">
-        <v>7242310171000</v>
+        <v>6541706476000</v>
       </c>
       <c r="L92">
         <v>390993200</v>
@@ -4993,13 +4993,13 @@
         <v>-910000</v>
       </c>
       <c r="N92">
-        <v>-7253840000</v>
+        <v>-3872324900</v>
       </c>
       <c r="O92">
         <v>39362600</v>
       </c>
       <c r="P92">
-        <v>1006606182000</v>
+        <v>839196059700</v>
       </c>
     </row>
     <row r="93">
@@ -5016,25 +5016,25 @@
         <v>19400</v>
       </c>
       <c r="E93">
-        <v>40474374000</v>
+        <v>38150400300</v>
       </c>
       <c r="F93">
-        <v>49468106000</v>
+        <v>39756827000</v>
       </c>
       <c r="G93">
-        <v>222954000</v>
+        <v>214562400</v>
       </c>
       <c r="H93">
         <v>4347200</v>
       </c>
       <c r="I93">
-        <v>90165434000</v>
+        <v>78121789700</v>
       </c>
       <c r="J93" t="str">
         <v>2023-01-27T13:44:00.000Z</v>
       </c>
       <c r="K93">
-        <v>7332475605000</v>
+        <v>6619828265700</v>
       </c>
       <c r="L93">
         <v>395340400</v>
@@ -5043,13 +5043,13 @@
         <v>174400</v>
       </c>
       <c r="N93">
-        <v>8993732000</v>
+        <v>1606426700</v>
       </c>
       <c r="O93">
         <v>39537000</v>
       </c>
       <c r="P93">
-        <v>1015599914000</v>
+        <v>840802486400</v>
       </c>
     </row>
     <row r="94">
@@ -5066,10 +5066,10 @@
         <v>75500</v>
       </c>
       <c r="E94">
-        <v>41097088000</v>
+        <v>40001584600</v>
       </c>
       <c r="F94">
-        <v>34313813000</v>
+        <v>32582046500</v>
       </c>
       <c r="G94">
         <v>657288000</v>
@@ -5078,13 +5078,13 @@
         <v>4094400</v>
       </c>
       <c r="I94">
-        <v>76068189000</v>
+        <v>73240919100</v>
       </c>
       <c r="J94" t="str">
         <v>2023-01-27T13:46:00.000Z</v>
       </c>
       <c r="K94">
-        <v>7408543794000</v>
+        <v>6693069184800</v>
       </c>
       <c r="L94">
         <v>399434800</v>
@@ -5093,13 +5093,13 @@
         <v>-577100</v>
       </c>
       <c r="N94">
-        <v>-6783275000</v>
+        <v>-7419538100</v>
       </c>
       <c r="O94">
         <v>38959900</v>
       </c>
       <c r="P94">
-        <v>1008816639000</v>
+        <v>833382948300</v>
       </c>
     </row>
     <row r="95">
@@ -5116,25 +5116,25 @@
         <v>15100</v>
       </c>
       <c r="E95">
-        <v>81607855000</v>
+        <v>78807058600</v>
       </c>
       <c r="F95">
-        <v>43006774000</v>
+        <v>41289892600</v>
       </c>
       <c r="G95">
-        <v>331725000</v>
+        <v>328328400</v>
       </c>
       <c r="H95">
         <v>5274300</v>
       </c>
       <c r="I95">
-        <v>124946354000</v>
+        <v>120425279600</v>
       </c>
       <c r="J95" t="str">
         <v>2023-01-27T13:48:00.000Z</v>
       </c>
       <c r="K95">
-        <v>7533490148000</v>
+        <v>6813494464400</v>
       </c>
       <c r="L95">
         <v>404709100</v>
@@ -5143,13 +5143,13 @@
         <v>-1014600</v>
       </c>
       <c r="N95">
-        <v>-38601081000</v>
+        <v>-37517166000</v>
       </c>
       <c r="O95">
         <v>37945300</v>
       </c>
       <c r="P95">
-        <v>970215558000</v>
+        <v>795865782300</v>
       </c>
     </row>
     <row r="96">
@@ -5166,25 +5166,25 @@
         <v>7500</v>
       </c>
       <c r="E96">
-        <v>58086411000</v>
+        <v>50980124400</v>
       </c>
       <c r="F96">
-        <v>38124688000</v>
+        <v>34330186300</v>
       </c>
       <c r="G96">
-        <v>224118000</v>
+        <v>128214000</v>
       </c>
       <c r="H96">
         <v>4433600</v>
       </c>
       <c r="I96">
-        <v>96435217000</v>
+        <v>85438524700</v>
       </c>
       <c r="J96" t="str">
         <v>2023-01-27T13:50:00.000Z</v>
       </c>
       <c r="K96">
-        <v>7629925365000</v>
+        <v>6898932989100</v>
       </c>
       <c r="L96">
         <v>409142700</v>
@@ -5193,13 +5193,13 @@
         <v>-767700</v>
       </c>
       <c r="N96">
-        <v>-19961723000</v>
+        <v>-16649938100</v>
       </c>
       <c r="O96">
         <v>37177600</v>
       </c>
       <c r="P96">
-        <v>950253835000</v>
+        <v>779215844200</v>
       </c>
     </row>
     <row r="97">
@@ -5216,25 +5216,25 @@
         <v>19900</v>
       </c>
       <c r="E97">
-        <v>63270333000</v>
+        <v>58481926200</v>
       </c>
       <c r="F97">
-        <v>28470716000</v>
+        <v>21843849500</v>
       </c>
       <c r="G97">
-        <v>437601000</v>
+        <v>420817800</v>
       </c>
       <c r="H97">
         <v>4788200</v>
       </c>
       <c r="I97">
-        <v>92178650000</v>
+        <v>80746593500</v>
       </c>
       <c r="J97" t="str">
         <v>2023-01-27T13:52:00.000Z</v>
       </c>
       <c r="K97">
-        <v>7722104015000</v>
+        <v>6979679582600</v>
       </c>
       <c r="L97">
         <v>413930900</v>
@@ -5243,13 +5243,13 @@
         <v>-2172300</v>
       </c>
       <c r="N97">
-        <v>-34799617000</v>
+        <v>-36638076700</v>
       </c>
       <c r="O97">
         <v>35005300</v>
       </c>
       <c r="P97">
-        <v>915454218000</v>
+        <v>742577767500</v>
       </c>
     </row>
     <row r="98">
@@ -5266,25 +5266,25 @@
         <v>100600</v>
       </c>
       <c r="E98">
-        <v>80812447000</v>
+        <v>77356806100</v>
       </c>
       <c r="F98">
-        <v>24718620000</v>
+        <v>19749294300</v>
       </c>
       <c r="G98">
-        <v>2353007000</v>
+        <v>2272487600</v>
       </c>
       <c r="H98">
         <v>5890500</v>
       </c>
       <c r="I98">
-        <v>107884074000</v>
+        <v>99378588000</v>
       </c>
       <c r="J98" t="str">
         <v>2023-01-27T13:54:00.000Z</v>
       </c>
       <c r="K98">
-        <v>7829988089000</v>
+        <v>7079058170600</v>
       </c>
       <c r="L98">
         <v>419821400</v>
@@ -5293,13 +5293,13 @@
         <v>-3538500</v>
       </c>
       <c r="N98">
-        <v>-56093827000</v>
+        <v>-57607511800</v>
       </c>
       <c r="O98">
         <v>31466800</v>
       </c>
       <c r="P98">
-        <v>859360391000</v>
+        <v>684970255700</v>
       </c>
     </row>
     <row r="99">
@@ -5316,25 +5316,25 @@
         <v>18500</v>
       </c>
       <c r="E99">
-        <v>73942792000</v>
+        <v>69562476700</v>
       </c>
       <c r="F99">
-        <v>27824617000</v>
+        <v>25955488000</v>
       </c>
       <c r="G99">
-        <v>457927000</v>
+        <v>449435500</v>
       </c>
       <c r="H99">
         <v>5146500</v>
       </c>
       <c r="I99">
-        <v>102225336000</v>
+        <v>95967400200</v>
       </c>
       <c r="J99" t="str">
         <v>2023-01-27T13:56:00.000Z</v>
       </c>
       <c r="K99">
-        <v>7932213425000</v>
+        <v>7175025570800</v>
       </c>
       <c r="L99">
         <v>424967900</v>
@@ -5343,13 +5343,13 @@
         <v>-2205600</v>
       </c>
       <c r="N99">
-        <v>-46118175000</v>
+        <v>-43606988700</v>
       </c>
       <c r="O99">
         <v>29261200</v>
       </c>
       <c r="P99">
-        <v>813242216000</v>
+        <v>641363267000</v>
       </c>
     </row>
     <row r="100">
@@ -5366,10 +5366,10 @@
         <v>11200</v>
       </c>
       <c r="E100">
-        <v>95243677000</v>
+        <v>84045886000</v>
       </c>
       <c r="F100">
-        <v>27798077000</v>
+        <v>23138541200</v>
       </c>
       <c r="G100">
         <v>250147000</v>
@@ -5378,13 +5378,13 @@
         <v>7344400</v>
       </c>
       <c r="I100">
-        <v>123291901000</v>
+        <v>107434574200</v>
       </c>
       <c r="J100" t="str">
         <v>2023-01-27T13:58:00.000Z</v>
       </c>
       <c r="K100">
-        <v>8055505326000</v>
+        <v>7282460145000</v>
       </c>
       <c r="L100">
         <v>432312300</v>
@@ -5393,13 +5393,13 @@
         <v>-4436600</v>
       </c>
       <c r="N100">
-        <v>-67445600000</v>
+        <v>-60907344800</v>
       </c>
       <c r="O100">
         <v>24824600</v>
       </c>
       <c r="P100">
-        <v>745796616000</v>
+        <v>580455922200</v>
       </c>
     </row>
     <row r="101">
@@ -5416,10 +5416,10 @@
         <v>10700</v>
       </c>
       <c r="E101">
-        <v>50456666000</v>
+        <v>49107916100</v>
       </c>
       <c r="F101">
-        <v>42306340000</v>
+        <v>29278580800</v>
       </c>
       <c r="G101">
         <v>231984000</v>
@@ -5428,13 +5428,13 @@
         <v>4990900</v>
       </c>
       <c r="I101">
-        <v>92994990000</v>
+        <v>78618480900</v>
       </c>
       <c r="J101" t="str">
         <v>2023-01-27T14:00:00.000Z</v>
       </c>
       <c r="K101">
-        <v>8148500316000</v>
+        <v>7361078625900</v>
       </c>
       <c r="L101">
         <v>437303200</v>
@@ -5443,13 +5443,13 @@
         <v>-1467400</v>
       </c>
       <c r="N101">
-        <v>-8150326000</v>
+        <v>-19829335300</v>
       </c>
       <c r="O101">
         <v>23357200</v>
       </c>
       <c r="P101">
-        <v>737646290000</v>
+        <v>560626586900</v>
       </c>
     </row>
     <row r="102">
@@ -5466,25 +5466,25 @@
         <v>22100</v>
       </c>
       <c r="E102">
-        <v>29422327000</v>
+        <v>25154099500</v>
       </c>
       <c r="F102">
-        <v>59712083000</v>
+        <v>50344959500</v>
       </c>
       <c r="G102">
-        <v>376509000</v>
+        <v>370315200</v>
       </c>
       <c r="H102">
         <v>4605900</v>
       </c>
       <c r="I102">
-        <v>89510919000</v>
+        <v>75869374200</v>
       </c>
       <c r="J102" t="str">
         <v>2023-01-27T14:02:00.000Z</v>
       </c>
       <c r="K102">
-        <v>8238011235000</v>
+        <v>7436948000100</v>
       </c>
       <c r="L102">
         <v>441909100</v>
@@ -5493,13 +5493,13 @@
         <v>1366000</v>
       </c>
       <c r="N102">
-        <v>30289756000</v>
+        <v>25190860000</v>
       </c>
       <c r="O102">
         <v>24723200</v>
       </c>
       <c r="P102">
-        <v>767936046000</v>
+        <v>585817446900</v>
       </c>
     </row>
     <row r="103">
@@ -5516,25 +5516,25 @@
         <v>9000</v>
       </c>
       <c r="E103">
-        <v>27192816000</v>
+        <v>24960550500</v>
       </c>
       <c r="F103">
-        <v>44154173000</v>
+        <v>40427903000</v>
       </c>
       <c r="G103">
-        <v>211936000</v>
+        <v>118030000</v>
       </c>
       <c r="H103">
         <v>3546600</v>
       </c>
       <c r="I103">
-        <v>71558925000</v>
+        <v>65506483500</v>
       </c>
       <c r="J103" t="str">
         <v>2023-01-27T14:04:00.000Z</v>
       </c>
       <c r="K103">
-        <v>8309570160000</v>
+        <v>7502454483600</v>
       </c>
       <c r="L103">
         <v>445455700</v>
@@ -5543,13 +5543,13 @@
         <v>843600</v>
       </c>
       <c r="N103">
-        <v>16961357000</v>
+        <v>15467352500</v>
       </c>
       <c r="O103">
         <v>25566800</v>
       </c>
       <c r="P103">
-        <v>784897403000</v>
+        <v>601284799400</v>
       </c>
     </row>
     <row r="104">
@@ -5566,10 +5566,10 @@
         <v>4900</v>
       </c>
       <c r="E104">
-        <v>18555809000</v>
+        <v>15890477000</v>
       </c>
       <c r="F104">
-        <v>39893252000</v>
+        <v>32501750900</v>
       </c>
       <c r="G104">
         <v>84013000</v>
@@ -5578,13 +5578,13 @@
         <v>3170000</v>
       </c>
       <c r="I104">
-        <v>58533074000</v>
+        <v>48476240900</v>
       </c>
       <c r="J104" t="str">
         <v>2023-01-27T14:06:00.000Z</v>
       </c>
       <c r="K104">
-        <v>8368103234000</v>
+        <v>7550930724500</v>
       </c>
       <c r="L104">
         <v>448625700</v>
@@ -5593,13 +5593,13 @@
         <v>994300</v>
       </c>
       <c r="N104">
-        <v>21337443000</v>
+        <v>16611273900</v>
       </c>
       <c r="O104">
         <v>26561100</v>
       </c>
       <c r="P104">
-        <v>806234846000</v>
+        <v>617896073300</v>
       </c>
     </row>
     <row r="105">
@@ -5616,25 +5616,25 @@
         <v>14100</v>
       </c>
       <c r="E105">
-        <v>50222521000</v>
+        <v>42427224100</v>
       </c>
       <c r="F105">
-        <v>41804769000</v>
+        <v>36470508600</v>
       </c>
       <c r="G105">
-        <v>197431000</v>
+        <v>68560000</v>
       </c>
       <c r="H105">
         <v>4760400</v>
       </c>
       <c r="I105">
-        <v>92224721000</v>
+        <v>78966292700</v>
       </c>
       <c r="J105" t="str">
         <v>2023-01-27T14:08:00.000Z</v>
       </c>
       <c r="K105">
-        <v>8460327955000</v>
+        <v>7629897017200</v>
       </c>
       <c r="L105">
         <v>453386100</v>
@@ -5643,13 +5643,13 @@
         <v>405900</v>
       </c>
       <c r="N105">
-        <v>-8417752000</v>
+        <v>-5956715500</v>
       </c>
       <c r="O105">
         <v>26967000</v>
       </c>
       <c r="P105">
-        <v>797817094000</v>
+        <v>611939357800</v>
       </c>
     </row>
     <row r="106">
@@ -5666,10 +5666,10 @@
         <v>44400</v>
       </c>
       <c r="E106">
-        <v>55643250000</v>
+        <v>51960236700</v>
       </c>
       <c r="F106">
-        <v>29868145000</v>
+        <v>25124992900</v>
       </c>
       <c r="G106">
         <v>1050375000</v>
@@ -5678,13 +5678,13 @@
         <v>4388000</v>
       </c>
       <c r="I106">
-        <v>86561770000</v>
+        <v>78135604600</v>
       </c>
       <c r="J106" t="str">
         <v>2023-01-27T14:10:00.000Z</v>
       </c>
       <c r="K106">
-        <v>8546889725000</v>
+        <v>7708032621800</v>
       </c>
       <c r="L106">
         <v>457774100</v>
@@ -5693,13 +5693,13 @@
         <v>-1366000</v>
       </c>
       <c r="N106">
-        <v>-25775105000</v>
+        <v>-26835243800</v>
       </c>
       <c r="O106">
         <v>25601000</v>
       </c>
       <c r="P106">
-        <v>772041989000</v>
+        <v>585104114000</v>
       </c>
     </row>
     <row r="107">
@@ -5716,25 +5716,25 @@
         <v>7600</v>
       </c>
       <c r="E107">
-        <v>45305152000</v>
+        <v>40607953900</v>
       </c>
       <c r="F107">
-        <v>28883678000</v>
+        <v>23125741700</v>
       </c>
       <c r="G107">
-        <v>46107000</v>
+        <v>44908200</v>
       </c>
       <c r="H107">
         <v>3799800</v>
       </c>
       <c r="I107">
-        <v>74234937000</v>
+        <v>63778603800</v>
       </c>
       <c r="J107" t="str">
         <v>2023-01-27T14:12:00.000Z</v>
       </c>
       <c r="K107">
-        <v>8621124662000</v>
+        <v>7771811225600</v>
       </c>
       <c r="L107">
         <v>461573900</v>
@@ -5743,13 +5743,13 @@
         <v>-1247000</v>
       </c>
       <c r="N107">
-        <v>-16421474000</v>
+        <v>-17482212200</v>
       </c>
       <c r="O107">
         <v>24354000</v>
       </c>
       <c r="P107">
-        <v>755620515000</v>
+        <v>567621901800</v>
       </c>
     </row>
     <row r="108">
@@ -5766,10 +5766,10 @@
         <v>10900</v>
       </c>
       <c r="E108">
-        <v>41360488000</v>
+        <v>40113136600</v>
       </c>
       <c r="F108">
-        <v>39560697000</v>
+        <v>31918347000</v>
       </c>
       <c r="G108">
         <v>264111000</v>
@@ -5778,13 +5778,13 @@
         <v>4440300</v>
       </c>
       <c r="I108">
-        <v>81185296000</v>
+        <v>72295594600</v>
       </c>
       <c r="J108" t="str">
         <v>2023-01-27T14:14:00.000Z</v>
       </c>
       <c r="K108">
-        <v>8702309958000</v>
+        <v>7844106820200</v>
       </c>
       <c r="L108">
         <v>466014200</v>
@@ -5793,13 +5793,13 @@
         <v>-914800</v>
       </c>
       <c r="N108">
-        <v>-1799791000</v>
+        <v>-8194789600</v>
       </c>
       <c r="O108">
         <v>23439200</v>
       </c>
       <c r="P108">
-        <v>753820724000</v>
+        <v>559427112200</v>
       </c>
     </row>
     <row r="109">
@@ -5816,25 +5816,25 @@
         <v>120300</v>
       </c>
       <c r="E109">
-        <v>33947817000</v>
+        <v>30621846300</v>
       </c>
       <c r="F109">
-        <v>38653812000</v>
+        <v>31195078200</v>
       </c>
       <c r="G109">
-        <v>1539583000</v>
+        <v>1137085900</v>
       </c>
       <c r="H109">
         <v>3994300</v>
       </c>
       <c r="I109">
-        <v>74141212000</v>
+        <v>62954010400</v>
       </c>
       <c r="J109" t="str">
         <v>2023-01-27T14:16:00.000Z</v>
       </c>
       <c r="K109">
-        <v>8776451170000</v>
+        <v>7907060830600</v>
       </c>
       <c r="L109">
         <v>470008500</v>
@@ -5843,13 +5843,13 @@
         <v>2800</v>
       </c>
       <c r="N109">
-        <v>4705995000</v>
+        <v>573231900</v>
       </c>
       <c r="O109">
         <v>23442000</v>
       </c>
       <c r="P109">
-        <v>758526719000</v>
+        <v>560000344100</v>
       </c>
     </row>
     <row r="110">
@@ -5866,25 +5866,25 @@
         <v>21200</v>
       </c>
       <c r="E110">
-        <v>79118864000</v>
+        <v>75005181800</v>
       </c>
       <c r="F110">
-        <v>26397671000</v>
+        <v>23289881900</v>
       </c>
       <c r="G110">
-        <v>465082000</v>
+        <v>412634500</v>
       </c>
       <c r="H110">
         <v>5203800</v>
       </c>
       <c r="I110">
-        <v>105981617000</v>
+        <v>98707698200</v>
       </c>
       <c r="J110" t="str">
         <v>2023-01-27T14:18:00.000Z</v>
       </c>
       <c r="K110">
-        <v>8882432787000</v>
+        <v>8005768528800</v>
       </c>
       <c r="L110">
         <v>475212300</v>
@@ -5893,13 +5893,13 @@
         <v>-2708000</v>
       </c>
       <c r="N110">
-        <v>-52721193000</v>
+        <v>-51715299900</v>
       </c>
       <c r="O110">
         <v>20734000</v>
       </c>
       <c r="P110">
-        <v>705805526000</v>
+        <v>508285044200</v>
       </c>
     </row>
     <row r="111">
@@ -5916,10 +5916,10 @@
         <v>38100</v>
       </c>
       <c r="E111">
-        <v>152021875000</v>
+        <v>145979723200</v>
       </c>
       <c r="F111">
-        <v>41919076000</v>
+        <v>40100995900</v>
       </c>
       <c r="G111">
         <v>647484000</v>
@@ -5928,13 +5928,13 @@
         <v>10445600</v>
       </c>
       <c r="I111">
-        <v>194588435000</v>
+        <v>186728203100</v>
       </c>
       <c r="J111" t="str">
         <v>2023-01-27T14:20:00.000Z</v>
       </c>
       <c r="K111">
-        <v>9077021222000</v>
+        <v>8192496731900</v>
       </c>
       <c r="L111">
         <v>485657900</v>
@@ -5943,13 +5943,13 @@
         <v>-6058700</v>
       </c>
       <c r="N111">
-        <v>-110102799000</v>
+        <v>-105878727300</v>
       </c>
       <c r="O111">
         <v>14675300</v>
       </c>
       <c r="P111">
-        <v>595702727000</v>
+        <v>402406316900</v>
       </c>
     </row>
     <row r="112">
@@ -5966,25 +5966,25 @@
         <v>95400</v>
       </c>
       <c r="E112">
-        <v>93890353000</v>
+        <v>87016433800</v>
       </c>
       <c r="F112">
-        <v>41988919000</v>
+        <v>38281330300</v>
       </c>
       <c r="G112">
-        <v>1396617000</v>
+        <v>1361452200</v>
       </c>
       <c r="H112">
         <v>7459600</v>
       </c>
       <c r="I112">
-        <v>137275889000</v>
+        <v>126659216300</v>
       </c>
       <c r="J112" t="str">
         <v>2023-01-27T14:22:00.000Z</v>
       </c>
       <c r="K112">
-        <v>9214297111000</v>
+        <v>8319155948200</v>
       </c>
       <c r="L112">
         <v>493117500</v>
@@ -5993,13 +5993,13 @@
         <v>-3201200</v>
       </c>
       <c r="N112">
-        <v>-51901434000</v>
+        <v>-48735103500</v>
       </c>
       <c r="O112">
         <v>11474100</v>
       </c>
       <c r="P112">
-        <v>543801293000</v>
+        <v>353671213400</v>
       </c>
     </row>
     <row r="113">
@@ -6016,10 +6016,10 @@
         <v>72100</v>
       </c>
       <c r="E113">
-        <v>116795034000</v>
+        <v>100858286700</v>
       </c>
       <c r="F113">
-        <v>35905467000</v>
+        <v>33370404600</v>
       </c>
       <c r="G113">
         <v>1283793000</v>
@@ -6028,13 +6028,13 @@
         <v>8507800</v>
       </c>
       <c r="I113">
-        <v>153984294000</v>
+        <v>135512484300</v>
       </c>
       <c r="J113" t="str">
         <v>2023-01-27T14:24:00.000Z</v>
       </c>
       <c r="K113">
-        <v>9368281405000</v>
+        <v>8454668432500</v>
       </c>
       <c r="L113">
         <v>501625300</v>
@@ -6043,13 +6043,13 @@
         <v>-4787700</v>
       </c>
       <c r="N113">
-        <v>-80889567000</v>
+        <v>-67487882100</v>
       </c>
       <c r="O113">
         <v>6686400</v>
       </c>
       <c r="P113">
-        <v>462911726000</v>
+        <v>286183331300</v>
       </c>
     </row>
     <row r="114">
@@ -6066,10 +6066,10 @@
         <v>189700</v>
       </c>
       <c r="E114">
-        <v>121783847000</v>
+        <v>112997342300</v>
       </c>
       <c r="F114">
-        <v>49536976000</v>
+        <v>45065052400</v>
       </c>
       <c r="G114">
         <v>3338501000</v>
@@ -6078,13 +6078,13 @@
         <v>9711800</v>
       </c>
       <c r="I114">
-        <v>174659324000</v>
+        <v>161400895700</v>
       </c>
       <c r="J114" t="str">
         <v>2023-01-27T14:26:00.000Z</v>
       </c>
       <c r="K114">
-        <v>9542940729000</v>
+        <v>8616069328200</v>
       </c>
       <c r="L114">
         <v>511337100</v>
@@ -6093,13 +6093,13 @@
         <v>-4068500</v>
       </c>
       <c r="N114">
-        <v>-72246871000</v>
+        <v>-67932289900</v>
       </c>
       <c r="O114">
         <v>2617900</v>
       </c>
       <c r="P114">
-        <v>390664855000</v>
+        <v>218251041400</v>
       </c>
     </row>
     <row r="115">
@@ -6116,10 +6116,10 @@
         <v>36200</v>
       </c>
       <c r="E115">
-        <v>103686916000</v>
+        <v>96406104100</v>
       </c>
       <c r="F115">
-        <v>64096387000</v>
+        <v>62277507700</v>
       </c>
       <c r="G115">
         <v>414945000</v>
@@ -6128,13 +6128,13 @@
         <v>9349400</v>
       </c>
       <c r="I115">
-        <v>168198248000</v>
+        <v>159098556800</v>
       </c>
       <c r="J115" t="str">
         <v>2023-01-27T14:28:00.000Z</v>
       </c>
       <c r="K115">
-        <v>9711138977000</v>
+        <v>8775167885000</v>
       </c>
       <c r="L115">
         <v>520686500</v>
@@ -6143,13 +6143,13 @@
         <v>-2594600</v>
       </c>
       <c r="N115">
-        <v>-39590529000</v>
+        <v>-34128596400</v>
       </c>
       <c r="O115">
         <v>23300</v>
       </c>
       <c r="P115">
-        <v>351074326000</v>
+        <v>184122445000</v>
       </c>
     </row>
     <row r="116">
@@ -6184,7 +6184,7 @@
         <v>2023-01-27T14:30:00.000Z</v>
       </c>
       <c r="K116">
-        <v>9711513642000</v>
+        <v>8775542550000</v>
       </c>
       <c r="L116">
         <v>520715000</v>
@@ -6199,7 +6199,7 @@
         <v>2200</v>
       </c>
       <c r="P116">
-        <v>350911231000</v>
+        <v>183959350000</v>
       </c>
     </row>
     <row r="117">
@@ -6216,25 +6216,25 @@
         <v>24326600</v>
       </c>
       <c r="E117">
-        <v>40189927000</v>
+        <v>27351478300</v>
       </c>
       <c r="F117">
-        <v>36724778000</v>
+        <v>15974449100</v>
       </c>
       <c r="G117">
-        <v>486290331000</v>
+        <v>415684207800</v>
       </c>
       <c r="H117">
         <v>27335400</v>
       </c>
       <c r="I117">
-        <v>563205036000</v>
+        <v>459010135200</v>
       </c>
       <c r="J117" t="str">
         <v>2023-01-27T14:44:00.000Z</v>
       </c>
       <c r="K117">
-        <v>10274718678000</v>
+        <v>9234552685200</v>
       </c>
       <c r="L117">
         <v>548050400</v>
@@ -6243,13 +6243,13 @@
         <v>-115800</v>
       </c>
       <c r="N117">
-        <v>-3465149000</v>
+        <v>-11377029200</v>
       </c>
       <c r="O117">
         <v>-113600</v>
       </c>
       <c r="P117">
-        <v>347446082000</v>
+        <v>172582320800</v>
       </c>
     </row>
   </sheetData>

--- a/name/vnindex/20230127/VNINDEX_HOSE_5p_20230127.xlsx
+++ b/name/vnindex/20230127/VNINDEX_HOSE_5p_20230127.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P117"/>
+  <dimension ref="A1:AC117"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,45 @@
       <c r="P1" t="str">
         <v>acum_busd_val</v>
       </c>
+      <c r="Q1" t="str">
+        <v>acum_val_bu</v>
+      </c>
+      <c r="R1" t="str">
+        <v>acum_val_sd</v>
+      </c>
+      <c r="S1" t="str">
+        <v>accum_bu</v>
+      </c>
+      <c r="T1" t="str">
+        <v>accum_sd</v>
+      </c>
+      <c r="U1" t="str">
+        <v>avg_val_bu</v>
+      </c>
+      <c r="V1" t="str">
+        <v>avg_val_sd</v>
+      </c>
+      <c r="W1" t="str">
+        <v>avg_val</v>
+      </c>
+      <c r="X1" t="str">
+        <v>avg_vol</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>avg_bu</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>avg_sd</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>avg_busd</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>avg_busd_val</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>rbusd</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -501,6 +540,45 @@
       <c r="P2">
         <v>-32602015500</v>
       </c>
+      <c r="Q2">
+        <v>72645022100</v>
+      </c>
+      <c r="R2">
+        <v>105247037600</v>
+      </c>
+      <c r="S2">
+        <v>4810100</v>
+      </c>
+      <c r="T2">
+        <v>6178200</v>
+      </c>
+      <c r="U2">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V2">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W2">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X2">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y2">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z2">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA2">
+        <v>-979.3</v>
+      </c>
+      <c r="AB2">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC2">
+        <v>21.9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -551,6 +629,45 @@
       <c r="P3">
         <v>-9103551900</v>
       </c>
+      <c r="Q3">
+        <v>164724026300</v>
+      </c>
+      <c r="R3">
+        <v>173827578200</v>
+      </c>
+      <c r="S3">
+        <v>10255300</v>
+      </c>
+      <c r="T3">
+        <v>10383000</v>
+      </c>
+      <c r="U3">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V3">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W3">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X3">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y3">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z3">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA3">
+        <v>-979.3</v>
+      </c>
+      <c r="AB3">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC3">
+        <v>15.8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -601,6 +718,45 @@
       <c r="P4">
         <v>-16706966900</v>
       </c>
+      <c r="Q4">
+        <v>234314461300</v>
+      </c>
+      <c r="R4">
+        <v>251021428200</v>
+      </c>
+      <c r="S4">
+        <v>14428900</v>
+      </c>
+      <c r="T4">
+        <v>15236600</v>
+      </c>
+      <c r="U4">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V4">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W4">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X4">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y4">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z4">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA4">
+        <v>-979.3</v>
+      </c>
+      <c r="AB4">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC4">
+        <v>5.1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -651,6 +807,45 @@
       <c r="P5">
         <v>-32984508200</v>
       </c>
+      <c r="Q5">
+        <v>295618519600</v>
+      </c>
+      <c r="R5">
+        <v>328603027800</v>
+      </c>
+      <c r="S5">
+        <v>17757400</v>
+      </c>
+      <c r="T5">
+        <v>19502000</v>
+      </c>
+      <c r="U5">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V5">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W5">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X5">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y5">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z5">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA5">
+        <v>-979.3</v>
+      </c>
+      <c r="AB5">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC5">
+        <v>10.9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -701,6 +896,45 @@
       <c r="P6">
         <v>-40581235900</v>
       </c>
+      <c r="Q6">
+        <v>354403048700</v>
+      </c>
+      <c r="R6">
+        <v>394984284600</v>
+      </c>
+      <c r="S6">
+        <v>20902100</v>
+      </c>
+      <c r="T6">
+        <v>23524300</v>
+      </c>
+      <c r="U6">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V6">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W6">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X6">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y6">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z6">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA6">
+        <v>-979.3</v>
+      </c>
+      <c r="AB6">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC6">
+        <v>5.1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -751,6 +985,45 @@
       <c r="P7">
         <v>-57592560400</v>
       </c>
+      <c r="Q7">
+        <v>398802768300</v>
+      </c>
+      <c r="R7">
+        <v>456395328700</v>
+      </c>
+      <c r="S7">
+        <v>23418500</v>
+      </c>
+      <c r="T7">
+        <v>27336000</v>
+      </c>
+      <c r="U7">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V7">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W7">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X7">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y7">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z7">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA7">
+        <v>-979.3</v>
+      </c>
+      <c r="AB7">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC7">
+        <v>11.4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -801,6 +1074,45 @@
       <c r="P8">
         <v>-45863780000</v>
       </c>
+      <c r="Q8">
+        <v>453728034000</v>
+      </c>
+      <c r="R8">
+        <v>499591814000</v>
+      </c>
+      <c r="S8">
+        <v>27145500</v>
+      </c>
+      <c r="T8">
+        <v>30012600</v>
+      </c>
+      <c r="U8">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V8">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W8">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X8">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y8">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z8">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA8">
+        <v>-979.3</v>
+      </c>
+      <c r="AB8">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC8">
+        <v>7.9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -851,6 +1163,45 @@
       <c r="P9">
         <v>-25948601400</v>
       </c>
+      <c r="Q9">
+        <v>510563232200</v>
+      </c>
+      <c r="R9">
+        <v>536511833600</v>
+      </c>
+      <c r="S9">
+        <v>30205200</v>
+      </c>
+      <c r="T9">
+        <v>32209100</v>
+      </c>
+      <c r="U9">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V9">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W9">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X9">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y9">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z9">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA9">
+        <v>-979.3</v>
+      </c>
+      <c r="AB9">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC9">
+        <v>13.4</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -901,6 +1252,45 @@
       <c r="P10">
         <v>7294878900</v>
       </c>
+      <c r="Q10">
+        <v>575052632300</v>
+      </c>
+      <c r="R10">
+        <v>567757753400</v>
+      </c>
+      <c r="S10">
+        <v>33996900</v>
+      </c>
+      <c r="T10">
+        <v>34172400</v>
+      </c>
+      <c r="U10">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V10">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W10">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X10">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y10">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z10">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA10">
+        <v>-979.3</v>
+      </c>
+      <c r="AB10">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC10">
+        <v>22.3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -951,6 +1341,45 @@
       <c r="P11">
         <v>18618987700</v>
       </c>
+      <c r="Q11">
+        <v>619691614100</v>
+      </c>
+      <c r="R11">
+        <v>601072626400</v>
+      </c>
+      <c r="S11">
+        <v>36158800</v>
+      </c>
+      <c r="T11">
+        <v>36529000</v>
+      </c>
+      <c r="U11">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V11">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W11">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X11">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y11">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z11">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA11">
+        <v>-979.3</v>
+      </c>
+      <c r="AB11">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC11">
+        <v>7.6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1001,6 +1430,45 @@
       <c r="P12">
         <v>-11436334200</v>
       </c>
+      <c r="Q12">
+        <v>648621209400</v>
+      </c>
+      <c r="R12">
+        <v>660057543600</v>
+      </c>
+      <c r="S12">
+        <v>37779500</v>
+      </c>
+      <c r="T12">
+        <v>39914200</v>
+      </c>
+      <c r="U12">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V12">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W12">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X12">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y12">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z12">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA12">
+        <v>-979.3</v>
+      </c>
+      <c r="AB12">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC12">
+        <v>20.2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1051,6 +1519,45 @@
       <c r="P13">
         <v>-6720991800</v>
       </c>
+      <c r="Q13">
+        <v>682459399100</v>
+      </c>
+      <c r="R13">
+        <v>689180390900</v>
+      </c>
+      <c r="S13">
+        <v>39731200</v>
+      </c>
+      <c r="T13">
+        <v>42142100</v>
+      </c>
+      <c r="U13">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V13">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W13">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X13">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y13">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z13">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA13">
+        <v>-979.3</v>
+      </c>
+      <c r="AB13">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC13">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1101,6 +1608,45 @@
       <c r="P14">
         <v>84835600</v>
       </c>
+      <c r="Q14">
+        <v>721713187500</v>
+      </c>
+      <c r="R14">
+        <v>721628351900</v>
+      </c>
+      <c r="S14">
+        <v>41903900</v>
+      </c>
+      <c r="T14">
+        <v>44183400</v>
+      </c>
+      <c r="U14">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V14">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W14">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X14">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y14">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z14">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA14">
+        <v>-979.3</v>
+      </c>
+      <c r="AB14">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC14">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1151,6 +1697,45 @@
       <c r="P15">
         <v>11054446600</v>
       </c>
+      <c r="Q15">
+        <v>759803130800</v>
+      </c>
+      <c r="R15">
+        <v>748748684200</v>
+      </c>
+      <c r="S15">
+        <v>43954300</v>
+      </c>
+      <c r="T15">
+        <v>45871000</v>
+      </c>
+      <c r="U15">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V15">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W15">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X15">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y15">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z15">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA15">
+        <v>-979.3</v>
+      </c>
+      <c r="AB15">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC15">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1201,6 +1786,45 @@
       <c r="P16">
         <v>7611829000</v>
       </c>
+      <c r="Q16">
+        <v>790381092400</v>
+      </c>
+      <c r="R16">
+        <v>782769263400</v>
+      </c>
+      <c r="S16">
+        <v>45787000</v>
+      </c>
+      <c r="T16">
+        <v>47950700</v>
+      </c>
+      <c r="U16">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V16">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W16">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X16">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y16">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z16">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA16">
+        <v>-979.3</v>
+      </c>
+      <c r="AB16">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC16">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1251,6 +1875,45 @@
       <c r="P17">
         <v>7053285700</v>
       </c>
+      <c r="Q17">
+        <v>820162215500</v>
+      </c>
+      <c r="R17">
+        <v>813108929800</v>
+      </c>
+      <c r="S17">
+        <v>47555400</v>
+      </c>
+      <c r="T17">
+        <v>49762200</v>
+      </c>
+      <c r="U17">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V17">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W17">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X17">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y17">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z17">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA17">
+        <v>-979.3</v>
+      </c>
+      <c r="AB17">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC17">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1301,6 +1964,45 @@
       <c r="P18">
         <v>16322149800</v>
       </c>
+      <c r="Q18">
+        <v>852526475500</v>
+      </c>
+      <c r="R18">
+        <v>836204325700</v>
+      </c>
+      <c r="S18">
+        <v>49191400</v>
+      </c>
+      <c r="T18">
+        <v>51364200</v>
+      </c>
+      <c r="U18">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V18">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W18">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X18">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y18">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z18">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA18">
+        <v>-979.3</v>
+      </c>
+      <c r="AB18">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC18">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1351,6 +2053,45 @@
       <c r="P19">
         <v>19884733100</v>
       </c>
+      <c r="Q19">
+        <v>883687291300</v>
+      </c>
+      <c r="R19">
+        <v>863802558200</v>
+      </c>
+      <c r="S19">
+        <v>50893700</v>
+      </c>
+      <c r="T19">
+        <v>53294300</v>
+      </c>
+      <c r="U19">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V19">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W19">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X19">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y19">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z19">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA19">
+        <v>-979.3</v>
+      </c>
+      <c r="AB19">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC19">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1401,6 +2142,45 @@
       <c r="P20">
         <v>30984629900</v>
       </c>
+      <c r="Q20">
+        <v>916645769300</v>
+      </c>
+      <c r="R20">
+        <v>885661139400</v>
+      </c>
+      <c r="S20">
+        <v>52507900</v>
+      </c>
+      <c r="T20">
+        <v>54682800</v>
+      </c>
+      <c r="U20">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V20">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W20">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X20">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y20">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z20">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA20">
+        <v>-979.3</v>
+      </c>
+      <c r="AB20">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC20">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1451,6 +2231,45 @@
       <c r="P21">
         <v>51679121000</v>
       </c>
+      <c r="Q21">
+        <v>953886201100</v>
+      </c>
+      <c r="R21">
+        <v>902207080100</v>
+      </c>
+      <c r="S21">
+        <v>54275700</v>
+      </c>
+      <c r="T21">
+        <v>55662000</v>
+      </c>
+      <c r="U21">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V21">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W21">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X21">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y21">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z21">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA21">
+        <v>-979.3</v>
+      </c>
+      <c r="AB21">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC21">
+        <v>13.9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1501,6 +2320,45 @@
       <c r="P22">
         <v>64703527400</v>
       </c>
+      <c r="Q22">
+        <v>987295974200</v>
+      </c>
+      <c r="R22">
+        <v>922592446800</v>
+      </c>
+      <c r="S22">
+        <v>56118000</v>
+      </c>
+      <c r="T22">
+        <v>56796000</v>
+      </c>
+      <c r="U22">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V22">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W22">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X22">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y22">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z22">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA22">
+        <v>-979.3</v>
+      </c>
+      <c r="AB22">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC22">
+        <v>8.8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1551,6 +2409,45 @@
       <c r="P23">
         <v>65605478400</v>
       </c>
+      <c r="Q23">
+        <v>1020698058900</v>
+      </c>
+      <c r="R23">
+        <v>955092580500</v>
+      </c>
+      <c r="S23">
+        <v>57881100</v>
+      </c>
+      <c r="T23">
+        <v>58654900</v>
+      </c>
+      <c r="U23">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V23">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W23">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X23">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y23">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z23">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA23">
+        <v>-979.3</v>
+      </c>
+      <c r="AB23">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC23">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1601,6 +2498,45 @@
       <c r="P24">
         <v>65783607600</v>
       </c>
+      <c r="Q24">
+        <v>1049654837100</v>
+      </c>
+      <c r="R24">
+        <v>983871229500</v>
+      </c>
+      <c r="S24">
+        <v>59438600</v>
+      </c>
+      <c r="T24">
+        <v>60295000</v>
+      </c>
+      <c r="U24">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V24">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W24">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X24">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y24">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z24">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA24">
+        <v>-979.3</v>
+      </c>
+      <c r="AB24">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC24">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1651,6 +2587,45 @@
       <c r="P25">
         <v>58787707500</v>
       </c>
+      <c r="Q25">
+        <v>1078568561700</v>
+      </c>
+      <c r="R25">
+        <v>1019780854200</v>
+      </c>
+      <c r="S25">
+        <v>60927800</v>
+      </c>
+      <c r="T25">
+        <v>62563400</v>
+      </c>
+      <c r="U25">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V25">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W25">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X25">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y25">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z25">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA25">
+        <v>-979.3</v>
+      </c>
+      <c r="AB25">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC25">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1701,6 +2676,45 @@
       <c r="P26">
         <v>44737634500</v>
       </c>
+      <c r="Q26">
+        <v>1105462077300</v>
+      </c>
+      <c r="R26">
+        <v>1060724442800</v>
+      </c>
+      <c r="S26">
+        <v>62542200</v>
+      </c>
+      <c r="T26">
+        <v>65011700</v>
+      </c>
+      <c r="U26">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V26">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W26">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X26">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y26">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z26">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA26">
+        <v>-979.3</v>
+      </c>
+      <c r="AB26">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC26">
+        <v>9.4</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1751,6 +2765,45 @@
       <c r="P27">
         <v>6865434100</v>
       </c>
+      <c r="Q27">
+        <v>1128806397800</v>
+      </c>
+      <c r="R27">
+        <v>1121940963700</v>
+      </c>
+      <c r="S27">
+        <v>63929400</v>
+      </c>
+      <c r="T27">
+        <v>68601500</v>
+      </c>
+      <c r="U27">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V27">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W27">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X27">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y27">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z27">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA27">
+        <v>-979.3</v>
+      </c>
+      <c r="AB27">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC27">
+        <v>25.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1801,6 +2854,45 @@
       <c r="P28">
         <v>-32787444500</v>
       </c>
+      <c r="Q28">
+        <v>1155886246500</v>
+      </c>
+      <c r="R28">
+        <v>1188673691000</v>
+      </c>
+      <c r="S28">
+        <v>65453300</v>
+      </c>
+      <c r="T28">
+        <v>72815900</v>
+      </c>
+      <c r="U28">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V28">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W28">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X28">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y28">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z28">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA28">
+        <v>-979.3</v>
+      </c>
+      <c r="AB28">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC28">
+        <v>26.7</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1851,6 +2943,45 @@
       <c r="P29">
         <v>-67742833900</v>
       </c>
+      <c r="Q29">
+        <v>1179512907100</v>
+      </c>
+      <c r="R29">
+        <v>1247255741000</v>
+      </c>
+      <c r="S29">
+        <v>66966100</v>
+      </c>
+      <c r="T29">
+        <v>76461900</v>
+      </c>
+      <c r="U29">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V29">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W29">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X29">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y29">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z29">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA29">
+        <v>-979.3</v>
+      </c>
+      <c r="AB29">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC29">
+        <v>23.5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1901,6 +3032,45 @@
       <c r="P30">
         <v>-73892859500</v>
       </c>
+      <c r="Q30">
+        <v>1209804748600</v>
+      </c>
+      <c r="R30">
+        <v>1283697608100</v>
+      </c>
+      <c r="S30">
+        <v>68484800</v>
+      </c>
+      <c r="T30">
+        <v>78849200</v>
+      </c>
+      <c r="U30">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V30">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W30">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X30">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y30">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z30">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA30">
+        <v>-979.3</v>
+      </c>
+      <c r="AB30">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC30">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1951,6 +3121,45 @@
       <c r="P31">
         <v>-80191734100</v>
       </c>
+      <c r="Q31">
+        <v>1241506169200</v>
+      </c>
+      <c r="R31">
+        <v>1321697903300</v>
+      </c>
+      <c r="S31">
+        <v>70115900</v>
+      </c>
+      <c r="T31">
+        <v>81887100</v>
+      </c>
+      <c r="U31">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V31">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W31">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X31">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y31">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z31">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA31">
+        <v>-979.3</v>
+      </c>
+      <c r="AB31">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC31">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2001,6 +3210,45 @@
       <c r="P32">
         <v>-87265998700</v>
       </c>
+      <c r="Q32">
+        <v>1259251388000</v>
+      </c>
+      <c r="R32">
+        <v>1346517386700</v>
+      </c>
+      <c r="S32">
+        <v>71134500</v>
+      </c>
+      <c r="T32">
+        <v>83434300</v>
+      </c>
+      <c r="U32">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V32">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W32">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X32">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y32">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z32">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA32">
+        <v>-979.3</v>
+      </c>
+      <c r="AB32">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC32">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2051,6 +3299,45 @@
       <c r="P33">
         <v>-89050862100</v>
       </c>
+      <c r="Q33">
+        <v>1281743242500</v>
+      </c>
+      <c r="R33">
+        <v>1370794104600</v>
+      </c>
+      <c r="S33">
+        <v>72296500</v>
+      </c>
+      <c r="T33">
+        <v>84892300</v>
+      </c>
+      <c r="U33">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V33">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W33">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X33">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y33">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z33">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA33">
+        <v>-979.3</v>
+      </c>
+      <c r="AB33">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC33">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2101,6 +3388,45 @@
       <c r="P34">
         <v>-79907988600</v>
       </c>
+      <c r="Q34">
+        <v>1313741884900</v>
+      </c>
+      <c r="R34">
+        <v>1393649873500</v>
+      </c>
+      <c r="S34">
+        <v>74192800</v>
+      </c>
+      <c r="T34">
+        <v>86126500</v>
+      </c>
+      <c r="U34">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V34">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W34">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X34">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y34">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z34">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA34">
+        <v>-979.3</v>
+      </c>
+      <c r="AB34">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC34">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2151,6 +3477,45 @@
       <c r="P35">
         <v>-57084219300</v>
       </c>
+      <c r="Q35">
+        <v>1351269396900</v>
+      </c>
+      <c r="R35">
+        <v>1408353616200</v>
+      </c>
+      <c r="S35">
+        <v>76381400</v>
+      </c>
+      <c r="T35">
+        <v>87063000</v>
+      </c>
+      <c r="U35">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V35">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W35">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X35">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y35">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z35">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA35">
+        <v>-979.3</v>
+      </c>
+      <c r="AB35">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC35">
+        <v>15.3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2201,6 +3566,45 @@
       <c r="P36">
         <v>-30818515900</v>
       </c>
+      <c r="Q36">
+        <v>1390577779000</v>
+      </c>
+      <c r="R36">
+        <v>1421396294900</v>
+      </c>
+      <c r="S36">
+        <v>78479200</v>
+      </c>
+      <c r="T36">
+        <v>87966900</v>
+      </c>
+      <c r="U36">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V36">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W36">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X36">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y36">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z36">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA36">
+        <v>-979.3</v>
+      </c>
+      <c r="AB36">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC36">
+        <v>17.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2251,6 +3655,45 @@
       <c r="P37">
         <v>-13587163000</v>
       </c>
+      <c r="Q37">
+        <v>1423257318400</v>
+      </c>
+      <c r="R37">
+        <v>1436844481400</v>
+      </c>
+      <c r="S37">
+        <v>80533800</v>
+      </c>
+      <c r="T37">
+        <v>88975300</v>
+      </c>
+      <c r="U37">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V37">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W37">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X37">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y37">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z37">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA37">
+        <v>-979.3</v>
+      </c>
+      <c r="AB37">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC37">
+        <v>11.6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2301,6 +3744,45 @@
       <c r="P38">
         <v>-3050745900</v>
       </c>
+      <c r="Q38">
+        <v>1448127312200</v>
+      </c>
+      <c r="R38">
+        <v>1451178058100</v>
+      </c>
+      <c r="S38">
+        <v>82051700</v>
+      </c>
+      <c r="T38">
+        <v>89903300</v>
+      </c>
+      <c r="U38">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V38">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W38">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X38">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y38">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z38">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA38">
+        <v>-979.3</v>
+      </c>
+      <c r="AB38">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC38">
+        <v>7.1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2351,6 +3833,45 @@
       <c r="P39">
         <v>23840604400</v>
       </c>
+      <c r="Q39">
+        <v>1494630865600</v>
+      </c>
+      <c r="R39">
+        <v>1470790261200</v>
+      </c>
+      <c r="S39">
+        <v>85296600</v>
+      </c>
+      <c r="T39">
+        <v>91148700</v>
+      </c>
+      <c r="U39">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V39">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W39">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X39">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y39">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z39">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA39">
+        <v>-979.3</v>
+      </c>
+      <c r="AB39">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC39">
+        <v>18.1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2401,6 +3922,45 @@
       <c r="P40">
         <v>29483151500</v>
       </c>
+      <c r="Q40">
+        <v>1516733267300</v>
+      </c>
+      <c r="R40">
+        <v>1487250115800</v>
+      </c>
+      <c r="S40">
+        <v>86727800</v>
+      </c>
+      <c r="T40">
+        <v>92141400</v>
+      </c>
+      <c r="U40">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V40">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W40">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X40">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y40">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z40">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA40">
+        <v>-979.3</v>
+      </c>
+      <c r="AB40">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC40">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2451,6 +4011,45 @@
       <c r="P41">
         <v>28148160400</v>
       </c>
+      <c r="Q41">
+        <v>1538367459900</v>
+      </c>
+      <c r="R41">
+        <v>1510219299500</v>
+      </c>
+      <c r="S41">
+        <v>88193600</v>
+      </c>
+      <c r="T41">
+        <v>93426400</v>
+      </c>
+      <c r="U41">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V41">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W41">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X41">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y41">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z41">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA41">
+        <v>-979.3</v>
+      </c>
+      <c r="AB41">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC41">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2501,6 +4100,45 @@
       <c r="P42">
         <v>27515311500</v>
       </c>
+      <c r="Q42">
+        <v>1562607852400</v>
+      </c>
+      <c r="R42">
+        <v>1535092540900</v>
+      </c>
+      <c r="S42">
+        <v>89408500</v>
+      </c>
+      <c r="T42">
+        <v>94728200</v>
+      </c>
+      <c r="U42">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V42">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W42">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X42">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y42">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z42">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA42">
+        <v>-979.3</v>
+      </c>
+      <c r="AB42">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC42">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2551,6 +4189,45 @@
       <c r="P43">
         <v>20109393800</v>
       </c>
+      <c r="Q43">
+        <v>1578421859500</v>
+      </c>
+      <c r="R43">
+        <v>1558312465700</v>
+      </c>
+      <c r="S43">
+        <v>90271200</v>
+      </c>
+      <c r="T43">
+        <v>96110100</v>
+      </c>
+      <c r="U43">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V43">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W43">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X43">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y43">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z43">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA43">
+        <v>-979.3</v>
+      </c>
+      <c r="AB43">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC43">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -2601,6 +4278,45 @@
       <c r="P44">
         <v>29465688000</v>
       </c>
+      <c r="Q44">
+        <v>1605178287600</v>
+      </c>
+      <c r="R44">
+        <v>1575712599600</v>
+      </c>
+      <c r="S44">
+        <v>91580400</v>
+      </c>
+      <c r="T44">
+        <v>97278300</v>
+      </c>
+      <c r="U44">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V44">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W44">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X44">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y44">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z44">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA44">
+        <v>-979.3</v>
+      </c>
+      <c r="AB44">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC44">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2651,6 +4367,45 @@
       <c r="P45">
         <v>54845007000</v>
       </c>
+      <c r="Q45">
+        <v>1645647552400</v>
+      </c>
+      <c r="R45">
+        <v>1590802545400</v>
+      </c>
+      <c r="S45">
+        <v>93460500</v>
+      </c>
+      <c r="T45">
+        <v>98144900</v>
+      </c>
+      <c r="U45">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V45">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W45">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X45">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y45">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z45">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA45">
+        <v>-979.3</v>
+      </c>
+      <c r="AB45">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC45">
+        <v>17.1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2701,6 +4456,45 @@
       <c r="P46">
         <v>97349616600</v>
       </c>
+      <c r="Q46">
+        <v>1703037009600</v>
+      </c>
+      <c r="R46">
+        <v>1605687393000</v>
+      </c>
+      <c r="S46">
+        <v>96698800</v>
+      </c>
+      <c r="T46">
+        <v>99193100</v>
+      </c>
+      <c r="U46">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V46">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W46">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X46">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y46">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z46">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA46">
+        <v>-979.3</v>
+      </c>
+      <c r="AB46">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC46">
+        <v>28.6</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2751,6 +4545,45 @@
       <c r="P47">
         <v>159117942000</v>
       </c>
+      <c r="Q47">
+        <v>1783497692300</v>
+      </c>
+      <c r="R47">
+        <v>1624379750300</v>
+      </c>
+      <c r="S47">
+        <v>101523200</v>
+      </c>
+      <c r="T47">
+        <v>100435600</v>
+      </c>
+      <c r="U47">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V47">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W47">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X47">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y47">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z47">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA47">
+        <v>-979.3</v>
+      </c>
+      <c r="AB47">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC47">
+        <v>41.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2801,6 +4634,45 @@
       <c r="P48">
         <v>225401956700</v>
       </c>
+      <c r="Q48">
+        <v>1871685974800</v>
+      </c>
+      <c r="R48">
+        <v>1646284018100</v>
+      </c>
+      <c r="S48">
+        <v>107593000</v>
+      </c>
+      <c r="T48">
+        <v>102006000</v>
+      </c>
+      <c r="U48">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V48">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W48">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X48">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y48">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z48">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA48">
+        <v>-979.3</v>
+      </c>
+      <c r="AB48">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC48">
+        <v>44.6</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2851,6 +4723,45 @@
       <c r="P49">
         <v>255928636100</v>
       </c>
+      <c r="Q49">
+        <v>1928179759200</v>
+      </c>
+      <c r="R49">
+        <v>1672251123100</v>
+      </c>
+      <c r="S49">
+        <v>111180400</v>
+      </c>
+      <c r="T49">
+        <v>103557200</v>
+      </c>
+      <c r="U49">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V49">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W49">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X49">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y49">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z49">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA49">
+        <v>-979.3</v>
+      </c>
+      <c r="AB49">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC49">
+        <v>20.5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2901,6 +4812,45 @@
       <c r="P50">
         <v>266891258400</v>
       </c>
+      <c r="Q50">
+        <v>1960098035700</v>
+      </c>
+      <c r="R50">
+        <v>1693206777300</v>
+      </c>
+      <c r="S50">
+        <v>113179500</v>
+      </c>
+      <c r="T50">
+        <v>104696400</v>
+      </c>
+      <c r="U50">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V50">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W50">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X50">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y50">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z50">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA50">
+        <v>-979.3</v>
+      </c>
+      <c r="AB50">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC50">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2951,6 +4901,45 @@
       <c r="P51">
         <v>273308274400</v>
       </c>
+      <c r="Q51">
+        <v>1990758340900</v>
+      </c>
+      <c r="R51">
+        <v>1717450066500</v>
+      </c>
+      <c r="S51">
+        <v>115000500</v>
+      </c>
+      <c r="T51">
+        <v>106093500</v>
+      </c>
+      <c r="U51">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V51">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W51">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X51">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y51">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z51">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA51">
+        <v>-979.3</v>
+      </c>
+      <c r="AB51">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC51">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3001,6 +4990,45 @@
       <c r="P52">
         <v>274866442000</v>
       </c>
+      <c r="Q52">
+        <v>2011682675600</v>
+      </c>
+      <c r="R52">
+        <v>1736816233600</v>
+      </c>
+      <c r="S52">
+        <v>116086200</v>
+      </c>
+      <c r="T52">
+        <v>107317100</v>
+      </c>
+      <c r="U52">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V52">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W52">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X52">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y52">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z52">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA52">
+        <v>-979.3</v>
+      </c>
+      <c r="AB52">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC52">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3051,6 +5079,45 @@
       <c r="P53">
         <v>282955635800</v>
       </c>
+      <c r="Q53">
+        <v>2035966728300</v>
+      </c>
+      <c r="R53">
+        <v>1753011092500</v>
+      </c>
+      <c r="S53">
+        <v>117601400</v>
+      </c>
+      <c r="T53">
+        <v>108340800</v>
+      </c>
+      <c r="U53">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V53">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W53">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X53">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y53">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z53">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA53">
+        <v>-979.3</v>
+      </c>
+      <c r="AB53">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC53">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3101,6 +5168,45 @@
       <c r="P54">
         <v>293644093600</v>
       </c>
+      <c r="Q54">
+        <v>2058340481900</v>
+      </c>
+      <c r="R54">
+        <v>1764696388300</v>
+      </c>
+      <c r="S54">
+        <v>118944700</v>
+      </c>
+      <c r="T54">
+        <v>109061900</v>
+      </c>
+      <c r="U54">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V54">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W54">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X54">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y54">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z54">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA54">
+        <v>-979.3</v>
+      </c>
+      <c r="AB54">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC54">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3151,6 +5257,45 @@
       <c r="P55">
         <v>291543155600</v>
       </c>
+      <c r="Q55">
+        <v>2085672529900</v>
+      </c>
+      <c r="R55">
+        <v>1794129374300</v>
+      </c>
+      <c r="S55">
+        <v>120508900</v>
+      </c>
+      <c r="T55">
+        <v>110860800</v>
+      </c>
+      <c r="U55">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V55">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W55">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X55">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y55">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z55">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA55">
+        <v>-979.3</v>
+      </c>
+      <c r="AB55">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC55">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3201,6 +5346,45 @@
       <c r="P56">
         <v>293995033600</v>
       </c>
+      <c r="Q56">
+        <v>2107046184100</v>
+      </c>
+      <c r="R56">
+        <v>1813051150500</v>
+      </c>
+      <c r="S56">
+        <v>121799100</v>
+      </c>
+      <c r="T56">
+        <v>111983700</v>
+      </c>
+      <c r="U56">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V56">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W56">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X56">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y56">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z56">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA56">
+        <v>-979.3</v>
+      </c>
+      <c r="AB56">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC56">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3251,6 +5435,45 @@
       <c r="P57">
         <v>297397183700</v>
       </c>
+      <c r="Q57">
+        <v>2127032656400</v>
+      </c>
+      <c r="R57">
+        <v>1829635472700</v>
+      </c>
+      <c r="S57">
+        <v>122998200</v>
+      </c>
+      <c r="T57">
+        <v>112952100</v>
+      </c>
+      <c r="U57">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V57">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W57">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X57">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y57">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z57">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA57">
+        <v>-979.3</v>
+      </c>
+      <c r="AB57">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC57">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3301,6 +5524,45 @@
       <c r="P58">
         <v>298820741200</v>
       </c>
+      <c r="Q58">
+        <v>2148443011300</v>
+      </c>
+      <c r="R58">
+        <v>1849622270100</v>
+      </c>
+      <c r="S58">
+        <v>124270500</v>
+      </c>
+      <c r="T58">
+        <v>114056500</v>
+      </c>
+      <c r="U58">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V58">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W58">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X58">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y58">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z58">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA58">
+        <v>-979.3</v>
+      </c>
+      <c r="AB58">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC58">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3351,6 +5613,45 @@
       <c r="P59">
         <v>319988750000</v>
       </c>
+      <c r="Q59">
+        <v>2183281623800</v>
+      </c>
+      <c r="R59">
+        <v>1863292873800</v>
+      </c>
+      <c r="S59">
+        <v>126098900</v>
+      </c>
+      <c r="T59">
+        <v>114824500</v>
+      </c>
+      <c r="U59">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V59">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W59">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X59">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y59">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z59">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA59">
+        <v>-979.3</v>
+      </c>
+      <c r="AB59">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC59">
+        <v>14.2</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3401,6 +5702,45 @@
       <c r="P60">
         <v>337927149500</v>
       </c>
+      <c r="Q60">
+        <v>2215665378600</v>
+      </c>
+      <c r="R60">
+        <v>1877738229100</v>
+      </c>
+      <c r="S60">
+        <v>127996600</v>
+      </c>
+      <c r="T60">
+        <v>115708100</v>
+      </c>
+      <c r="U60">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V60">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W60">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X60">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y60">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z60">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA60">
+        <v>-979.3</v>
+      </c>
+      <c r="AB60">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC60">
+        <v>12.1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3451,6 +5791,45 @@
       <c r="P61">
         <v>357432390300</v>
       </c>
+      <c r="Q61">
+        <v>2252155149600</v>
+      </c>
+      <c r="R61">
+        <v>1894722759300</v>
+      </c>
+      <c r="S61">
+        <v>130321100</v>
+      </c>
+      <c r="T61">
+        <v>116708100</v>
+      </c>
+      <c r="U61">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V61">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W61">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X61">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y61">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z61">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA61">
+        <v>-979.3</v>
+      </c>
+      <c r="AB61">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC61">
+        <v>13.1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3501,6 +5880,45 @@
       <c r="P62">
         <v>374296377700</v>
       </c>
+      <c r="Q62">
+        <v>2284148535200</v>
+      </c>
+      <c r="R62">
+        <v>1909852157500</v>
+      </c>
+      <c r="S62">
+        <v>132278800</v>
+      </c>
+      <c r="T62">
+        <v>117747800</v>
+      </c>
+      <c r="U62">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V62">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W62">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X62">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y62">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z62">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA62">
+        <v>-979.3</v>
+      </c>
+      <c r="AB62">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC62">
+        <v>11.3</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3551,6 +5969,45 @@
       <c r="P63">
         <v>396836670800</v>
       </c>
+      <c r="Q63">
+        <v>2318756170700</v>
+      </c>
+      <c r="R63">
+        <v>1921919499900</v>
+      </c>
+      <c r="S63">
+        <v>134264300</v>
+      </c>
+      <c r="T63">
+        <v>118439700</v>
+      </c>
+      <c r="U63">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V63">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W63">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X63">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y63">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z63">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA63">
+        <v>-979.3</v>
+      </c>
+      <c r="AB63">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC63">
+        <v>15.2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -3601,6 +6058,45 @@
       <c r="P64">
         <v>416156352900</v>
       </c>
+      <c r="Q64">
+        <v>2353935803700</v>
+      </c>
+      <c r="R64">
+        <v>1937779450800</v>
+      </c>
+      <c r="S64">
+        <v>136344700</v>
+      </c>
+      <c r="T64">
+        <v>119238100</v>
+      </c>
+      <c r="U64">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V64">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W64">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X64">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y64">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z64">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA64">
+        <v>-979.3</v>
+      </c>
+      <c r="AB64">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC64">
+        <v>13</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3651,6 +6147,45 @@
       <c r="P65">
         <v>437269863400</v>
       </c>
+      <c r="Q65">
+        <v>2392735727200</v>
+      </c>
+      <c r="R65">
+        <v>1955465863800</v>
+      </c>
+      <c r="S65">
+        <v>138730200</v>
+      </c>
+      <c r="T65">
+        <v>120175300</v>
+      </c>
+      <c r="U65">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V65">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W65">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X65">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y65">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z65">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA65">
+        <v>-979.3</v>
+      </c>
+      <c r="AB65">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC65">
+        <v>14.2</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3701,6 +6236,45 @@
       <c r="P66">
         <v>459419599300</v>
       </c>
+      <c r="Q66">
+        <v>2427122163200</v>
+      </c>
+      <c r="R66">
+        <v>1967702563900</v>
+      </c>
+      <c r="S66">
+        <v>140915700</v>
+      </c>
+      <c r="T66">
+        <v>120980900</v>
+      </c>
+      <c r="U66">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V66">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W66">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X66">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y66">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z66">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA66">
+        <v>-979.3</v>
+      </c>
+      <c r="AB66">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC66">
+        <v>14.9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3751,6 +6325,45 @@
       <c r="P67">
         <v>483622855500</v>
       </c>
+      <c r="Q67">
+        <v>2464521293300</v>
+      </c>
+      <c r="R67">
+        <v>1980898437800</v>
+      </c>
+      <c r="S67">
+        <v>143164900</v>
+      </c>
+      <c r="T67">
+        <v>121708600</v>
+      </c>
+      <c r="U67">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V67">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W67">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X67">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y67">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z67">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA67">
+        <v>-979.3</v>
+      </c>
+      <c r="AB67">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC67">
+        <v>16.3</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3801,6 +6414,45 @@
       <c r="P68">
         <v>515671538600</v>
       </c>
+      <c r="Q68">
+        <v>2510829138500</v>
+      </c>
+      <c r="R68">
+        <v>1995157599900</v>
+      </c>
+      <c r="S68">
+        <v>145800500</v>
+      </c>
+      <c r="T68">
+        <v>122614100</v>
+      </c>
+      <c r="U68">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V68">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W68">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X68">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y68">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z68">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA68">
+        <v>-979.3</v>
+      </c>
+      <c r="AB68">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC68">
+        <v>21.5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3851,6 +6503,45 @@
       <c r="P69">
         <v>543522969900</v>
       </c>
+      <c r="Q69">
+        <v>2550916696800</v>
+      </c>
+      <c r="R69">
+        <v>2007393726900</v>
+      </c>
+      <c r="S69">
+        <v>148492700</v>
+      </c>
+      <c r="T69">
+        <v>123401200</v>
+      </c>
+      <c r="U69">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V69">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W69">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X69">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y69">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z69">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA69">
+        <v>-979.3</v>
+      </c>
+      <c r="AB69">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC69">
+        <v>18.7</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -3901,6 +6592,45 @@
       <c r="P70">
         <v>543804927400</v>
       </c>
+      <c r="Q70">
+        <v>2551198654300</v>
+      </c>
+      <c r="R70">
+        <v>2007393726900</v>
+      </c>
+      <c r="S70">
+        <v>148516700</v>
+      </c>
+      <c r="T70">
+        <v>123401200</v>
+      </c>
+      <c r="U70">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V70">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W70">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X70">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y70">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z70">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA70">
+        <v>-979.3</v>
+      </c>
+      <c r="AB70">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC70">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3951,6 +6681,45 @@
       <c r="P71">
         <v>557213275000</v>
       </c>
+      <c r="Q71">
+        <v>2630833149500</v>
+      </c>
+      <c r="R71">
+        <v>2073619874500</v>
+      </c>
+      <c r="S71">
+        <v>153466200</v>
+      </c>
+      <c r="T71">
+        <v>127447700</v>
+      </c>
+      <c r="U71">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V71">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W71">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X71">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y71">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z71">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA71">
+        <v>-979.3</v>
+      </c>
+      <c r="AB71">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC71">
+        <v>9</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4001,6 +6770,45 @@
       <c r="P72">
         <v>544265893300</v>
       </c>
+      <c r="Q72">
+        <v>2655181905000</v>
+      </c>
+      <c r="R72">
+        <v>2110916011700</v>
+      </c>
+      <c r="S72">
+        <v>155559000</v>
+      </c>
+      <c r="T72">
+        <v>129500500</v>
+      </c>
+      <c r="U72">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V72">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W72">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X72">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y72">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z72">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA72">
+        <v>-979.3</v>
+      </c>
+      <c r="AB72">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC72">
+        <v>8.7</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4051,6 +6859,45 @@
       <c r="P73">
         <v>541187250100</v>
       </c>
+      <c r="Q73">
+        <v>2687194699200</v>
+      </c>
+      <c r="R73">
+        <v>2146007449100</v>
+      </c>
+      <c r="S73">
+        <v>157291500</v>
+      </c>
+      <c r="T73">
+        <v>131830000</v>
+      </c>
+      <c r="U73">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V73">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W73">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X73">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y73">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z73">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA73">
+        <v>-979.3</v>
+      </c>
+      <c r="AB73">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC73">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -4101,6 +6948,45 @@
       <c r="P74">
         <v>544304825600</v>
       </c>
+      <c r="Q74">
+        <v>2732677657800</v>
+      </c>
+      <c r="R74">
+        <v>2188372832200</v>
+      </c>
+      <c r="S74">
+        <v>159728900</v>
+      </c>
+      <c r="T74">
+        <v>134444700</v>
+      </c>
+      <c r="U74">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V74">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W74">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X74">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y74">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z74">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA74">
+        <v>-979.3</v>
+      </c>
+      <c r="AB74">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC74">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -4151,6 +7037,45 @@
       <c r="P75">
         <v>555287349400</v>
       </c>
+      <c r="Q75">
+        <v>2766661528000</v>
+      </c>
+      <c r="R75">
+        <v>2211374178600</v>
+      </c>
+      <c r="S75">
+        <v>161621500</v>
+      </c>
+      <c r="T75">
+        <v>136001100</v>
+      </c>
+      <c r="U75">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V75">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W75">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X75">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y75">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z75">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA75">
+        <v>-979.3</v>
+      </c>
+      <c r="AB75">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC75">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4201,6 +7126,45 @@
       <c r="P76">
         <v>560616230300</v>
       </c>
+      <c r="Q76">
+        <v>2812189972700</v>
+      </c>
+      <c r="R76">
+        <v>2251573742400</v>
+      </c>
+      <c r="S76">
+        <v>164608400</v>
+      </c>
+      <c r="T76">
+        <v>138330600</v>
+      </c>
+      <c r="U76">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V76">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W76">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X76">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y76">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z76">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA76">
+        <v>-979.3</v>
+      </c>
+      <c r="AB76">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC76">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4251,6 +7215,45 @@
       <c r="P77">
         <v>565124195200</v>
       </c>
+      <c r="Q77">
+        <v>2849850499500</v>
+      </c>
+      <c r="R77">
+        <v>2284726304300</v>
+      </c>
+      <c r="S77">
+        <v>167278700</v>
+      </c>
+      <c r="T77">
+        <v>140267700</v>
+      </c>
+      <c r="U77">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V77">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W77">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X77">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y77">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z77">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA77">
+        <v>-979.3</v>
+      </c>
+      <c r="AB77">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC77">
+        <v>3</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4301,6 +7304,45 @@
       <c r="P78">
         <v>572664324400</v>
       </c>
+      <c r="Q78">
+        <v>2894911490900</v>
+      </c>
+      <c r="R78">
+        <v>2322247166500</v>
+      </c>
+      <c r="S78">
+        <v>170112400</v>
+      </c>
+      <c r="T78">
+        <v>142567500</v>
+      </c>
+      <c r="U78">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V78">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W78">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X78">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y78">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z78">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA78">
+        <v>-979.3</v>
+      </c>
+      <c r="AB78">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC78">
+        <v>5.1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -4351,6 +7393,45 @@
       <c r="P79">
         <v>598818307400</v>
       </c>
+      <c r="Q79">
+        <v>2948301520100</v>
+      </c>
+      <c r="R79">
+        <v>2349483212700</v>
+      </c>
+      <c r="S79">
+        <v>172772700</v>
+      </c>
+      <c r="T79">
+        <v>144347700</v>
+      </c>
+      <c r="U79">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V79">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W79">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X79">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y79">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z79">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA79">
+        <v>-979.3</v>
+      </c>
+      <c r="AB79">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC79">
+        <v>17.6</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -4401,6 +7482,45 @@
       <c r="P80">
         <v>627782743100</v>
       </c>
+      <c r="Q80">
+        <v>3007645980900</v>
+      </c>
+      <c r="R80">
+        <v>2379863237800</v>
+      </c>
+      <c r="S80">
+        <v>175940800</v>
+      </c>
+      <c r="T80">
+        <v>146194000</v>
+      </c>
+      <c r="U80">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V80">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W80">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X80">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y80">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z80">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA80">
+        <v>-979.3</v>
+      </c>
+      <c r="AB80">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC80">
+        <v>19.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -4451,6 +7571,45 @@
       <c r="P81">
         <v>683378260800</v>
       </c>
+      <c r="Q81">
+        <v>3102503632500</v>
+      </c>
+      <c r="R81">
+        <v>2419125371700</v>
+      </c>
+      <c r="S81">
+        <v>180520600</v>
+      </c>
+      <c r="T81">
+        <v>148484400</v>
+      </c>
+      <c r="U81">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V81">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W81">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X81">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y81">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z81">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA81">
+        <v>-979.3</v>
+      </c>
+      <c r="AB81">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC81">
+        <v>37.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -4501,6 +7660,45 @@
       <c r="P82">
         <v>720046154700</v>
       </c>
+      <c r="Q82">
+        <v>3176103345700</v>
+      </c>
+      <c r="R82">
+        <v>2456057191000</v>
+      </c>
+      <c r="S82">
+        <v>184663100</v>
+      </c>
+      <c r="T82">
+        <v>150539500</v>
+      </c>
+      <c r="U82">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V82">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W82">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X82">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y82">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z82">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA82">
+        <v>-979.3</v>
+      </c>
+      <c r="AB82">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC82">
+        <v>24.6</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -4551,6 +7749,45 @@
       <c r="P83">
         <v>764134887200</v>
       </c>
+      <c r="Q83">
+        <v>3248846145100</v>
+      </c>
+      <c r="R83">
+        <v>2484711257900</v>
+      </c>
+      <c r="S83">
+        <v>189217200</v>
+      </c>
+      <c r="T83">
+        <v>152339300</v>
+      </c>
+      <c r="U83">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V83">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W83">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X83">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y83">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z83">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA83">
+        <v>-979.3</v>
+      </c>
+      <c r="AB83">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC83">
+        <v>29.6</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -4601,6 +7838,45 @@
       <c r="P84">
         <v>757378415500</v>
       </c>
+      <c r="Q84">
+        <v>3297773737000</v>
+      </c>
+      <c r="R84">
+        <v>2540395321500</v>
+      </c>
+      <c r="S84">
+        <v>192433800</v>
+      </c>
+      <c r="T84">
+        <v>155498000</v>
+      </c>
+      <c r="U84">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V84">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W84">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X84">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y84">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z84">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA84">
+        <v>-979.3</v>
+      </c>
+      <c r="AB84">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC84">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -4651,6 +7927,45 @@
       <c r="P85">
         <v>796823597900</v>
       </c>
+      <c r="Q85">
+        <v>3359980429900</v>
+      </c>
+      <c r="R85">
+        <v>2563156832000</v>
+      </c>
+      <c r="S85">
+        <v>195500700</v>
+      </c>
+      <c r="T85">
+        <v>156983500</v>
+      </c>
+      <c r="U85">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V85">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W85">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X85">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y85">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z85">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA85">
+        <v>-979.3</v>
+      </c>
+      <c r="AB85">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC85">
+        <v>26.5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -4701,6 +8016,45 @@
       <c r="P86">
         <v>808935646500</v>
       </c>
+      <c r="Q86">
+        <v>3400390691600</v>
+      </c>
+      <c r="R86">
+        <v>2591455045100</v>
+      </c>
+      <c r="S86">
+        <v>197640200</v>
+      </c>
+      <c r="T86">
+        <v>158672600</v>
+      </c>
+      <c r="U86">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V86">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W86">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X86">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y86">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z86">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA86">
+        <v>-979.3</v>
+      </c>
+      <c r="AB86">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC86">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -4751,6 +8105,45 @@
       <c r="P87">
         <v>828949193700</v>
       </c>
+      <c r="Q87">
+        <v>3447190980600</v>
+      </c>
+      <c r="R87">
+        <v>2618241786900</v>
+      </c>
+      <c r="S87">
+        <v>200410900</v>
+      </c>
+      <c r="T87">
+        <v>160279700</v>
+      </c>
+      <c r="U87">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V87">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W87">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X87">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y87">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z87">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA87">
+        <v>-979.3</v>
+      </c>
+      <c r="AB87">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC87">
+        <v>13.5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -4801,6 +8194,45 @@
       <c r="P88">
         <v>844147251500</v>
       </c>
+      <c r="Q88">
+        <v>3493508194200</v>
+      </c>
+      <c r="R88">
+        <v>2649360942700</v>
+      </c>
+      <c r="S88">
+        <v>202943700</v>
+      </c>
+      <c r="T88">
+        <v>162294500</v>
+      </c>
+      <c r="U88">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V88">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W88">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X88">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y88">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z88">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA88">
+        <v>-979.3</v>
+      </c>
+      <c r="AB88">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC88">
+        <v>10.2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -4851,6 +8283,45 @@
       <c r="P89">
         <v>842835991400</v>
       </c>
+      <c r="Q89">
+        <v>3537079755100</v>
+      </c>
+      <c r="R89">
+        <v>2694243763700</v>
+      </c>
+      <c r="S89">
+        <v>205309000</v>
+      </c>
+      <c r="T89">
+        <v>164696500</v>
+      </c>
+      <c r="U89">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V89">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W89">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X89">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y89">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z89">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA89">
+        <v>-979.3</v>
+      </c>
+      <c r="AB89">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC89">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -4901,6 +8372,45 @@
       <c r="P90">
         <v>840152175600</v>
       </c>
+      <c r="Q90">
+        <v>3580757330300</v>
+      </c>
+      <c r="R90">
+        <v>2740605154700</v>
+      </c>
+      <c r="S90">
+        <v>207810600</v>
+      </c>
+      <c r="T90">
+        <v>167470100</v>
+      </c>
+      <c r="U90">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V90">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W90">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X90">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y90">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z90">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA90">
+        <v>-979.3</v>
+      </c>
+      <c r="AB90">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC90">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -4951,6 +8461,45 @@
       <c r="P91">
         <v>843068384600</v>
       </c>
+      <c r="Q91">
+        <v>3619232699500</v>
+      </c>
+      <c r="R91">
+        <v>2776164314900</v>
+      </c>
+      <c r="S91">
+        <v>210073100</v>
+      </c>
+      <c r="T91">
+        <v>169800500</v>
+      </c>
+      <c r="U91">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V91">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W91">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X91">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y91">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z91">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA91">
+        <v>-979.3</v>
+      </c>
+      <c r="AB91">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC91">
+        <v>2</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -5001,6 +8550,45 @@
       <c r="P92">
         <v>839196059700</v>
       </c>
+      <c r="Q92">
+        <v>3662279919900</v>
+      </c>
+      <c r="R92">
+        <v>2823083860200</v>
+      </c>
+      <c r="S92">
+        <v>212339400</v>
+      </c>
+      <c r="T92">
+        <v>172976800</v>
+      </c>
+      <c r="U92">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V92">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W92">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X92">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y92">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z92">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA92">
+        <v>-979.3</v>
+      </c>
+      <c r="AB92">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC92">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -5051,6 +8639,45 @@
       <c r="P93">
         <v>840802486400</v>
       </c>
+      <c r="Q93">
+        <v>3702036746900</v>
+      </c>
+      <c r="R93">
+        <v>2861234260500</v>
+      </c>
+      <c r="S93">
+        <v>214590500</v>
+      </c>
+      <c r="T93">
+        <v>175053500</v>
+      </c>
+      <c r="U93">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V93">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W93">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X93">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y93">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z93">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA93">
+        <v>-979.3</v>
+      </c>
+      <c r="AB93">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC93">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -5101,6 +8728,45 @@
       <c r="P94">
         <v>833382948300</v>
       </c>
+      <c r="Q94">
+        <v>3734618793400</v>
+      </c>
+      <c r="R94">
+        <v>2901235845100</v>
+      </c>
+      <c r="S94">
+        <v>216311400</v>
+      </c>
+      <c r="T94">
+        <v>177351500</v>
+      </c>
+      <c r="U94">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V94">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W94">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X94">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y94">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z94">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA94">
+        <v>-979.3</v>
+      </c>
+      <c r="AB94">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC94">
+        <v>5</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -5151,6 +8817,45 @@
       <c r="P95">
         <v>795865782300</v>
       </c>
+      <c r="Q95">
+        <v>3775908686000</v>
+      </c>
+      <c r="R95">
+        <v>2980042903700</v>
+      </c>
+      <c r="S95">
+        <v>218433700</v>
+      </c>
+      <c r="T95">
+        <v>180488400</v>
+      </c>
+      <c r="U95">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V95">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W95">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X95">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y95">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z95">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA95">
+        <v>-979.3</v>
+      </c>
+      <c r="AB95">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC95">
+        <v>25.2</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -5201,6 +8906,45 @@
       <c r="P96">
         <v>779215844200</v>
       </c>
+      <c r="Q96">
+        <v>3810238872300</v>
+      </c>
+      <c r="R96">
+        <v>3031023028100</v>
+      </c>
+      <c r="S96">
+        <v>220262900</v>
+      </c>
+      <c r="T96">
+        <v>183085300</v>
+      </c>
+      <c r="U96">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V96">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W96">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X96">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y96">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z96">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA96">
+        <v>-979.3</v>
+      </c>
+      <c r="AB96">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC96">
+        <v>11.2</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -5251,6 +8995,45 @@
       <c r="P97">
         <v>742577767500</v>
       </c>
+      <c r="Q97">
+        <v>3832082721800</v>
+      </c>
+      <c r="R97">
+        <v>3089504954300</v>
+      </c>
+      <c r="S97">
+        <v>221560900</v>
+      </c>
+      <c r="T97">
+        <v>186555600</v>
+      </c>
+      <c r="U97">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V97">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W97">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X97">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y97">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z97">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA97">
+        <v>-979.3</v>
+      </c>
+      <c r="AB97">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC97">
+        <v>24.6</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5301,6 +9084,45 @@
       <c r="P98">
         <v>684970255700</v>
       </c>
+      <c r="Q98">
+        <v>3851832016100</v>
+      </c>
+      <c r="R98">
+        <v>3166861760400</v>
+      </c>
+      <c r="S98">
+        <v>222686600</v>
+      </c>
+      <c r="T98">
+        <v>191219800</v>
+      </c>
+      <c r="U98">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V98">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W98">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X98">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y98">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z98">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA98">
+        <v>-979.3</v>
+      </c>
+      <c r="AB98">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC98">
+        <v>38.7</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5351,6 +9173,45 @@
       <c r="P99">
         <v>641363267000</v>
       </c>
+      <c r="Q99">
+        <v>3877787504100</v>
+      </c>
+      <c r="R99">
+        <v>3236424237100</v>
+      </c>
+      <c r="S99">
+        <v>224147800</v>
+      </c>
+      <c r="T99">
+        <v>194886600</v>
+      </c>
+      <c r="U99">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V99">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W99">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X99">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y99">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z99">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA99">
+        <v>-979.3</v>
+      </c>
+      <c r="AB99">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC99">
+        <v>29.3</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5401,6 +9262,45 @@
       <c r="P100">
         <v>580455922200</v>
       </c>
+      <c r="Q100">
+        <v>3900926045300</v>
+      </c>
+      <c r="R100">
+        <v>3320470123100</v>
+      </c>
+      <c r="S100">
+        <v>225596100</v>
+      </c>
+      <c r="T100">
+        <v>200771500</v>
+      </c>
+      <c r="U100">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V100">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W100">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X100">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y100">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z100">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA100">
+        <v>-979.3</v>
+      </c>
+      <c r="AB100">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC100">
+        <v>40.9</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5451,6 +9351,45 @@
       <c r="P101">
         <v>560626586900</v>
       </c>
+      <c r="Q101">
+        <v>3930204626100</v>
+      </c>
+      <c r="R101">
+        <v>3369578039200</v>
+      </c>
+      <c r="S101">
+        <v>227352500</v>
+      </c>
+      <c r="T101">
+        <v>203995300</v>
+      </c>
+      <c r="U101">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V101">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W101">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X101">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y101">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z101">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA101">
+        <v>-979.3</v>
+      </c>
+      <c r="AB101">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC101">
+        <v>13.3</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5501,6 +9440,45 @@
       <c r="P102">
         <v>585817446900</v>
       </c>
+      <c r="Q102">
+        <v>3980549585600</v>
+      </c>
+      <c r="R102">
+        <v>3394732138700</v>
+      </c>
+      <c r="S102">
+        <v>230327400</v>
+      </c>
+      <c r="T102">
+        <v>205604200</v>
+      </c>
+      <c r="U102">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V102">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W102">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X102">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y102">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z102">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA102">
+        <v>-979.3</v>
+      </c>
+      <c r="AB102">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC102">
+        <v>16.9</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5551,6 +9529,45 @@
       <c r="P103">
         <v>601284799400</v>
       </c>
+      <c r="Q103">
+        <v>4020977488600</v>
+      </c>
+      <c r="R103">
+        <v>3419692689200</v>
+      </c>
+      <c r="S103">
+        <v>232518000</v>
+      </c>
+      <c r="T103">
+        <v>206951200</v>
+      </c>
+      <c r="U103">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V103">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W103">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X103">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y103">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z103">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA103">
+        <v>-979.3</v>
+      </c>
+      <c r="AB103">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC103">
+        <v>10.4</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5601,6 +9618,45 @@
       <c r="P104">
         <v>617896073300</v>
       </c>
+      <c r="Q104">
+        <v>4053479239500</v>
+      </c>
+      <c r="R104">
+        <v>3435583166200</v>
+      </c>
+      <c r="S104">
+        <v>234597700</v>
+      </c>
+      <c r="T104">
+        <v>208036600</v>
+      </c>
+      <c r="U104">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V104">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W104">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X104">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y104">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z104">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA104">
+        <v>-979.3</v>
+      </c>
+      <c r="AB104">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC104">
+        <v>11.2</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5651,6 +9707,45 @@
       <c r="P105">
         <v>611939357800</v>
       </c>
+      <c r="Q105">
+        <v>4089949748100</v>
+      </c>
+      <c r="R105">
+        <v>3478010390300</v>
+      </c>
+      <c r="S105">
+        <v>237173800</v>
+      </c>
+      <c r="T105">
+        <v>210206800</v>
+      </c>
+      <c r="U105">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V105">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W105">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X105">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y105">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z105">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA105">
+        <v>-979.3</v>
+      </c>
+      <c r="AB105">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC105">
+        <v>4</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -5701,6 +9796,45 @@
       <c r="P106">
         <v>585104114000</v>
       </c>
+      <c r="Q106">
+        <v>4115074741000</v>
+      </c>
+      <c r="R106">
+        <v>3529970627000</v>
+      </c>
+      <c r="S106">
+        <v>238662600</v>
+      </c>
+      <c r="T106">
+        <v>213061600</v>
+      </c>
+      <c r="U106">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V106">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W106">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X106">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y106">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z106">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA106">
+        <v>-979.3</v>
+      </c>
+      <c r="AB106">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC106">
+        <v>18</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -5751,6 +9885,45 @@
       <c r="P107">
         <v>567621901800</v>
       </c>
+      <c r="Q107">
+        <v>4138200482700</v>
+      </c>
+      <c r="R107">
+        <v>3570578580900</v>
+      </c>
+      <c r="S107">
+        <v>239935200</v>
+      </c>
+      <c r="T107">
+        <v>215581200</v>
+      </c>
+      <c r="U107">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V107">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W107">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X107">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y107">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z107">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA107">
+        <v>-979.3</v>
+      </c>
+      <c r="AB107">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC107">
+        <v>11.8</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -5801,6 +9974,45 @@
       <c r="P108">
         <v>559427112200</v>
       </c>
+      <c r="Q108">
+        <v>4170118829700</v>
+      </c>
+      <c r="R108">
+        <v>3610691717500</v>
+      </c>
+      <c r="S108">
+        <v>241692500</v>
+      </c>
+      <c r="T108">
+        <v>218253300</v>
+      </c>
+      <c r="U108">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V108">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W108">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X108">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y108">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z108">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA108">
+        <v>-979.3</v>
+      </c>
+      <c r="AB108">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC108">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -5851,6 +10063,45 @@
       <c r="P109">
         <v>560000344100</v>
       </c>
+      <c r="Q109">
+        <v>4201313907900</v>
+      </c>
+      <c r="R109">
+        <v>3641313563800</v>
+      </c>
+      <c r="S109">
+        <v>243630900</v>
+      </c>
+      <c r="T109">
+        <v>220188900</v>
+      </c>
+      <c r="U109">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V109">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W109">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X109">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y109">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z109">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA109">
+        <v>-979.3</v>
+      </c>
+      <c r="AB109">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC109">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -5901,6 +10152,45 @@
       <c r="P110">
         <v>508285044200</v>
       </c>
+      <c r="Q110">
+        <v>4224603789800</v>
+      </c>
+      <c r="R110">
+        <v>3716318745600</v>
+      </c>
+      <c r="S110">
+        <v>244868200</v>
+      </c>
+      <c r="T110">
+        <v>224134200</v>
+      </c>
+      <c r="U110">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V110">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W110">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X110">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y110">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z110">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA110">
+        <v>-979.3</v>
+      </c>
+      <c r="AB110">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC110">
+        <v>34.8</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -5951,6 +10241,45 @@
       <c r="P111">
         <v>402406316900</v>
       </c>
+      <c r="Q111">
+        <v>4264704785700</v>
+      </c>
+      <c r="R111">
+        <v>3862298468800</v>
+      </c>
+      <c r="S111">
+        <v>247042600</v>
+      </c>
+      <c r="T111">
+        <v>232367300</v>
+      </c>
+      <c r="U111">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V111">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W111">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X111">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y111">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z111">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA111">
+        <v>-979.3</v>
+      </c>
+      <c r="AB111">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC111">
+        <v>71.2</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -6001,6 +10330,45 @@
       <c r="P112">
         <v>353671213400</v>
       </c>
+      <c r="Q112">
+        <v>4302986116000</v>
+      </c>
+      <c r="R112">
+        <v>3949314902600</v>
+      </c>
+      <c r="S112">
+        <v>249124100</v>
+      </c>
+      <c r="T112">
+        <v>237650000</v>
+      </c>
+      <c r="U112">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V112">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W112">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X112">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y112">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z112">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA112">
+        <v>-979.3</v>
+      </c>
+      <c r="AB112">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC112">
+        <v>32.8</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -6051,6 +10419,45 @@
       <c r="P113">
         <v>286183331300</v>
       </c>
+      <c r="Q113">
+        <v>4336356520600</v>
+      </c>
+      <c r="R113">
+        <v>4050173189300</v>
+      </c>
+      <c r="S113">
+        <v>250948100</v>
+      </c>
+      <c r="T113">
+        <v>244261700</v>
+      </c>
+      <c r="U113">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V113">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W113">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X113">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y113">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z113">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA113">
+        <v>-979.3</v>
+      </c>
+      <c r="AB113">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC113">
+        <v>45.4</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -6101,6 +10508,45 @@
       <c r="P114">
         <v>218251041400</v>
       </c>
+      <c r="Q114">
+        <v>4381421573000</v>
+      </c>
+      <c r="R114">
+        <v>4163170531600</v>
+      </c>
+      <c r="S114">
+        <v>253674900</v>
+      </c>
+      <c r="T114">
+        <v>251057000</v>
+      </c>
+      <c r="U114">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V114">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W114">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X114">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y114">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z114">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA114">
+        <v>-979.3</v>
+      </c>
+      <c r="AB114">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC114">
+        <v>45.7</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -6151,6 +10597,45 @@
       <c r="P115">
         <v>184122445000</v>
       </c>
+      <c r="Q115">
+        <v>4443699080700</v>
+      </c>
+      <c r="R115">
+        <v>4259576635700</v>
+      </c>
+      <c r="S115">
+        <v>257034200</v>
+      </c>
+      <c r="T115">
+        <v>257010900</v>
+      </c>
+      <c r="U115">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V115">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W115">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X115">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y115">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z115">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA115">
+        <v>-979.3</v>
+      </c>
+      <c r="AB115">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC115">
+        <v>22.9</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -6201,6 +10686,45 @@
       <c r="P116">
         <v>183959350000</v>
       </c>
+      <c r="Q116">
+        <v>4443804865700</v>
+      </c>
+      <c r="R116">
+        <v>4259845515700</v>
+      </c>
+      <c r="S116">
+        <v>257037900</v>
+      </c>
+      <c r="T116">
+        <v>257035700</v>
+      </c>
+      <c r="U116">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V116">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W116">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X116">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y116">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z116">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA116">
+        <v>-979.3</v>
+      </c>
+      <c r="AB116">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC116">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -6251,10 +10775,49 @@
       <c r="P117">
         <v>172582320800</v>
       </c>
+      <c r="Q117">
+        <v>4459779314800</v>
+      </c>
+      <c r="R117">
+        <v>4287196994000</v>
+      </c>
+      <c r="S117">
+        <v>258484400</v>
+      </c>
+      <c r="T117">
+        <v>258598000</v>
+      </c>
+      <c r="U117">
+        <v>38446373403.4</v>
+      </c>
+      <c r="V117">
+        <v>36958594775.9</v>
+      </c>
+      <c r="W117">
+        <v>79608212803.4</v>
+      </c>
+      <c r="X117">
+        <v>4724572.4</v>
+      </c>
+      <c r="Y117">
+        <v>2228313.8</v>
+      </c>
+      <c r="Z117">
+        <v>2229293.1</v>
+      </c>
+      <c r="AA117">
+        <v>-979.3</v>
+      </c>
+      <c r="AB117">
+        <v>1487778627.6</v>
+      </c>
+      <c r="AC117">
+        <v>7.6</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P117"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC117"/>
   </ignoredErrors>
 </worksheet>
 </file>